--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト(Webサービス)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト(Webサービス)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80BFCC0-4318-4DDE-AE2B-01648E3FAC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E707C5A3-E0C0-4C32-80CD-4ED2FF2EC977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="502">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -5956,13 +5956,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バッチ処理ID：</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -7737,72 +7730,6 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -7909,6 +7836,72 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9419,57 +9412,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="206" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="212" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="184" t="s">
+        <v>467</v>
+      </c>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="214"/>
-      <c r="S1" s="221" t="s">
-        <v>502</v>
-      </c>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="223"/>
-      <c r="AA1" s="203" t="s">
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="199" t="s">
+        <v>501</v>
+      </c>
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="205"/>
-      <c r="AC1" s="230" t="str">
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="208" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="231"/>
-      <c r="AE1" s="231"/>
-      <c r="AF1" s="232"/>
-      <c r="AG1" s="197" t="str">
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="210"/>
+      <c r="AG1" s="175" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="177"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -9477,53 +9470,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="206" t="s">
-        <v>469</v>
-      </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="225"/>
-      <c r="U2" s="225"/>
-      <c r="V2" s="225"/>
-      <c r="W2" s="225"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="226"/>
-      <c r="AA2" s="203" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="184" t="s">
+        <v>468</v>
+      </c>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="209" t="str">
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="187" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="210"/>
-      <c r="AE2" s="210"/>
-      <c r="AF2" s="211"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="189"/>
+      <c r="AG2" s="175" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="177"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -9531,45 +9524,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="206" t="s">
-        <v>470</v>
-      </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="228"/>
-      <c r="U3" s="228"/>
-      <c r="V3" s="228"/>
-      <c r="W3" s="228"/>
-      <c r="X3" s="228"/>
-      <c r="Y3" s="228"/>
-      <c r="Z3" s="229"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="205"/>
-      <c r="AC3" s="230"/>
-      <c r="AD3" s="231"/>
-      <c r="AE3" s="231"/>
-      <c r="AF3" s="232"/>
-      <c r="AG3" s="197"/>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="184" t="s">
+        <v>469</v>
+      </c>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="208"/>
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="175"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="177"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -9606,85 +9599,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="200" t="s">
+      <c r="C7" s="179"/>
+      <c r="D7" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="202"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="200" t="s">
+      <c r="E7" s="180"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="202"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="200" t="s">
+      <c r="H7" s="180"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="201"/>
-      <c r="Q7" s="200" t="s">
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="202"/>
-      <c r="S7" s="202"/>
-      <c r="T7" s="202"/>
-      <c r="U7" s="202"/>
-      <c r="V7" s="202"/>
-      <c r="W7" s="202"/>
-      <c r="X7" s="202"/>
-      <c r="Y7" s="202"/>
-      <c r="Z7" s="202"/>
-      <c r="AA7" s="202"/>
-      <c r="AB7" s="202"/>
-      <c r="AC7" s="202"/>
-      <c r="AD7" s="202"/>
-      <c r="AE7" s="201"/>
-      <c r="AF7" s="200" t="s">
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="180"/>
+      <c r="AA7" s="180"/>
+      <c r="AB7" s="180"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="180"/>
+      <c r="AE7" s="179"/>
+      <c r="AF7" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="202"/>
-      <c r="AH7" s="202"/>
-      <c r="AI7" s="201"/>
+      <c r="AG7" s="180"/>
+      <c r="AH7" s="180"/>
+      <c r="AI7" s="179"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="195"/>
-      <c r="O8" s="195"/>
-      <c r="P8" s="196"/>
-      <c r="Q8" s="194"/>
-      <c r="R8" s="195"/>
-      <c r="S8" s="195"/>
-      <c r="T8" s="195"/>
-      <c r="U8" s="195"/>
-      <c r="V8" s="195"/>
-      <c r="W8" s="195"/>
-      <c r="X8" s="195"/>
-      <c r="Y8" s="195"/>
-      <c r="Z8" s="195"/>
-      <c r="AA8" s="195"/>
-      <c r="AB8" s="195"/>
-      <c r="AC8" s="195"/>
-      <c r="AD8" s="195"/>
-      <c r="AE8" s="196"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="229"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="230"/>
+      <c r="M8" s="230"/>
+      <c r="N8" s="230"/>
+      <c r="O8" s="230"/>
+      <c r="P8" s="231"/>
+      <c r="Q8" s="229"/>
+      <c r="R8" s="230"/>
+      <c r="S8" s="230"/>
+      <c r="T8" s="230"/>
+      <c r="U8" s="230"/>
+      <c r="V8" s="230"/>
+      <c r="W8" s="230"/>
+      <c r="X8" s="230"/>
+      <c r="Y8" s="230"/>
+      <c r="Z8" s="230"/>
+      <c r="AA8" s="230"/>
+      <c r="AB8" s="230"/>
+      <c r="AC8" s="230"/>
+      <c r="AD8" s="230"/>
+      <c r="AE8" s="231"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -9692,934 +9685,1089 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="182"/>
-      <c r="L9" s="182"/>
-      <c r="M9" s="182"/>
-      <c r="N9" s="182"/>
-      <c r="O9" s="182"/>
-      <c r="P9" s="183"/>
-      <c r="Q9" s="184"/>
-      <c r="R9" s="185"/>
-      <c r="S9" s="185"/>
-      <c r="T9" s="185"/>
-      <c r="U9" s="185"/>
-      <c r="V9" s="185"/>
-      <c r="W9" s="185"/>
-      <c r="X9" s="185"/>
-      <c r="Y9" s="185"/>
-      <c r="Z9" s="185"/>
-      <c r="AA9" s="185"/>
-      <c r="AB9" s="185"/>
-      <c r="AC9" s="185"/>
-      <c r="AD9" s="185"/>
-      <c r="AE9" s="186"/>
-      <c r="AF9" s="181"/>
-      <c r="AG9" s="182"/>
-      <c r="AH9" s="182"/>
-      <c r="AI9" s="183"/>
+      <c r="B9" s="211"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="217"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="218"/>
+      <c r="N9" s="218"/>
+      <c r="O9" s="218"/>
+      <c r="P9" s="219"/>
+      <c r="Q9" s="220"/>
+      <c r="R9" s="221"/>
+      <c r="S9" s="221"/>
+      <c r="T9" s="221"/>
+      <c r="U9" s="221"/>
+      <c r="V9" s="221"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="221"/>
+      <c r="Y9" s="221"/>
+      <c r="Z9" s="221"/>
+      <c r="AA9" s="221"/>
+      <c r="AB9" s="221"/>
+      <c r="AC9" s="221"/>
+      <c r="AD9" s="221"/>
+      <c r="AE9" s="222"/>
+      <c r="AF9" s="217"/>
+      <c r="AG9" s="218"/>
+      <c r="AH9" s="218"/>
+      <c r="AI9" s="219"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="175"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="182"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="183"/>
-      <c r="Q10" s="184"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="185"/>
-      <c r="T10" s="185"/>
-      <c r="U10" s="185"/>
-      <c r="V10" s="185"/>
-      <c r="W10" s="185"/>
-      <c r="X10" s="185"/>
-      <c r="Y10" s="185"/>
-      <c r="Z10" s="185"/>
-      <c r="AA10" s="185"/>
-      <c r="AB10" s="185"/>
-      <c r="AC10" s="185"/>
-      <c r="AD10" s="185"/>
-      <c r="AE10" s="186"/>
-      <c r="AF10" s="181"/>
-      <c r="AG10" s="182"/>
-      <c r="AH10" s="182"/>
-      <c r="AI10" s="183"/>
+      <c r="B10" s="211"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="216"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="217"/>
+      <c r="K10" s="218"/>
+      <c r="L10" s="218"/>
+      <c r="M10" s="218"/>
+      <c r="N10" s="218"/>
+      <c r="O10" s="218"/>
+      <c r="P10" s="219"/>
+      <c r="Q10" s="220"/>
+      <c r="R10" s="221"/>
+      <c r="S10" s="221"/>
+      <c r="T10" s="221"/>
+      <c r="U10" s="221"/>
+      <c r="V10" s="221"/>
+      <c r="W10" s="221"/>
+      <c r="X10" s="221"/>
+      <c r="Y10" s="221"/>
+      <c r="Z10" s="221"/>
+      <c r="AA10" s="221"/>
+      <c r="AB10" s="221"/>
+      <c r="AC10" s="221"/>
+      <c r="AD10" s="221"/>
+      <c r="AE10" s="222"/>
+      <c r="AF10" s="217"/>
+      <c r="AG10" s="218"/>
+      <c r="AH10" s="218"/>
+      <c r="AI10" s="219"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="175"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="182"/>
-      <c r="M11" s="182"/>
-      <c r="N11" s="182"/>
-      <c r="O11" s="182"/>
-      <c r="P11" s="183"/>
-      <c r="Q11" s="184"/>
-      <c r="R11" s="185"/>
-      <c r="S11" s="185"/>
-      <c r="T11" s="185"/>
-      <c r="U11" s="185"/>
-      <c r="V11" s="185"/>
-      <c r="W11" s="185"/>
-      <c r="X11" s="185"/>
-      <c r="Y11" s="185"/>
-      <c r="Z11" s="185"/>
-      <c r="AA11" s="185"/>
-      <c r="AB11" s="185"/>
-      <c r="AC11" s="185"/>
-      <c r="AD11" s="185"/>
-      <c r="AE11" s="186"/>
-      <c r="AF11" s="181"/>
-      <c r="AG11" s="182"/>
-      <c r="AH11" s="182"/>
-      <c r="AI11" s="183"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="212"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="215"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="217"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="218"/>
+      <c r="M11" s="218"/>
+      <c r="N11" s="218"/>
+      <c r="O11" s="218"/>
+      <c r="P11" s="219"/>
+      <c r="Q11" s="220"/>
+      <c r="R11" s="221"/>
+      <c r="S11" s="221"/>
+      <c r="T11" s="221"/>
+      <c r="U11" s="221"/>
+      <c r="V11" s="221"/>
+      <c r="W11" s="221"/>
+      <c r="X11" s="221"/>
+      <c r="Y11" s="221"/>
+      <c r="Z11" s="221"/>
+      <c r="AA11" s="221"/>
+      <c r="AB11" s="221"/>
+      <c r="AC11" s="221"/>
+      <c r="AD11" s="221"/>
+      <c r="AE11" s="222"/>
+      <c r="AF11" s="217"/>
+      <c r="AG11" s="218"/>
+      <c r="AH11" s="218"/>
+      <c r="AI11" s="219"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="175"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="181"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="182"/>
-      <c r="M12" s="182"/>
-      <c r="N12" s="182"/>
-      <c r="O12" s="182"/>
-      <c r="P12" s="183"/>
-      <c r="Q12" s="184"/>
-      <c r="R12" s="185"/>
-      <c r="S12" s="185"/>
-      <c r="T12" s="185"/>
-      <c r="U12" s="185"/>
-      <c r="V12" s="185"/>
-      <c r="W12" s="185"/>
-      <c r="X12" s="185"/>
-      <c r="Y12" s="185"/>
-      <c r="Z12" s="185"/>
-      <c r="AA12" s="185"/>
-      <c r="AB12" s="185"/>
-      <c r="AC12" s="185"/>
-      <c r="AD12" s="185"/>
-      <c r="AE12" s="186"/>
-      <c r="AF12" s="181"/>
-      <c r="AG12" s="182"/>
-      <c r="AH12" s="182"/>
-      <c r="AI12" s="183"/>
+      <c r="B12" s="211"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="215"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="216"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="217"/>
+      <c r="K12" s="218"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="218"/>
+      <c r="N12" s="218"/>
+      <c r="O12" s="218"/>
+      <c r="P12" s="219"/>
+      <c r="Q12" s="220"/>
+      <c r="R12" s="221"/>
+      <c r="S12" s="221"/>
+      <c r="T12" s="221"/>
+      <c r="U12" s="221"/>
+      <c r="V12" s="221"/>
+      <c r="W12" s="221"/>
+      <c r="X12" s="221"/>
+      <c r="Y12" s="221"/>
+      <c r="Z12" s="221"/>
+      <c r="AA12" s="221"/>
+      <c r="AB12" s="221"/>
+      <c r="AC12" s="221"/>
+      <c r="AD12" s="221"/>
+      <c r="AE12" s="222"/>
+      <c r="AF12" s="217"/>
+      <c r="AG12" s="218"/>
+      <c r="AH12" s="218"/>
+      <c r="AI12" s="219"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="182"/>
-      <c r="L13" s="182"/>
-      <c r="M13" s="182"/>
-      <c r="N13" s="182"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="183"/>
-      <c r="Q13" s="184"/>
-      <c r="R13" s="185"/>
-      <c r="S13" s="185"/>
-      <c r="T13" s="185"/>
-      <c r="U13" s="185"/>
-      <c r="V13" s="185"/>
-      <c r="W13" s="185"/>
-      <c r="X13" s="185"/>
-      <c r="Y13" s="185"/>
-      <c r="Z13" s="185"/>
-      <c r="AA13" s="185"/>
-      <c r="AB13" s="185"/>
-      <c r="AC13" s="185"/>
-      <c r="AD13" s="185"/>
-      <c r="AE13" s="186"/>
-      <c r="AF13" s="181"/>
-      <c r="AG13" s="182"/>
-      <c r="AH13" s="182"/>
-      <c r="AI13" s="183"/>
+      <c r="B13" s="211"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="215"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="216"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="217"/>
+      <c r="K13" s="218"/>
+      <c r="L13" s="218"/>
+      <c r="M13" s="218"/>
+      <c r="N13" s="218"/>
+      <c r="O13" s="218"/>
+      <c r="P13" s="219"/>
+      <c r="Q13" s="220"/>
+      <c r="R13" s="221"/>
+      <c r="S13" s="221"/>
+      <c r="T13" s="221"/>
+      <c r="U13" s="221"/>
+      <c r="V13" s="221"/>
+      <c r="W13" s="221"/>
+      <c r="X13" s="221"/>
+      <c r="Y13" s="221"/>
+      <c r="Z13" s="221"/>
+      <c r="AA13" s="221"/>
+      <c r="AB13" s="221"/>
+      <c r="AC13" s="221"/>
+      <c r="AD13" s="221"/>
+      <c r="AE13" s="222"/>
+      <c r="AF13" s="217"/>
+      <c r="AG13" s="218"/>
+      <c r="AH13" s="218"/>
+      <c r="AI13" s="219"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="175"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="182"/>
-      <c r="L14" s="182"/>
-      <c r="M14" s="182"/>
-      <c r="N14" s="182"/>
-      <c r="O14" s="182"/>
-      <c r="P14" s="183"/>
-      <c r="Q14" s="184"/>
-      <c r="R14" s="185"/>
-      <c r="S14" s="185"/>
-      <c r="T14" s="185"/>
-      <c r="U14" s="185"/>
-      <c r="V14" s="185"/>
-      <c r="W14" s="185"/>
-      <c r="X14" s="185"/>
-      <c r="Y14" s="185"/>
-      <c r="Z14" s="185"/>
-      <c r="AA14" s="185"/>
-      <c r="AB14" s="185"/>
-      <c r="AC14" s="185"/>
-      <c r="AD14" s="185"/>
-      <c r="AE14" s="186"/>
-      <c r="AF14" s="181"/>
-      <c r="AG14" s="182"/>
-      <c r="AH14" s="182"/>
-      <c r="AI14" s="183"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="212"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="215"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="216"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="217"/>
+      <c r="K14" s="218"/>
+      <c r="L14" s="218"/>
+      <c r="M14" s="218"/>
+      <c r="N14" s="218"/>
+      <c r="O14" s="218"/>
+      <c r="P14" s="219"/>
+      <c r="Q14" s="220"/>
+      <c r="R14" s="221"/>
+      <c r="S14" s="221"/>
+      <c r="T14" s="221"/>
+      <c r="U14" s="221"/>
+      <c r="V14" s="221"/>
+      <c r="W14" s="221"/>
+      <c r="X14" s="221"/>
+      <c r="Y14" s="221"/>
+      <c r="Z14" s="221"/>
+      <c r="AA14" s="221"/>
+      <c r="AB14" s="221"/>
+      <c r="AC14" s="221"/>
+      <c r="AD14" s="221"/>
+      <c r="AE14" s="222"/>
+      <c r="AF14" s="217"/>
+      <c r="AG14" s="218"/>
+      <c r="AH14" s="218"/>
+      <c r="AI14" s="219"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="175"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="181"/>
-      <c r="K15" s="182"/>
-      <c r="L15" s="182"/>
-      <c r="M15" s="182"/>
-      <c r="N15" s="182"/>
-      <c r="O15" s="182"/>
-      <c r="P15" s="183"/>
-      <c r="Q15" s="184"/>
-      <c r="R15" s="185"/>
-      <c r="S15" s="185"/>
-      <c r="T15" s="185"/>
-      <c r="U15" s="185"/>
-      <c r="V15" s="185"/>
-      <c r="W15" s="185"/>
-      <c r="X15" s="185"/>
-      <c r="Y15" s="185"/>
-      <c r="Z15" s="185"/>
-      <c r="AA15" s="185"/>
-      <c r="AB15" s="185"/>
-      <c r="AC15" s="185"/>
-      <c r="AD15" s="185"/>
-      <c r="AE15" s="186"/>
-      <c r="AF15" s="181"/>
-      <c r="AG15" s="182"/>
-      <c r="AH15" s="182"/>
-      <c r="AI15" s="183"/>
+      <c r="B15" s="211"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="217"/>
+      <c r="K15" s="218"/>
+      <c r="L15" s="218"/>
+      <c r="M15" s="218"/>
+      <c r="N15" s="218"/>
+      <c r="O15" s="218"/>
+      <c r="P15" s="219"/>
+      <c r="Q15" s="220"/>
+      <c r="R15" s="221"/>
+      <c r="S15" s="221"/>
+      <c r="T15" s="221"/>
+      <c r="U15" s="221"/>
+      <c r="V15" s="221"/>
+      <c r="W15" s="221"/>
+      <c r="X15" s="221"/>
+      <c r="Y15" s="221"/>
+      <c r="Z15" s="221"/>
+      <c r="AA15" s="221"/>
+      <c r="AB15" s="221"/>
+      <c r="AC15" s="221"/>
+      <c r="AD15" s="221"/>
+      <c r="AE15" s="222"/>
+      <c r="AF15" s="217"/>
+      <c r="AG15" s="218"/>
+      <c r="AH15" s="218"/>
+      <c r="AI15" s="219"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="175"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="181"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="182"/>
-      <c r="M16" s="182"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="182"/>
-      <c r="P16" s="183"/>
-      <c r="Q16" s="184"/>
-      <c r="R16" s="185"/>
-      <c r="S16" s="185"/>
-      <c r="T16" s="185"/>
-      <c r="U16" s="185"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="185"/>
-      <c r="X16" s="185"/>
-      <c r="Y16" s="185"/>
-      <c r="Z16" s="185"/>
-      <c r="AA16" s="185"/>
-      <c r="AB16" s="185"/>
-      <c r="AC16" s="185"/>
-      <c r="AD16" s="185"/>
-      <c r="AE16" s="186"/>
-      <c r="AF16" s="181"/>
-      <c r="AG16" s="182"/>
-      <c r="AH16" s="182"/>
-      <c r="AI16" s="183"/>
+      <c r="B16" s="211"/>
+      <c r="C16" s="212"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="215"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="216"/>
+      <c r="I16" s="212"/>
+      <c r="J16" s="217"/>
+      <c r="K16" s="218"/>
+      <c r="L16" s="218"/>
+      <c r="M16" s="218"/>
+      <c r="N16" s="218"/>
+      <c r="O16" s="218"/>
+      <c r="P16" s="219"/>
+      <c r="Q16" s="220"/>
+      <c r="R16" s="221"/>
+      <c r="S16" s="221"/>
+      <c r="T16" s="221"/>
+      <c r="U16" s="221"/>
+      <c r="V16" s="221"/>
+      <c r="W16" s="221"/>
+      <c r="X16" s="221"/>
+      <c r="Y16" s="221"/>
+      <c r="Z16" s="221"/>
+      <c r="AA16" s="221"/>
+      <c r="AB16" s="221"/>
+      <c r="AC16" s="221"/>
+      <c r="AD16" s="221"/>
+      <c r="AE16" s="222"/>
+      <c r="AF16" s="217"/>
+      <c r="AG16" s="218"/>
+      <c r="AH16" s="218"/>
+      <c r="AI16" s="219"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="181"/>
-      <c r="K17" s="182"/>
-      <c r="L17" s="182"/>
-      <c r="M17" s="182"/>
-      <c r="N17" s="182"/>
-      <c r="O17" s="182"/>
-      <c r="P17" s="183"/>
-      <c r="Q17" s="184"/>
-      <c r="R17" s="185"/>
-      <c r="S17" s="185"/>
-      <c r="T17" s="185"/>
-      <c r="U17" s="185"/>
-      <c r="V17" s="185"/>
-      <c r="W17" s="185"/>
-      <c r="X17" s="185"/>
-      <c r="Y17" s="185"/>
-      <c r="Z17" s="185"/>
-      <c r="AA17" s="185"/>
-      <c r="AB17" s="185"/>
-      <c r="AC17" s="185"/>
-      <c r="AD17" s="185"/>
-      <c r="AE17" s="186"/>
-      <c r="AF17" s="181"/>
-      <c r="AG17" s="182"/>
-      <c r="AH17" s="182"/>
-      <c r="AI17" s="183"/>
+      <c r="B17" s="211"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="215"/>
+      <c r="G17" s="211"/>
+      <c r="H17" s="216"/>
+      <c r="I17" s="212"/>
+      <c r="J17" s="217"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
+      <c r="N17" s="218"/>
+      <c r="O17" s="218"/>
+      <c r="P17" s="219"/>
+      <c r="Q17" s="220"/>
+      <c r="R17" s="221"/>
+      <c r="S17" s="221"/>
+      <c r="T17" s="221"/>
+      <c r="U17" s="221"/>
+      <c r="V17" s="221"/>
+      <c r="W17" s="221"/>
+      <c r="X17" s="221"/>
+      <c r="Y17" s="221"/>
+      <c r="Z17" s="221"/>
+      <c r="AA17" s="221"/>
+      <c r="AB17" s="221"/>
+      <c r="AC17" s="221"/>
+      <c r="AD17" s="221"/>
+      <c r="AE17" s="222"/>
+      <c r="AF17" s="217"/>
+      <c r="AG17" s="218"/>
+      <c r="AH17" s="218"/>
+      <c r="AI17" s="219"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="182"/>
-      <c r="L18" s="182"/>
-      <c r="M18" s="182"/>
-      <c r="N18" s="182"/>
-      <c r="O18" s="182"/>
-      <c r="P18" s="183"/>
-      <c r="Q18" s="184"/>
-      <c r="R18" s="185"/>
-      <c r="S18" s="185"/>
-      <c r="T18" s="185"/>
-      <c r="U18" s="185"/>
-      <c r="V18" s="185"/>
-      <c r="W18" s="185"/>
-      <c r="X18" s="185"/>
-      <c r="Y18" s="185"/>
-      <c r="Z18" s="185"/>
-      <c r="AA18" s="185"/>
-      <c r="AB18" s="185"/>
-      <c r="AC18" s="185"/>
-      <c r="AD18" s="185"/>
-      <c r="AE18" s="186"/>
-      <c r="AF18" s="181"/>
-      <c r="AG18" s="182"/>
-      <c r="AH18" s="182"/>
-      <c r="AI18" s="183"/>
+      <c r="B18" s="211"/>
+      <c r="C18" s="212"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="215"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="216"/>
+      <c r="I18" s="212"/>
+      <c r="J18" s="217"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="218"/>
+      <c r="O18" s="218"/>
+      <c r="P18" s="219"/>
+      <c r="Q18" s="220"/>
+      <c r="R18" s="221"/>
+      <c r="S18" s="221"/>
+      <c r="T18" s="221"/>
+      <c r="U18" s="221"/>
+      <c r="V18" s="221"/>
+      <c r="W18" s="221"/>
+      <c r="X18" s="221"/>
+      <c r="Y18" s="221"/>
+      <c r="Z18" s="221"/>
+      <c r="AA18" s="221"/>
+      <c r="AB18" s="221"/>
+      <c r="AC18" s="221"/>
+      <c r="AD18" s="221"/>
+      <c r="AE18" s="222"/>
+      <c r="AF18" s="217"/>
+      <c r="AG18" s="218"/>
+      <c r="AH18" s="218"/>
+      <c r="AI18" s="219"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="181"/>
-      <c r="K19" s="182"/>
-      <c r="L19" s="182"/>
-      <c r="M19" s="182"/>
-      <c r="N19" s="182"/>
-      <c r="O19" s="182"/>
-      <c r="P19" s="183"/>
-      <c r="Q19" s="184"/>
-      <c r="R19" s="185"/>
-      <c r="S19" s="185"/>
-      <c r="T19" s="185"/>
-      <c r="U19" s="185"/>
-      <c r="V19" s="185"/>
-      <c r="W19" s="185"/>
-      <c r="X19" s="185"/>
-      <c r="Y19" s="185"/>
-      <c r="Z19" s="185"/>
-      <c r="AA19" s="185"/>
-      <c r="AB19" s="185"/>
-      <c r="AC19" s="185"/>
-      <c r="AD19" s="185"/>
-      <c r="AE19" s="186"/>
-      <c r="AF19" s="181"/>
-      <c r="AG19" s="182"/>
-      <c r="AH19" s="182"/>
-      <c r="AI19" s="183"/>
+      <c r="B19" s="211"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="211"/>
+      <c r="H19" s="216"/>
+      <c r="I19" s="212"/>
+      <c r="J19" s="217"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="218"/>
+      <c r="N19" s="218"/>
+      <c r="O19" s="218"/>
+      <c r="P19" s="219"/>
+      <c r="Q19" s="220"/>
+      <c r="R19" s="221"/>
+      <c r="S19" s="221"/>
+      <c r="T19" s="221"/>
+      <c r="U19" s="221"/>
+      <c r="V19" s="221"/>
+      <c r="W19" s="221"/>
+      <c r="X19" s="221"/>
+      <c r="Y19" s="221"/>
+      <c r="Z19" s="221"/>
+      <c r="AA19" s="221"/>
+      <c r="AB19" s="221"/>
+      <c r="AC19" s="221"/>
+      <c r="AD19" s="221"/>
+      <c r="AE19" s="222"/>
+      <c r="AF19" s="217"/>
+      <c r="AG19" s="218"/>
+      <c r="AH19" s="218"/>
+      <c r="AI19" s="219"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="181"/>
-      <c r="K20" s="182"/>
-      <c r="L20" s="182"/>
-      <c r="M20" s="182"/>
-      <c r="N20" s="182"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="183"/>
-      <c r="Q20" s="184"/>
-      <c r="R20" s="185"/>
-      <c r="S20" s="185"/>
-      <c r="T20" s="185"/>
-      <c r="U20" s="185"/>
-      <c r="V20" s="185"/>
-      <c r="W20" s="185"/>
-      <c r="X20" s="185"/>
-      <c r="Y20" s="185"/>
-      <c r="Z20" s="185"/>
-      <c r="AA20" s="185"/>
-      <c r="AB20" s="185"/>
-      <c r="AC20" s="185"/>
-      <c r="AD20" s="185"/>
-      <c r="AE20" s="186"/>
-      <c r="AF20" s="181"/>
-      <c r="AG20" s="182"/>
-      <c r="AH20" s="182"/>
-      <c r="AI20" s="183"/>
+      <c r="B20" s="211"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="216"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="217"/>
+      <c r="K20" s="218"/>
+      <c r="L20" s="218"/>
+      <c r="M20" s="218"/>
+      <c r="N20" s="218"/>
+      <c r="O20" s="218"/>
+      <c r="P20" s="219"/>
+      <c r="Q20" s="220"/>
+      <c r="R20" s="221"/>
+      <c r="S20" s="221"/>
+      <c r="T20" s="221"/>
+      <c r="U20" s="221"/>
+      <c r="V20" s="221"/>
+      <c r="W20" s="221"/>
+      <c r="X20" s="221"/>
+      <c r="Y20" s="221"/>
+      <c r="Z20" s="221"/>
+      <c r="AA20" s="221"/>
+      <c r="AB20" s="221"/>
+      <c r="AC20" s="221"/>
+      <c r="AD20" s="221"/>
+      <c r="AE20" s="222"/>
+      <c r="AF20" s="217"/>
+      <c r="AG20" s="218"/>
+      <c r="AH20" s="218"/>
+      <c r="AI20" s="219"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="175"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="181"/>
-      <c r="K21" s="182"/>
-      <c r="L21" s="182"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="182"/>
-      <c r="P21" s="183"/>
-      <c r="Q21" s="184"/>
-      <c r="R21" s="185"/>
-      <c r="S21" s="185"/>
-      <c r="T21" s="185"/>
-      <c r="U21" s="185"/>
-      <c r="V21" s="185"/>
-      <c r="W21" s="185"/>
-      <c r="X21" s="185"/>
-      <c r="Y21" s="185"/>
-      <c r="Z21" s="185"/>
-      <c r="AA21" s="185"/>
-      <c r="AB21" s="185"/>
-      <c r="AC21" s="185"/>
-      <c r="AD21" s="185"/>
-      <c r="AE21" s="186"/>
-      <c r="AF21" s="181"/>
-      <c r="AG21" s="182"/>
-      <c r="AH21" s="182"/>
-      <c r="AI21" s="183"/>
+      <c r="B21" s="211"/>
+      <c r="C21" s="212"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="215"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="216"/>
+      <c r="I21" s="212"/>
+      <c r="J21" s="217"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="218"/>
+      <c r="N21" s="218"/>
+      <c r="O21" s="218"/>
+      <c r="P21" s="219"/>
+      <c r="Q21" s="220"/>
+      <c r="R21" s="221"/>
+      <c r="S21" s="221"/>
+      <c r="T21" s="221"/>
+      <c r="U21" s="221"/>
+      <c r="V21" s="221"/>
+      <c r="W21" s="221"/>
+      <c r="X21" s="221"/>
+      <c r="Y21" s="221"/>
+      <c r="Z21" s="221"/>
+      <c r="AA21" s="221"/>
+      <c r="AB21" s="221"/>
+      <c r="AC21" s="221"/>
+      <c r="AD21" s="221"/>
+      <c r="AE21" s="222"/>
+      <c r="AF21" s="217"/>
+      <c r="AG21" s="218"/>
+      <c r="AH21" s="218"/>
+      <c r="AI21" s="219"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="181"/>
-      <c r="K22" s="182"/>
-      <c r="L22" s="182"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="182"/>
-      <c r="O22" s="182"/>
-      <c r="P22" s="183"/>
-      <c r="Q22" s="184"/>
-      <c r="R22" s="185"/>
-      <c r="S22" s="185"/>
-      <c r="T22" s="185"/>
-      <c r="U22" s="185"/>
-      <c r="V22" s="185"/>
-      <c r="W22" s="185"/>
-      <c r="X22" s="185"/>
-      <c r="Y22" s="185"/>
-      <c r="Z22" s="185"/>
-      <c r="AA22" s="185"/>
-      <c r="AB22" s="185"/>
-      <c r="AC22" s="185"/>
-      <c r="AD22" s="185"/>
-      <c r="AE22" s="186"/>
-      <c r="AF22" s="181"/>
-      <c r="AG22" s="182"/>
-      <c r="AH22" s="182"/>
-      <c r="AI22" s="183"/>
+      <c r="B22" s="211"/>
+      <c r="C22" s="212"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="216"/>
+      <c r="I22" s="212"/>
+      <c r="J22" s="217"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
+      <c r="N22" s="218"/>
+      <c r="O22" s="218"/>
+      <c r="P22" s="219"/>
+      <c r="Q22" s="220"/>
+      <c r="R22" s="221"/>
+      <c r="S22" s="221"/>
+      <c r="T22" s="221"/>
+      <c r="U22" s="221"/>
+      <c r="V22" s="221"/>
+      <c r="W22" s="221"/>
+      <c r="X22" s="221"/>
+      <c r="Y22" s="221"/>
+      <c r="Z22" s="221"/>
+      <c r="AA22" s="221"/>
+      <c r="AB22" s="221"/>
+      <c r="AC22" s="221"/>
+      <c r="AD22" s="221"/>
+      <c r="AE22" s="222"/>
+      <c r="AF22" s="217"/>
+      <c r="AG22" s="218"/>
+      <c r="AH22" s="218"/>
+      <c r="AI22" s="219"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="175"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="182"/>
-      <c r="L23" s="182"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="182"/>
-      <c r="O23" s="182"/>
-      <c r="P23" s="183"/>
-      <c r="Q23" s="184"/>
-      <c r="R23" s="185"/>
-      <c r="S23" s="185"/>
-      <c r="T23" s="185"/>
-      <c r="U23" s="185"/>
-      <c r="V23" s="185"/>
-      <c r="W23" s="185"/>
-      <c r="X23" s="185"/>
-      <c r="Y23" s="185"/>
-      <c r="Z23" s="185"/>
-      <c r="AA23" s="185"/>
-      <c r="AB23" s="185"/>
-      <c r="AC23" s="185"/>
-      <c r="AD23" s="185"/>
-      <c r="AE23" s="186"/>
-      <c r="AF23" s="181"/>
-      <c r="AG23" s="182"/>
-      <c r="AH23" s="182"/>
-      <c r="AI23" s="183"/>
+      <c r="B23" s="211"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="215"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="216"/>
+      <c r="I23" s="212"/>
+      <c r="J23" s="217"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="218"/>
+      <c r="M23" s="218"/>
+      <c r="N23" s="218"/>
+      <c r="O23" s="218"/>
+      <c r="P23" s="219"/>
+      <c r="Q23" s="220"/>
+      <c r="R23" s="221"/>
+      <c r="S23" s="221"/>
+      <c r="T23" s="221"/>
+      <c r="U23" s="221"/>
+      <c r="V23" s="221"/>
+      <c r="W23" s="221"/>
+      <c r="X23" s="221"/>
+      <c r="Y23" s="221"/>
+      <c r="Z23" s="221"/>
+      <c r="AA23" s="221"/>
+      <c r="AB23" s="221"/>
+      <c r="AC23" s="221"/>
+      <c r="AD23" s="221"/>
+      <c r="AE23" s="222"/>
+      <c r="AF23" s="217"/>
+      <c r="AG23" s="218"/>
+      <c r="AH23" s="218"/>
+      <c r="AI23" s="219"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="175"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="182"/>
-      <c r="L24" s="182"/>
-      <c r="M24" s="182"/>
-      <c r="N24" s="182"/>
-      <c r="O24" s="182"/>
-      <c r="P24" s="183"/>
-      <c r="Q24" s="184"/>
-      <c r="R24" s="185"/>
-      <c r="S24" s="185"/>
-      <c r="T24" s="185"/>
-      <c r="U24" s="185"/>
-      <c r="V24" s="185"/>
-      <c r="W24" s="185"/>
-      <c r="X24" s="185"/>
-      <c r="Y24" s="185"/>
-      <c r="Z24" s="185"/>
-      <c r="AA24" s="185"/>
-      <c r="AB24" s="185"/>
-      <c r="AC24" s="185"/>
-      <c r="AD24" s="185"/>
-      <c r="AE24" s="186"/>
-      <c r="AF24" s="181"/>
-      <c r="AG24" s="182"/>
-      <c r="AH24" s="182"/>
-      <c r="AI24" s="183"/>
+      <c r="B24" s="211"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="215"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="216"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="217"/>
+      <c r="K24" s="218"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="218"/>
+      <c r="O24" s="218"/>
+      <c r="P24" s="219"/>
+      <c r="Q24" s="220"/>
+      <c r="R24" s="221"/>
+      <c r="S24" s="221"/>
+      <c r="T24" s="221"/>
+      <c r="U24" s="221"/>
+      <c r="V24" s="221"/>
+      <c r="W24" s="221"/>
+      <c r="X24" s="221"/>
+      <c r="Y24" s="221"/>
+      <c r="Z24" s="221"/>
+      <c r="AA24" s="221"/>
+      <c r="AB24" s="221"/>
+      <c r="AC24" s="221"/>
+      <c r="AD24" s="221"/>
+      <c r="AE24" s="222"/>
+      <c r="AF24" s="217"/>
+      <c r="AG24" s="218"/>
+      <c r="AH24" s="218"/>
+      <c r="AI24" s="219"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="175"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="181"/>
-      <c r="K25" s="182"/>
-      <c r="L25" s="182"/>
-      <c r="M25" s="182"/>
-      <c r="N25" s="182"/>
-      <c r="O25" s="182"/>
-      <c r="P25" s="183"/>
-      <c r="Q25" s="184"/>
-      <c r="R25" s="185"/>
-      <c r="S25" s="185"/>
-      <c r="T25" s="185"/>
-      <c r="U25" s="185"/>
-      <c r="V25" s="185"/>
-      <c r="W25" s="185"/>
-      <c r="X25" s="185"/>
-      <c r="Y25" s="185"/>
-      <c r="Z25" s="185"/>
-      <c r="AA25" s="185"/>
-      <c r="AB25" s="185"/>
-      <c r="AC25" s="185"/>
-      <c r="AD25" s="185"/>
-      <c r="AE25" s="186"/>
-      <c r="AF25" s="181"/>
-      <c r="AG25" s="182"/>
-      <c r="AH25" s="182"/>
-      <c r="AI25" s="183"/>
+      <c r="B25" s="211"/>
+      <c r="C25" s="212"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="215"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="216"/>
+      <c r="I25" s="212"/>
+      <c r="J25" s="217"/>
+      <c r="K25" s="218"/>
+      <c r="L25" s="218"/>
+      <c r="M25" s="218"/>
+      <c r="N25" s="218"/>
+      <c r="O25" s="218"/>
+      <c r="P25" s="219"/>
+      <c r="Q25" s="220"/>
+      <c r="R25" s="221"/>
+      <c r="S25" s="221"/>
+      <c r="T25" s="221"/>
+      <c r="U25" s="221"/>
+      <c r="V25" s="221"/>
+      <c r="W25" s="221"/>
+      <c r="X25" s="221"/>
+      <c r="Y25" s="221"/>
+      <c r="Z25" s="221"/>
+      <c r="AA25" s="221"/>
+      <c r="AB25" s="221"/>
+      <c r="AC25" s="221"/>
+      <c r="AD25" s="221"/>
+      <c r="AE25" s="222"/>
+      <c r="AF25" s="217"/>
+      <c r="AG25" s="218"/>
+      <c r="AH25" s="218"/>
+      <c r="AI25" s="219"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="175"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="182"/>
-      <c r="L26" s="182"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="182"/>
-      <c r="O26" s="182"/>
-      <c r="P26" s="183"/>
-      <c r="Q26" s="184"/>
-      <c r="R26" s="185"/>
-      <c r="S26" s="185"/>
-      <c r="T26" s="185"/>
-      <c r="U26" s="185"/>
-      <c r="V26" s="185"/>
-      <c r="W26" s="185"/>
-      <c r="X26" s="185"/>
-      <c r="Y26" s="185"/>
-      <c r="Z26" s="185"/>
-      <c r="AA26" s="185"/>
-      <c r="AB26" s="185"/>
-      <c r="AC26" s="185"/>
-      <c r="AD26" s="185"/>
-      <c r="AE26" s="186"/>
-      <c r="AF26" s="181"/>
-      <c r="AG26" s="182"/>
-      <c r="AH26" s="182"/>
-      <c r="AI26" s="183"/>
+      <c r="B26" s="211"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="213"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="216"/>
+      <c r="I26" s="212"/>
+      <c r="J26" s="217"/>
+      <c r="K26" s="218"/>
+      <c r="L26" s="218"/>
+      <c r="M26" s="218"/>
+      <c r="N26" s="218"/>
+      <c r="O26" s="218"/>
+      <c r="P26" s="219"/>
+      <c r="Q26" s="220"/>
+      <c r="R26" s="221"/>
+      <c r="S26" s="221"/>
+      <c r="T26" s="221"/>
+      <c r="U26" s="221"/>
+      <c r="V26" s="221"/>
+      <c r="W26" s="221"/>
+      <c r="X26" s="221"/>
+      <c r="Y26" s="221"/>
+      <c r="Z26" s="221"/>
+      <c r="AA26" s="221"/>
+      <c r="AB26" s="221"/>
+      <c r="AC26" s="221"/>
+      <c r="AD26" s="221"/>
+      <c r="AE26" s="222"/>
+      <c r="AF26" s="217"/>
+      <c r="AG26" s="218"/>
+      <c r="AH26" s="218"/>
+      <c r="AI26" s="219"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="175"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="182"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="182"/>
-      <c r="O27" s="182"/>
-      <c r="P27" s="183"/>
-      <c r="Q27" s="184"/>
-      <c r="R27" s="185"/>
-      <c r="S27" s="185"/>
-      <c r="T27" s="185"/>
-      <c r="U27" s="185"/>
-      <c r="V27" s="185"/>
-      <c r="W27" s="185"/>
-      <c r="X27" s="185"/>
-      <c r="Y27" s="185"/>
-      <c r="Z27" s="185"/>
-      <c r="AA27" s="185"/>
-      <c r="AB27" s="185"/>
-      <c r="AC27" s="185"/>
-      <c r="AD27" s="185"/>
-      <c r="AE27" s="186"/>
-      <c r="AF27" s="181"/>
-      <c r="AG27" s="182"/>
-      <c r="AH27" s="182"/>
-      <c r="AI27" s="183"/>
+      <c r="B27" s="211"/>
+      <c r="C27" s="212"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="215"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="216"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="217"/>
+      <c r="K27" s="218"/>
+      <c r="L27" s="218"/>
+      <c r="M27" s="218"/>
+      <c r="N27" s="218"/>
+      <c r="O27" s="218"/>
+      <c r="P27" s="219"/>
+      <c r="Q27" s="220"/>
+      <c r="R27" s="221"/>
+      <c r="S27" s="221"/>
+      <c r="T27" s="221"/>
+      <c r="U27" s="221"/>
+      <c r="V27" s="221"/>
+      <c r="W27" s="221"/>
+      <c r="X27" s="221"/>
+      <c r="Y27" s="221"/>
+      <c r="Z27" s="221"/>
+      <c r="AA27" s="221"/>
+      <c r="AB27" s="221"/>
+      <c r="AC27" s="221"/>
+      <c r="AD27" s="221"/>
+      <c r="AE27" s="222"/>
+      <c r="AF27" s="217"/>
+      <c r="AG27" s="218"/>
+      <c r="AH27" s="218"/>
+      <c r="AI27" s="219"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="177"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="181"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="182"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="182"/>
-      <c r="O28" s="182"/>
-      <c r="P28" s="183"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="185"/>
-      <c r="S28" s="185"/>
-      <c r="T28" s="185"/>
-      <c r="U28" s="185"/>
-      <c r="V28" s="185"/>
-      <c r="W28" s="185"/>
-      <c r="X28" s="185"/>
-      <c r="Y28" s="185"/>
-      <c r="Z28" s="185"/>
-      <c r="AA28" s="185"/>
-      <c r="AB28" s="185"/>
-      <c r="AC28" s="185"/>
-      <c r="AD28" s="185"/>
-      <c r="AE28" s="186"/>
-      <c r="AF28" s="181"/>
-      <c r="AG28" s="182"/>
-      <c r="AH28" s="182"/>
-      <c r="AI28" s="183"/>
+      <c r="B28" s="211"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="213"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="215"/>
+      <c r="G28" s="211"/>
+      <c r="H28" s="216"/>
+      <c r="I28" s="212"/>
+      <c r="J28" s="217"/>
+      <c r="K28" s="218"/>
+      <c r="L28" s="218"/>
+      <c r="M28" s="218"/>
+      <c r="N28" s="218"/>
+      <c r="O28" s="218"/>
+      <c r="P28" s="219"/>
+      <c r="Q28" s="220"/>
+      <c r="R28" s="221"/>
+      <c r="S28" s="221"/>
+      <c r="T28" s="221"/>
+      <c r="U28" s="221"/>
+      <c r="V28" s="221"/>
+      <c r="W28" s="221"/>
+      <c r="X28" s="221"/>
+      <c r="Y28" s="221"/>
+      <c r="Z28" s="221"/>
+      <c r="AA28" s="221"/>
+      <c r="AB28" s="221"/>
+      <c r="AC28" s="221"/>
+      <c r="AD28" s="221"/>
+      <c r="AE28" s="222"/>
+      <c r="AF28" s="217"/>
+      <c r="AG28" s="218"/>
+      <c r="AH28" s="218"/>
+      <c r="AI28" s="219"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="175"/>
-      <c r="C29" s="176"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="182"/>
-      <c r="P29" s="183"/>
-      <c r="Q29" s="184"/>
-      <c r="R29" s="185"/>
-      <c r="S29" s="185"/>
-      <c r="T29" s="185"/>
-      <c r="U29" s="185"/>
-      <c r="V29" s="185"/>
-      <c r="W29" s="185"/>
-      <c r="X29" s="185"/>
-      <c r="Y29" s="185"/>
-      <c r="Z29" s="185"/>
-      <c r="AA29" s="185"/>
-      <c r="AB29" s="185"/>
-      <c r="AC29" s="185"/>
-      <c r="AD29" s="185"/>
-      <c r="AE29" s="186"/>
-      <c r="AF29" s="181"/>
-      <c r="AG29" s="182"/>
-      <c r="AH29" s="182"/>
-      <c r="AI29" s="183"/>
+      <c r="B29" s="211"/>
+      <c r="C29" s="212"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="215"/>
+      <c r="G29" s="211"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="212"/>
+      <c r="J29" s="217"/>
+      <c r="K29" s="218"/>
+      <c r="L29" s="218"/>
+      <c r="M29" s="218"/>
+      <c r="N29" s="218"/>
+      <c r="O29" s="218"/>
+      <c r="P29" s="219"/>
+      <c r="Q29" s="220"/>
+      <c r="R29" s="221"/>
+      <c r="S29" s="221"/>
+      <c r="T29" s="221"/>
+      <c r="U29" s="221"/>
+      <c r="V29" s="221"/>
+      <c r="W29" s="221"/>
+      <c r="X29" s="221"/>
+      <c r="Y29" s="221"/>
+      <c r="Z29" s="221"/>
+      <c r="AA29" s="221"/>
+      <c r="AB29" s="221"/>
+      <c r="AC29" s="221"/>
+      <c r="AD29" s="221"/>
+      <c r="AE29" s="222"/>
+      <c r="AF29" s="217"/>
+      <c r="AG29" s="218"/>
+      <c r="AH29" s="218"/>
+      <c r="AI29" s="219"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="175"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182"/>
-      <c r="O30" s="182"/>
-      <c r="P30" s="183"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="185"/>
-      <c r="S30" s="185"/>
-      <c r="T30" s="185"/>
-      <c r="U30" s="185"/>
-      <c r="V30" s="185"/>
-      <c r="W30" s="185"/>
-      <c r="X30" s="185"/>
-      <c r="Y30" s="185"/>
-      <c r="Z30" s="185"/>
-      <c r="AA30" s="185"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="185"/>
-      <c r="AD30" s="185"/>
-      <c r="AE30" s="186"/>
-      <c r="AF30" s="181"/>
-      <c r="AG30" s="182"/>
-      <c r="AH30" s="182"/>
-      <c r="AI30" s="183"/>
+      <c r="B30" s="211"/>
+      <c r="C30" s="212"/>
+      <c r="D30" s="213"/>
+      <c r="E30" s="214"/>
+      <c r="F30" s="215"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="217"/>
+      <c r="K30" s="218"/>
+      <c r="L30" s="218"/>
+      <c r="M30" s="218"/>
+      <c r="N30" s="218"/>
+      <c r="O30" s="218"/>
+      <c r="P30" s="219"/>
+      <c r="Q30" s="220"/>
+      <c r="R30" s="221"/>
+      <c r="S30" s="221"/>
+      <c r="T30" s="221"/>
+      <c r="U30" s="221"/>
+      <c r="V30" s="221"/>
+      <c r="W30" s="221"/>
+      <c r="X30" s="221"/>
+      <c r="Y30" s="221"/>
+      <c r="Z30" s="221"/>
+      <c r="AA30" s="221"/>
+      <c r="AB30" s="221"/>
+      <c r="AC30" s="221"/>
+      <c r="AD30" s="221"/>
+      <c r="AE30" s="222"/>
+      <c r="AF30" s="217"/>
+      <c r="AG30" s="218"/>
+      <c r="AH30" s="218"/>
+      <c r="AI30" s="219"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="175"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="183"/>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="185"/>
-      <c r="S31" s="185"/>
-      <c r="T31" s="185"/>
-      <c r="U31" s="185"/>
-      <c r="V31" s="185"/>
-      <c r="W31" s="185"/>
-      <c r="X31" s="185"/>
-      <c r="Y31" s="185"/>
-      <c r="Z31" s="185"/>
-      <c r="AA31" s="185"/>
-      <c r="AB31" s="185"/>
-      <c r="AC31" s="185"/>
-      <c r="AD31" s="185"/>
-      <c r="AE31" s="186"/>
-      <c r="AF31" s="181"/>
-      <c r="AG31" s="182"/>
-      <c r="AH31" s="182"/>
-      <c r="AI31" s="183"/>
+      <c r="B31" s="211"/>
+      <c r="C31" s="212"/>
+      <c r="D31" s="213"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="215"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="212"/>
+      <c r="J31" s="217"/>
+      <c r="K31" s="218"/>
+      <c r="L31" s="218"/>
+      <c r="M31" s="218"/>
+      <c r="N31" s="218"/>
+      <c r="O31" s="218"/>
+      <c r="P31" s="219"/>
+      <c r="Q31" s="220"/>
+      <c r="R31" s="221"/>
+      <c r="S31" s="221"/>
+      <c r="T31" s="221"/>
+      <c r="U31" s="221"/>
+      <c r="V31" s="221"/>
+      <c r="W31" s="221"/>
+      <c r="X31" s="221"/>
+      <c r="Y31" s="221"/>
+      <c r="Z31" s="221"/>
+      <c r="AA31" s="221"/>
+      <c r="AB31" s="221"/>
+      <c r="AC31" s="221"/>
+      <c r="AD31" s="221"/>
+      <c r="AE31" s="222"/>
+      <c r="AF31" s="217"/>
+      <c r="AG31" s="218"/>
+      <c r="AH31" s="218"/>
+      <c r="AI31" s="219"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="175"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="187"/>
-      <c r="L32" s="182"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="182"/>
-      <c r="O32" s="182"/>
-      <c r="P32" s="183"/>
-      <c r="Q32" s="184"/>
-      <c r="R32" s="185"/>
-      <c r="S32" s="185"/>
-      <c r="T32" s="185"/>
-      <c r="U32" s="185"/>
-      <c r="V32" s="185"/>
-      <c r="W32" s="185"/>
-      <c r="X32" s="185"/>
-      <c r="Y32" s="185"/>
-      <c r="Z32" s="185"/>
-      <c r="AA32" s="185"/>
-      <c r="AB32" s="185"/>
-      <c r="AC32" s="185"/>
-      <c r="AD32" s="185"/>
-      <c r="AE32" s="186"/>
-      <c r="AF32" s="181"/>
-      <c r="AG32" s="182"/>
-      <c r="AH32" s="182"/>
-      <c r="AI32" s="183"/>
+      <c r="B32" s="211"/>
+      <c r="C32" s="212"/>
+      <c r="D32" s="213"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="215"/>
+      <c r="G32" s="211"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="212"/>
+      <c r="J32" s="217"/>
+      <c r="K32" s="232"/>
+      <c r="L32" s="218"/>
+      <c r="M32" s="218"/>
+      <c r="N32" s="218"/>
+      <c r="O32" s="218"/>
+      <c r="P32" s="219"/>
+      <c r="Q32" s="220"/>
+      <c r="R32" s="221"/>
+      <c r="S32" s="221"/>
+      <c r="T32" s="221"/>
+      <c r="U32" s="221"/>
+      <c r="V32" s="221"/>
+      <c r="W32" s="221"/>
+      <c r="X32" s="221"/>
+      <c r="Y32" s="221"/>
+      <c r="Z32" s="221"/>
+      <c r="AA32" s="221"/>
+      <c r="AB32" s="221"/>
+      <c r="AC32" s="221"/>
+      <c r="AD32" s="221"/>
+      <c r="AE32" s="222"/>
+      <c r="AF32" s="217"/>
+      <c r="AG32" s="218"/>
+      <c r="AH32" s="218"/>
+      <c r="AI32" s="219"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="182"/>
-      <c r="M33" s="182"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="182"/>
-      <c r="P33" s="183"/>
-      <c r="Q33" s="184"/>
-      <c r="R33" s="185"/>
-      <c r="S33" s="185"/>
-      <c r="T33" s="185"/>
-      <c r="U33" s="185"/>
-      <c r="V33" s="185"/>
-      <c r="W33" s="185"/>
-      <c r="X33" s="185"/>
-      <c r="Y33" s="185"/>
-      <c r="Z33" s="185"/>
-      <c r="AA33" s="185"/>
-      <c r="AB33" s="185"/>
-      <c r="AC33" s="185"/>
-      <c r="AD33" s="185"/>
-      <c r="AE33" s="186"/>
-      <c r="AF33" s="181"/>
-      <c r="AG33" s="182"/>
-      <c r="AH33" s="182"/>
-      <c r="AI33" s="183"/>
+      <c r="B33" s="211"/>
+      <c r="C33" s="212"/>
+      <c r="D33" s="213"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="215"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="217"/>
+      <c r="K33" s="218"/>
+      <c r="L33" s="218"/>
+      <c r="M33" s="218"/>
+      <c r="N33" s="218"/>
+      <c r="O33" s="218"/>
+      <c r="P33" s="219"/>
+      <c r="Q33" s="220"/>
+      <c r="R33" s="221"/>
+      <c r="S33" s="221"/>
+      <c r="T33" s="221"/>
+      <c r="U33" s="221"/>
+      <c r="V33" s="221"/>
+      <c r="W33" s="221"/>
+      <c r="X33" s="221"/>
+      <c r="Y33" s="221"/>
+      <c r="Z33" s="221"/>
+      <c r="AA33" s="221"/>
+      <c r="AB33" s="221"/>
+      <c r="AC33" s="221"/>
+      <c r="AD33" s="221"/>
+      <c r="AE33" s="222"/>
+      <c r="AF33" s="217"/>
+      <c r="AG33" s="218"/>
+      <c r="AH33" s="218"/>
+      <c r="AI33" s="219"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -10643,161 +10791,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -10837,7 +10830,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -10847,7 +10840,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -12065,7 +12058,7 @@
         <v>99</v>
       </c>
       <c r="G42" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H42" s="52"/>
       <c r="I42" s="52"/>
@@ -12099,7 +12092,7 @@
         <v>100</v>
       </c>
       <c r="G43" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
@@ -12133,7 +12126,7 @@
         <v>101</v>
       </c>
       <c r="G44" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
@@ -12169,7 +12162,7 @@
         <v>103</v>
       </c>
       <c r="G45" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H45" s="52"/>
       <c r="I45" s="52"/>
@@ -12203,7 +12196,7 @@
         <v>104</v>
       </c>
       <c r="G46" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H46" s="52"/>
       <c r="I46" s="52"/>
@@ -12237,7 +12230,7 @@
         <v>101</v>
       </c>
       <c r="G47" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
@@ -12273,7 +12266,7 @@
         <v>106</v>
       </c>
       <c r="G48" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H48" s="52"/>
       <c r="I48" s="52"/>
@@ -12307,7 +12300,7 @@
         <v>107</v>
       </c>
       <c r="G49" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H49" s="52"/>
       <c r="I49" s="52"/>
@@ -12343,7 +12336,7 @@
         <v>109</v>
       </c>
       <c r="G50" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H50" s="52"/>
       <c r="I50" s="52"/>
@@ -12377,7 +12370,7 @@
         <v>110</v>
       </c>
       <c r="G51" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H51" s="52"/>
       <c r="I51" s="52"/>
@@ -12411,7 +12404,7 @@
         <v>111</v>
       </c>
       <c r="G52" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
@@ -12445,7 +12438,7 @@
         <v>112</v>
       </c>
       <c r="G53" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H53" s="52"/>
       <c r="I53" s="52"/>
@@ -12479,7 +12472,7 @@
         <v>113</v>
       </c>
       <c r="G54" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H54" s="52"/>
       <c r="I54" s="52"/>
@@ -12513,7 +12506,7 @@
         <v>114</v>
       </c>
       <c r="G55" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
@@ -12549,7 +12542,7 @@
         <v>116</v>
       </c>
       <c r="G56" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
@@ -12585,7 +12578,7 @@
         <v>118</v>
       </c>
       <c r="G57" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H57" s="52"/>
       <c r="I57" s="52"/>
@@ -12621,7 +12614,7 @@
         <v>120</v>
       </c>
       <c r="G58" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H58" s="52"/>
       <c r="I58" s="52"/>
@@ -12659,7 +12652,7 @@
         <v>122</v>
       </c>
       <c r="G59" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H59" s="52"/>
       <c r="I59" s="52"/>
@@ -12693,7 +12686,7 @@
         <v>123</v>
       </c>
       <c r="G60" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H60" s="52"/>
       <c r="I60" s="52"/>
@@ -12727,7 +12720,7 @@
         <v>124</v>
       </c>
       <c r="G61" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
@@ -12761,7 +12754,7 @@
         <v>125</v>
       </c>
       <c r="G62" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
@@ -12795,7 +12788,7 @@
         <v>126</v>
       </c>
       <c r="G63" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H63" s="52"/>
       <c r="I63" s="52"/>
@@ -12831,7 +12824,7 @@
         <v>128</v>
       </c>
       <c r="G64" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H64" s="52"/>
       <c r="I64" s="52"/>
@@ -12865,7 +12858,7 @@
         <v>129</v>
       </c>
       <c r="G65" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
@@ -12899,7 +12892,7 @@
         <v>130</v>
       </c>
       <c r="G66" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H66" s="52"/>
       <c r="I66" s="52"/>
@@ -12933,7 +12926,7 @@
         <v>131</v>
       </c>
       <c r="G67" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H67" s="52"/>
       <c r="I67" s="52"/>
@@ -12967,7 +12960,7 @@
         <v>132</v>
       </c>
       <c r="G68" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H68" s="52"/>
       <c r="I68" s="52"/>
@@ -13001,7 +12994,7 @@
         <v>133</v>
       </c>
       <c r="G69" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H69" s="52"/>
       <c r="I69" s="52"/>
@@ -13035,7 +13028,7 @@
         <v>134</v>
       </c>
       <c r="G70" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H70" s="52"/>
       <c r="I70" s="52"/>
@@ -13069,7 +13062,7 @@
         <v>135</v>
       </c>
       <c r="G71" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H71" s="52"/>
       <c r="I71" s="52"/>
@@ -13105,7 +13098,7 @@
         <v>137</v>
       </c>
       <c r="G72" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H72" s="52"/>
       <c r="I72" s="52"/>
@@ -13141,7 +13134,7 @@
         <v>139</v>
       </c>
       <c r="G73" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H73" s="52"/>
       <c r="I73" s="52"/>
@@ -13175,7 +13168,7 @@
         <v>140</v>
       </c>
       <c r="G74" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H74" s="52"/>
       <c r="I74" s="52"/>
@@ -13209,7 +13202,7 @@
         <v>141</v>
       </c>
       <c r="G75" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H75" s="52"/>
       <c r="I75" s="52"/>
@@ -13243,7 +13236,7 @@
         <v>142</v>
       </c>
       <c r="G76" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H76" s="52"/>
       <c r="I76" s="52"/>
@@ -13277,7 +13270,7 @@
         <v>143</v>
       </c>
       <c r="G77" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
@@ -13317,7 +13310,7 @@
         <v>147</v>
       </c>
       <c r="G78" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
@@ -13351,7 +13344,7 @@
         <v>148</v>
       </c>
       <c r="G79" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H79" s="52"/>
       <c r="I79" s="52"/>
@@ -13387,7 +13380,7 @@
         <v>150</v>
       </c>
       <c r="G80" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H80" s="52"/>
       <c r="I80" s="52"/>
@@ -13423,7 +13416,7 @@
         <v>152</v>
       </c>
       <c r="G81" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H81" s="52"/>
       <c r="I81" s="52"/>
@@ -13457,7 +13450,7 @@
         <v>153</v>
       </c>
       <c r="G82" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H82" s="52"/>
       <c r="I82" s="52"/>
@@ -13493,7 +13486,7 @@
         <v>155</v>
       </c>
       <c r="G83" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H83" s="52"/>
       <c r="I83" s="52"/>
@@ -13529,7 +13522,7 @@
         <v>157</v>
       </c>
       <c r="G84" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H84" s="52"/>
       <c r="I84" s="52"/>
@@ -13569,7 +13562,7 @@
         <v>159</v>
       </c>
       <c r="G85" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H85" s="52"/>
       <c r="I85" s="52"/>
@@ -13605,7 +13598,7 @@
         <v>160</v>
       </c>
       <c r="G86" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H86" s="52"/>
       <c r="I86" s="52"/>
@@ -13641,7 +13634,7 @@
         <v>162</v>
       </c>
       <c r="G87" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H87" s="52"/>
       <c r="I87" s="52"/>
@@ -13681,7 +13674,7 @@
         <v>164</v>
       </c>
       <c r="G88" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H88" s="52"/>
       <c r="I88" s="52"/>
@@ -13715,7 +13708,7 @@
         <v>165</v>
       </c>
       <c r="G89" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H89" s="52"/>
       <c r="I89" s="52"/>
@@ -13751,7 +13744,7 @@
         <v>166</v>
       </c>
       <c r="G90" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H90" s="52"/>
       <c r="I90" s="52"/>
@@ -13787,7 +13780,7 @@
         <v>167</v>
       </c>
       <c r="G91" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H91" s="52"/>
       <c r="I91" s="52"/>
@@ -13821,7 +13814,7 @@
         <v>168</v>
       </c>
       <c r="G92" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H92" s="52"/>
       <c r="I92" s="52"/>
@@ -13857,7 +13850,7 @@
         <v>169</v>
       </c>
       <c r="G93" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H93" s="52"/>
       <c r="I93" s="52"/>
@@ -13897,7 +13890,7 @@
         <v>172</v>
       </c>
       <c r="G94" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H94" s="52"/>
       <c r="I94" s="52"/>
@@ -13931,7 +13924,7 @@
         <v>173</v>
       </c>
       <c r="G95" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H95" s="52"/>
       <c r="I95" s="52"/>
@@ -13965,7 +13958,7 @@
         <v>174</v>
       </c>
       <c r="G96" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H96" s="52"/>
       <c r="I96" s="52"/>
@@ -13999,7 +13992,7 @@
         <v>175</v>
       </c>
       <c r="G97" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H97" s="52"/>
       <c r="I97" s="52"/>
@@ -14033,7 +14026,7 @@
         <v>176</v>
       </c>
       <c r="G98" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H98" s="52"/>
       <c r="I98" s="52"/>
@@ -14069,7 +14062,7 @@
         <v>178</v>
       </c>
       <c r="G99" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H99" s="52"/>
       <c r="I99" s="52"/>
@@ -14103,7 +14096,7 @@
         <v>179</v>
       </c>
       <c r="G100" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H100" s="52"/>
       <c r="I100" s="52"/>
@@ -14137,7 +14130,7 @@
         <v>180</v>
       </c>
       <c r="G101" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H101" s="52"/>
       <c r="I101" s="52"/>
@@ -14171,7 +14164,7 @@
         <v>181</v>
       </c>
       <c r="G102" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H102" s="52"/>
       <c r="I102" s="52"/>
@@ -14205,7 +14198,7 @@
         <v>182</v>
       </c>
       <c r="G103" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H103" s="52"/>
       <c r="I103" s="52"/>
@@ -14241,7 +14234,7 @@
         <v>183</v>
       </c>
       <c r="G104" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H104" s="52"/>
       <c r="I104" s="52"/>
@@ -14283,7 +14276,7 @@
         <v>186</v>
       </c>
       <c r="G105" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H105" s="52"/>
       <c r="I105" s="52"/>
@@ -14323,7 +14316,7 @@
         <v>188</v>
       </c>
       <c r="G106" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H106" s="52"/>
       <c r="I106" s="52"/>
@@ -14357,7 +14350,7 @@
         <v>189</v>
       </c>
       <c r="G107" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H107" s="52"/>
       <c r="I107" s="52"/>
@@ -14397,7 +14390,7 @@
         <v>191</v>
       </c>
       <c r="G108" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H108" s="52"/>
       <c r="I108" s="52"/>
@@ -14437,7 +14430,7 @@
         <v>193</v>
       </c>
       <c r="G109" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H109" s="52"/>
       <c r="I109" s="52"/>
@@ -14471,7 +14464,7 @@
         <v>194</v>
       </c>
       <c r="G110" s="165" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H110" s="52"/>
       <c r="I110" s="52"/>
@@ -14513,7 +14506,7 @@
         <v>197</v>
       </c>
       <c r="G111" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H111" s="51"/>
       <c r="I111" s="51"/>
@@ -14549,7 +14542,7 @@
         <v>199</v>
       </c>
       <c r="G112" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H112" s="51"/>
       <c r="I112" s="51"/>
@@ -14583,7 +14576,7 @@
         <v>200</v>
       </c>
       <c r="G113" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H113" s="51"/>
       <c r="I113" s="51"/>
@@ -14617,7 +14610,7 @@
         <v>201</v>
       </c>
       <c r="G114" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H114" s="51"/>
       <c r="I114" s="51"/>
@@ -14653,7 +14646,7 @@
         <v>202</v>
       </c>
       <c r="G115" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H115" s="51"/>
       <c r="I115" s="51"/>
@@ -14687,7 +14680,7 @@
         <v>203</v>
       </c>
       <c r="G116" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H116" s="51"/>
       <c r="I116" s="51"/>
@@ -14721,7 +14714,7 @@
         <v>204</v>
       </c>
       <c r="G117" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H117" s="51"/>
       <c r="I117" s="51"/>
@@ -14755,7 +14748,7 @@
         <v>205</v>
       </c>
       <c r="G118" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H118" s="51"/>
       <c r="I118" s="51"/>
@@ -14789,7 +14782,7 @@
         <v>206</v>
       </c>
       <c r="G119" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H119" s="51"/>
       <c r="I119" s="51"/>
@@ -14825,7 +14818,7 @@
         <v>209</v>
       </c>
       <c r="G120" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H120" s="51"/>
       <c r="I120" s="51"/>
@@ -14859,7 +14852,7 @@
         <v>210</v>
       </c>
       <c r="G121" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H121" s="51"/>
       <c r="I121" s="51"/>
@@ -14893,7 +14886,7 @@
         <v>211</v>
       </c>
       <c r="G122" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H122" s="51"/>
       <c r="I122" s="51"/>
@@ -14927,7 +14920,7 @@
         <v>212</v>
       </c>
       <c r="G123" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H123" s="51"/>
       <c r="I123" s="51"/>
@@ -14961,7 +14954,7 @@
         <v>213</v>
       </c>
       <c r="G124" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H124" s="51"/>
       <c r="I124" s="51"/>
@@ -14997,7 +14990,7 @@
         <v>215</v>
       </c>
       <c r="G125" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H125" s="51"/>
       <c r="I125" s="51"/>
@@ -15035,7 +15028,7 @@
         <v>216</v>
       </c>
       <c r="G126" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H126" s="51"/>
       <c r="I126" s="51"/>
@@ -15075,7 +15068,7 @@
         <v>219</v>
       </c>
       <c r="G127" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H127" s="51"/>
       <c r="I127" s="51"/>
@@ -15111,7 +15104,7 @@
         <v>221</v>
       </c>
       <c r="G128" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H128" s="51"/>
       <c r="I128" s="51"/>
@@ -15145,7 +15138,7 @@
         <v>222</v>
       </c>
       <c r="G129" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H129" s="51"/>
       <c r="I129" s="51"/>
@@ -15179,7 +15172,7 @@
         <v>223</v>
       </c>
       <c r="G130" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H130" s="51"/>
       <c r="I130" s="51"/>
@@ -15221,7 +15214,7 @@
         <v>225</v>
       </c>
       <c r="G131" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H131" s="51"/>
       <c r="I131" s="51"/>
@@ -15257,7 +15250,7 @@
         <v>227</v>
       </c>
       <c r="G132" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H132" s="51"/>
       <c r="I132" s="51"/>
@@ -15291,7 +15284,7 @@
         <v>228</v>
       </c>
       <c r="G133" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H133" s="51"/>
       <c r="I133" s="51"/>
@@ -15325,7 +15318,7 @@
         <v>229</v>
       </c>
       <c r="G134" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H134" s="51"/>
       <c r="I134" s="51"/>
@@ -15361,7 +15354,7 @@
         <v>231</v>
       </c>
       <c r="G135" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H135" s="51"/>
       <c r="I135" s="51"/>
@@ -15395,7 +15388,7 @@
         <v>232</v>
       </c>
       <c r="G136" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H136" s="51"/>
       <c r="I136" s="51"/>
@@ -15433,7 +15426,7 @@
         <v>233</v>
       </c>
       <c r="G137" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H137" s="51"/>
       <c r="I137" s="51"/>
@@ -15473,7 +15466,7 @@
         <v>236</v>
       </c>
       <c r="G138" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H138" s="51"/>
       <c r="I138" s="51"/>
@@ -15509,7 +15502,7 @@
         <v>238</v>
       </c>
       <c r="G139" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H139" s="51"/>
       <c r="I139" s="51"/>
@@ -15545,7 +15538,7 @@
         <v>240</v>
       </c>
       <c r="G140" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H140" s="51"/>
       <c r="I140" s="51"/>
@@ -15581,7 +15574,7 @@
         <v>241</v>
       </c>
       <c r="G141" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H141" s="51"/>
       <c r="I141" s="51"/>
@@ -15617,7 +15610,7 @@
         <v>244</v>
       </c>
       <c r="G142" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H142" s="51"/>
       <c r="I142" s="51"/>
@@ -15653,7 +15646,7 @@
         <v>246</v>
       </c>
       <c r="G143" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H143" s="51"/>
       <c r="I143" s="51"/>
@@ -15687,7 +15680,7 @@
         <v>248</v>
       </c>
       <c r="G144" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H144" s="51"/>
       <c r="I144" s="51"/>
@@ -15721,7 +15714,7 @@
         <v>249</v>
       </c>
       <c r="G145" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H145" s="51"/>
       <c r="I145" s="51"/>
@@ -15755,7 +15748,7 @@
         <v>250</v>
       </c>
       <c r="G146" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H146" s="51"/>
       <c r="I146" s="51"/>
@@ -15789,7 +15782,7 @@
         <v>251</v>
       </c>
       <c r="G147" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H147" s="51"/>
       <c r="I147" s="51"/>
@@ -15823,7 +15816,7 @@
         <v>252</v>
       </c>
       <c r="G148" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H148" s="51"/>
       <c r="I148" s="51"/>
@@ -15861,7 +15854,7 @@
         <v>254</v>
       </c>
       <c r="G149" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H149" s="51"/>
       <c r="I149" s="51"/>
@@ -15895,7 +15888,7 @@
         <v>255</v>
       </c>
       <c r="G150" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H150" s="51"/>
       <c r="I150" s="51"/>
@@ -15931,7 +15924,7 @@
         <v>256</v>
       </c>
       <c r="G151" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H151" s="51"/>
       <c r="I151" s="51"/>
@@ -15965,7 +15958,7 @@
         <v>257</v>
       </c>
       <c r="G152" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H152" s="51"/>
       <c r="I152" s="51"/>
@@ -15999,7 +15992,7 @@
         <v>258</v>
       </c>
       <c r="G153" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H153" s="51"/>
       <c r="I153" s="51"/>
@@ -16033,7 +16026,7 @@
         <v>259</v>
       </c>
       <c r="G154" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H154" s="51"/>
       <c r="I154" s="51"/>
@@ -16067,7 +16060,7 @@
         <v>260</v>
       </c>
       <c r="G155" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H155" s="51"/>
       <c r="I155" s="51"/>
@@ -16101,7 +16094,7 @@
         <v>261</v>
       </c>
       <c r="G156" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H156" s="51"/>
       <c r="I156" s="51"/>
@@ -16135,7 +16128,7 @@
         <v>262</v>
       </c>
       <c r="G157" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H157" s="51"/>
       <c r="I157" s="51"/>
@@ -16169,7 +16162,7 @@
         <v>263</v>
       </c>
       <c r="G158" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H158" s="51"/>
       <c r="I158" s="51"/>
@@ -16203,7 +16196,7 @@
         <v>264</v>
       </c>
       <c r="G159" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H159" s="51"/>
       <c r="I159" s="51"/>
@@ -16237,7 +16230,7 @@
         <v>265</v>
       </c>
       <c r="G160" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H160" s="51"/>
       <c r="I160" s="51"/>
@@ -16271,7 +16264,7 @@
         <v>266</v>
       </c>
       <c r="G161" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H161" s="51"/>
       <c r="I161" s="51"/>
@@ -16307,7 +16300,7 @@
         <v>267</v>
       </c>
       <c r="G162" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H162" s="51"/>
       <c r="I162" s="51"/>
@@ -16341,7 +16334,7 @@
         <v>268</v>
       </c>
       <c r="G163" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H163" s="51"/>
       <c r="I163" s="51"/>
@@ -16375,7 +16368,7 @@
         <v>269</v>
       </c>
       <c r="G164" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H164" s="51"/>
       <c r="I164" s="51"/>
@@ -16409,7 +16402,7 @@
         <v>270</v>
       </c>
       <c r="G165" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H165" s="51"/>
       <c r="I165" s="51"/>
@@ -16443,7 +16436,7 @@
         <v>271</v>
       </c>
       <c r="G166" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H166" s="51"/>
       <c r="I166" s="51"/>
@@ -16477,7 +16470,7 @@
         <v>272</v>
       </c>
       <c r="G167" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H167" s="51"/>
       <c r="I167" s="51"/>
@@ -16511,7 +16504,7 @@
         <v>273</v>
       </c>
       <c r="G168" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H168" s="51"/>
       <c r="I168" s="51"/>
@@ -16547,7 +16540,7 @@
         <v>274</v>
       </c>
       <c r="G169" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H169" s="51"/>
       <c r="I169" s="51"/>
@@ -16581,7 +16574,7 @@
         <v>275</v>
       </c>
       <c r="G170" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H170" s="51"/>
       <c r="I170" s="51"/>
@@ -16615,7 +16608,7 @@
         <v>276</v>
       </c>
       <c r="G171" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H171" s="51"/>
       <c r="I171" s="51"/>
@@ -16649,7 +16642,7 @@
         <v>277</v>
       </c>
       <c r="G172" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H172" s="51"/>
       <c r="I172" s="51"/>
@@ -16683,7 +16676,7 @@
         <v>278</v>
       </c>
       <c r="G173" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H173" s="51"/>
       <c r="I173" s="51"/>
@@ -16717,7 +16710,7 @@
         <v>279</v>
       </c>
       <c r="G174" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H174" s="51"/>
       <c r="I174" s="51"/>
@@ -16751,7 +16744,7 @@
         <v>280</v>
       </c>
       <c r="G175" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H175" s="51"/>
       <c r="I175" s="51"/>
@@ -16785,7 +16778,7 @@
         <v>281</v>
       </c>
       <c r="G176" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H176" s="51"/>
       <c r="I176" s="51"/>
@@ -16819,7 +16812,7 @@
         <v>282</v>
       </c>
       <c r="G177" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H177" s="51"/>
       <c r="I177" s="51"/>
@@ -16855,7 +16848,7 @@
         <v>283</v>
       </c>
       <c r="G178" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H178" s="51"/>
       <c r="I178" s="51"/>
@@ -16891,7 +16884,7 @@
         <v>285</v>
       </c>
       <c r="G179" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H179" s="51"/>
       <c r="I179" s="51"/>
@@ -18687,7 +18680,7 @@
         <v>352</v>
       </c>
       <c r="G230" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H230" s="52"/>
       <c r="I230" s="52"/>
@@ -18723,7 +18716,7 @@
         <v>353</v>
       </c>
       <c r="G231" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H231" s="52"/>
       <c r="I231" s="52"/>
@@ -18757,7 +18750,7 @@
         <v>354</v>
       </c>
       <c r="G232" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H232" s="52"/>
       <c r="I232" s="52"/>
@@ -18791,7 +18784,7 @@
         <v>355</v>
       </c>
       <c r="G233" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H233" s="52"/>
       <c r="I233" s="52"/>
@@ -18825,7 +18818,7 @@
         <v>356</v>
       </c>
       <c r="G234" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H234" s="52"/>
       <c r="I234" s="52"/>
@@ -18859,7 +18852,7 @@
         <v>357</v>
       </c>
       <c r="G235" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H235" s="52"/>
       <c r="I235" s="52"/>
@@ -18895,7 +18888,7 @@
         <v>358</v>
       </c>
       <c r="G236" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H236" s="52"/>
       <c r="I236" s="52"/>
@@ -18929,7 +18922,7 @@
         <v>359</v>
       </c>
       <c r="G237" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H237" s="52"/>
       <c r="I237" s="52"/>
@@ -18963,7 +18956,7 @@
         <v>360</v>
       </c>
       <c r="G238" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H238" s="52"/>
       <c r="I238" s="52"/>
@@ -18997,7 +18990,7 @@
         <v>361</v>
       </c>
       <c r="G239" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H239" s="52"/>
       <c r="I239" s="52"/>
@@ -19031,7 +19024,7 @@
         <v>362</v>
       </c>
       <c r="G240" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H240" s="52"/>
       <c r="I240" s="52"/>
@@ -19067,7 +19060,7 @@
         <v>363</v>
       </c>
       <c r="G241" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H241" s="52"/>
       <c r="I241" s="52"/>
@@ -19107,7 +19100,7 @@
         <v>364</v>
       </c>
       <c r="G242" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H242" s="52"/>
       <c r="I242" s="52"/>
@@ -19149,7 +19142,7 @@
         <v>367</v>
       </c>
       <c r="G243" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H243" s="52"/>
       <c r="I243" s="52"/>
@@ -19183,7 +19176,7 @@
         <v>368</v>
       </c>
       <c r="G244" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H244" s="52"/>
       <c r="I244" s="52"/>
@@ -19221,7 +19214,7 @@
         <v>369</v>
       </c>
       <c r="G245" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H245" s="52"/>
       <c r="I245" s="52"/>
@@ -19255,7 +19248,7 @@
         <v>370</v>
       </c>
       <c r="G246" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H246" s="52"/>
       <c r="I246" s="52"/>
@@ -19295,7 +19288,7 @@
         <v>372</v>
       </c>
       <c r="G247" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H247" s="52"/>
       <c r="I247" s="52"/>
@@ -19331,7 +19324,7 @@
         <v>373</v>
       </c>
       <c r="G248" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H248" s="52"/>
       <c r="I248" s="52"/>
@@ -19367,7 +19360,7 @@
         <v>374</v>
       </c>
       <c r="G249" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H249" s="52"/>
       <c r="I249" s="52"/>
@@ -19403,7 +19396,7 @@
         <v>375</v>
       </c>
       <c r="G250" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H250" s="52"/>
       <c r="I250" s="52"/>
@@ -19441,7 +19434,7 @@
         <v>376</v>
       </c>
       <c r="G251" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H251" s="52"/>
       <c r="I251" s="52"/>
@@ -19475,7 +19468,7 @@
         <v>377</v>
       </c>
       <c r="G252" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H252" s="52"/>
       <c r="I252" s="52"/>
@@ -19511,7 +19504,7 @@
         <v>378</v>
       </c>
       <c r="G253" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H253" s="52"/>
       <c r="I253" s="52"/>
@@ -19545,7 +19538,7 @@
         <v>379</v>
       </c>
       <c r="G254" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H254" s="52"/>
       <c r="I254" s="52"/>
@@ -19579,7 +19572,7 @@
         <v>380</v>
       </c>
       <c r="G255" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H255" s="52"/>
       <c r="I255" s="52"/>
@@ -19613,7 +19606,7 @@
         <v>381</v>
       </c>
       <c r="G256" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H256" s="52"/>
       <c r="I256" s="52"/>
@@ -19647,7 +19640,7 @@
         <v>382</v>
       </c>
       <c r="G257" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H257" s="52"/>
       <c r="I257" s="52"/>
@@ -19681,7 +19674,7 @@
         <v>383</v>
       </c>
       <c r="G258" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H258" s="52"/>
       <c r="I258" s="52"/>
@@ -19715,7 +19708,7 @@
         <v>384</v>
       </c>
       <c r="G259" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H259" s="52"/>
       <c r="I259" s="52"/>
@@ -19749,7 +19742,7 @@
         <v>385</v>
       </c>
       <c r="G260" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H260" s="52"/>
       <c r="I260" s="52"/>
@@ -19783,7 +19776,7 @@
         <v>386</v>
       </c>
       <c r="G261" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H261" s="52"/>
       <c r="I261" s="52"/>
@@ -19817,7 +19810,7 @@
         <v>387</v>
       </c>
       <c r="G262" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H262" s="52"/>
       <c r="I262" s="52"/>
@@ -19851,7 +19844,7 @@
         <v>388</v>
       </c>
       <c r="G263" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H263" s="52"/>
       <c r="I263" s="52"/>
@@ -19887,7 +19880,7 @@
         <v>389</v>
       </c>
       <c r="G264" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H264" s="52"/>
       <c r="I264" s="52"/>
@@ -19921,7 +19914,7 @@
         <v>390</v>
       </c>
       <c r="G265" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H265" s="52"/>
       <c r="I265" s="52"/>
@@ -19955,7 +19948,7 @@
         <v>391</v>
       </c>
       <c r="G266" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H266" s="52"/>
       <c r="I266" s="52"/>
@@ -19989,7 +19982,7 @@
         <v>392</v>
       </c>
       <c r="G267" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H267" s="52"/>
       <c r="I267" s="52"/>
@@ -20023,7 +20016,7 @@
         <v>393</v>
       </c>
       <c r="G268" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H268" s="52"/>
       <c r="I268" s="52"/>
@@ -20057,7 +20050,7 @@
         <v>394</v>
       </c>
       <c r="G269" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H269" s="52"/>
       <c r="I269" s="52"/>
@@ -20093,7 +20086,7 @@
         <v>395</v>
       </c>
       <c r="G270" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H270" s="52"/>
       <c r="I270" s="52"/>
@@ -20127,7 +20120,7 @@
         <v>396</v>
       </c>
       <c r="G271" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H271" s="52"/>
       <c r="I271" s="52"/>
@@ -20161,7 +20154,7 @@
         <v>397</v>
       </c>
       <c r="G272" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H272" s="52"/>
       <c r="I272" s="52"/>
@@ -20195,7 +20188,7 @@
         <v>398</v>
       </c>
       <c r="G273" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H273" s="52"/>
       <c r="I273" s="52"/>
@@ -20229,7 +20222,7 @@
         <v>399</v>
       </c>
       <c r="G274" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H274" s="52"/>
       <c r="I274" s="52"/>
@@ -20263,7 +20256,7 @@
         <v>400</v>
       </c>
       <c r="G275" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H275" s="52"/>
       <c r="I275" s="52"/>
@@ -20297,7 +20290,7 @@
         <v>401</v>
       </c>
       <c r="G276" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H276" s="52"/>
       <c r="I276" s="52"/>
@@ -20331,7 +20324,7 @@
         <v>402</v>
       </c>
       <c r="G277" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H277" s="52"/>
       <c r="I277" s="52"/>
@@ -20367,7 +20360,7 @@
         <v>403</v>
       </c>
       <c r="G278" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H278" s="52"/>
       <c r="I278" s="52"/>
@@ -20999,7 +20992,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -21009,7 +21002,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -21040,9 +21033,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="12" thickBot="1">
-      <c r="A8" s="30" t="s">
-        <v>424</v>
-      </c>
+      <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="31"/>
@@ -21097,10 +21088,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="M10" s="37" t="s">
         <v>425</v>
-      </c>
-      <c r="M10" s="37" t="s">
-        <v>426</v>
       </c>
       <c r="N10" s="38" t="s">
         <v>2</v>
@@ -21132,7 +21123,7 @@
         <v>1-1-1</v>
       </c>
       <c r="B11" s="172" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C11" s="108" t="s">
         <v>43</v>
@@ -21147,7 +21138,7 @@
         <v>46</v>
       </c>
       <c r="G11" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H11" s="76"/>
       <c r="I11" s="76"/>
@@ -21184,7 +21175,7 @@
         <v>49</v>
       </c>
       <c r="G12" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H12" s="76"/>
       <c r="I12" s="76"/>
@@ -21223,7 +21214,7 @@
         <v>52</v>
       </c>
       <c r="G13" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H13" s="76"/>
       <c r="I13" s="76"/>
@@ -21258,7 +21249,7 @@
         <v>53</v>
       </c>
       <c r="G14" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H14" s="76"/>
       <c r="I14" s="76"/>
@@ -21293,7 +21284,7 @@
         <v>54</v>
       </c>
       <c r="G15" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H15" s="76"/>
       <c r="I15" s="76"/>
@@ -21328,7 +21319,7 @@
         <v>55</v>
       </c>
       <c r="G16" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H16" s="76"/>
       <c r="I16" s="76"/>
@@ -21363,7 +21354,7 @@
         <v>56</v>
       </c>
       <c r="G17" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H17" s="76"/>
       <c r="I17" s="76"/>
@@ -21402,7 +21393,7 @@
         <v>59</v>
       </c>
       <c r="G18" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H18" s="76"/>
       <c r="I18" s="76"/>
@@ -21437,7 +21428,7 @@
         <v>60</v>
       </c>
       <c r="G19" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H19" s="76"/>
       <c r="I19" s="76"/>
@@ -21472,7 +21463,7 @@
         <v>61</v>
       </c>
       <c r="G20" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H20" s="76"/>
       <c r="I20" s="76"/>
@@ -21509,7 +21500,7 @@
         <v>63</v>
       </c>
       <c r="G21" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H21" s="76"/>
       <c r="I21" s="76"/>
@@ -21544,7 +21535,7 @@
         <v>64</v>
       </c>
       <c r="G22" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H22" s="76"/>
       <c r="I22" s="76"/>
@@ -21576,10 +21567,10 @@
       <c r="D23" s="115"/>
       <c r="E23" s="115"/>
       <c r="F23" s="110" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G23" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H23" s="76"/>
       <c r="I23" s="76"/>
@@ -21611,10 +21602,10 @@
       <c r="D24" s="116"/>
       <c r="E24" s="114"/>
       <c r="F24" s="110" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G24" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H24" s="76"/>
       <c r="I24" s="76"/>
@@ -21653,7 +21644,7 @@
         <v>68</v>
       </c>
       <c r="G25" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H25" s="76"/>
       <c r="I25" s="76"/>
@@ -21688,7 +21679,7 @@
         <v>69</v>
       </c>
       <c r="G26" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H26" s="76"/>
       <c r="I26" s="76"/>
@@ -21727,7 +21718,7 @@
         <v>72</v>
       </c>
       <c r="G27" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H27" s="76"/>
       <c r="I27" s="76"/>
@@ -21762,7 +21753,7 @@
         <v>73</v>
       </c>
       <c r="G28" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H28" s="76"/>
       <c r="I28" s="76"/>
@@ -21799,7 +21790,7 @@
         <v>75</v>
       </c>
       <c r="G29" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H29" s="76"/>
       <c r="I29" s="76"/>
@@ -21834,7 +21825,7 @@
         <v>76</v>
       </c>
       <c r="G30" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H30" s="76"/>
       <c r="I30" s="76"/>
@@ -21869,7 +21860,7 @@
         <v>77</v>
       </c>
       <c r="G31" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H31" s="76"/>
       <c r="I31" s="76"/>
@@ -21904,7 +21895,7 @@
         <v>78</v>
       </c>
       <c r="G32" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H32" s="76"/>
       <c r="I32" s="76"/>
@@ -21935,13 +21926,13 @@
       <c r="C33" s="113"/>
       <c r="D33" s="115"/>
       <c r="E33" s="115" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F33" s="110" t="s">
         <v>80</v>
       </c>
       <c r="G33" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H33" s="76"/>
       <c r="I33" s="76"/>
@@ -21976,7 +21967,7 @@
         <v>81</v>
       </c>
       <c r="G34" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H34" s="76"/>
       <c r="I34" s="76"/>
@@ -22010,10 +22001,10 @@
         <v>82</v>
       </c>
       <c r="F35" s="110" t="s">
+        <v>431</v>
+      </c>
+      <c r="G35" s="75" t="s">
         <v>432</v>
-      </c>
-      <c r="G35" s="75" t="s">
-        <v>433</v>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
@@ -22045,16 +22036,16 @@
         <v>85</v>
       </c>
       <c r="D36" s="142" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E36" s="108" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F36" s="114" t="s">
         <v>88</v>
       </c>
       <c r="G36" s="166" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H36" s="76"/>
       <c r="I36" s="76"/>
@@ -22086,10 +22077,10 @@
       <c r="D37" s="115"/>
       <c r="E37" s="109"/>
       <c r="F37" s="110" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G37" s="166" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H37" s="76"/>
       <c r="I37" s="76"/>
@@ -22124,7 +22115,7 @@
         <v>90</v>
       </c>
       <c r="G38" s="166" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H38" s="76"/>
       <c r="I38" s="76"/>
@@ -22159,7 +22150,7 @@
         <v>91</v>
       </c>
       <c r="G39" s="166" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H39" s="76"/>
       <c r="I39" s="76"/>
@@ -22195,10 +22186,10 @@
         <v>51</v>
       </c>
       <c r="F40" s="110" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G40" s="166" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H40" s="76"/>
       <c r="I40" s="76"/>
@@ -22230,10 +22221,10 @@
       <c r="D41" s="115"/>
       <c r="E41" s="109"/>
       <c r="F41" s="110" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G41" s="166" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H41" s="76"/>
       <c r="I41" s="76"/>
@@ -22262,16 +22253,16 @@
       </c>
       <c r="B42" s="168"/>
       <c r="C42" s="172" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D42" s="172" t="s">
         <v>87</v>
       </c>
       <c r="E42" s="172" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F42" s="169" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G42" s="170"/>
       <c r="H42" s="161"/>
@@ -22304,7 +22295,7 @@
       <c r="D43" s="173"/>
       <c r="E43" s="173"/>
       <c r="F43" s="169" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G43" s="170"/>
       <c r="H43" s="161"/>
@@ -22338,10 +22329,10 @@
         <v>86</v>
       </c>
       <c r="E44" s="172" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F44" s="169" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G44" s="170"/>
       <c r="H44" s="161"/>
@@ -22374,7 +22365,7 @@
       <c r="D45" s="173"/>
       <c r="E45" s="173"/>
       <c r="F45" s="169" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G45" s="170"/>
       <c r="H45" s="161"/>
@@ -22917,7 +22908,7 @@
       <c r="C61" s="112"/>
       <c r="D61" s="112"/>
       <c r="E61" s="121" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F61" s="121" t="s">
         <v>118</v>
@@ -22989,10 +22980,10 @@
         <v>121</v>
       </c>
       <c r="E63" s="120" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F63" s="121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G63" s="64"/>
       <c r="H63" s="65"/>
@@ -23025,7 +23016,7 @@
       <c r="D64" s="112"/>
       <c r="E64" s="120"/>
       <c r="F64" s="107" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G64" s="64"/>
       <c r="H64" s="61"/>
@@ -23058,7 +23049,7 @@
       <c r="D65" s="112"/>
       <c r="E65" s="120"/>
       <c r="F65" s="121" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G65" s="64"/>
       <c r="H65" s="65"/>
@@ -23091,7 +23082,7 @@
       <c r="D66" s="112"/>
       <c r="E66" s="120"/>
       <c r="F66" s="121" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G66" s="64"/>
       <c r="H66" s="65"/>
@@ -23874,7 +23865,7 @@
         <v>146</v>
       </c>
       <c r="E89" s="121" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F89" s="121" t="s">
         <v>159</v>
@@ -23944,7 +23935,7 @@
       <c r="C91" s="118"/>
       <c r="D91" s="118"/>
       <c r="E91" s="118" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F91" s="121" t="s">
         <v>162</v>
@@ -23983,7 +23974,7 @@
         <v>146</v>
       </c>
       <c r="E92" s="120" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F92" s="107" t="s">
         <v>164</v>
@@ -24154,7 +24145,7 @@
       <c r="C97" s="118"/>
       <c r="D97" s="118"/>
       <c r="E97" s="118" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F97" s="121" t="s">
         <v>169</v>
@@ -24527,7 +24518,7 @@
       <c r="C108" s="118"/>
       <c r="D108" s="112"/>
       <c r="E108" s="122" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F108" s="121" t="s">
         <v>183</v>
@@ -24673,7 +24664,7 @@
       </c>
       <c r="B112" s="112"/>
       <c r="C112" s="121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D112" s="121" t="s">
         <v>51</v>
@@ -24712,7 +24703,7 @@
       </c>
       <c r="B113" s="112"/>
       <c r="C113" s="112" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D113" s="112" t="s">
         <v>51</v>
@@ -24789,16 +24780,16 @@
         <v>196</v>
       </c>
       <c r="D115" s="108" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E115" s="167" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F115" s="110" t="s">
         <v>197</v>
       </c>
       <c r="G115" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H115" s="76"/>
       <c r="I115" s="76"/>
@@ -24826,7 +24817,7 @@
         <v>45-2-1</v>
       </c>
       <c r="B116" s="234" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C116" s="115"/>
       <c r="D116" s="109"/>
@@ -24835,7 +24826,7 @@
         <v>199</v>
       </c>
       <c r="G116" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H116" s="76"/>
       <c r="I116" s="76"/>
@@ -24870,7 +24861,7 @@
         <v>200</v>
       </c>
       <c r="G117" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H117" s="76"/>
       <c r="I117" s="76"/>
@@ -24905,7 +24896,7 @@
         <v>201</v>
       </c>
       <c r="G118" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H118" s="76"/>
       <c r="I118" s="76"/>
@@ -24942,7 +24933,7 @@
         <v>202</v>
       </c>
       <c r="G119" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H119" s="76"/>
       <c r="I119" s="76"/>
@@ -24977,7 +24968,7 @@
         <v>203</v>
       </c>
       <c r="G120" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H120" s="76"/>
       <c r="I120" s="76"/>
@@ -25012,7 +25003,7 @@
         <v>204</v>
       </c>
       <c r="G121" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H121" s="76"/>
       <c r="I121" s="76"/>
@@ -25047,7 +25038,7 @@
         <v>205</v>
       </c>
       <c r="G122" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H122" s="76"/>
       <c r="I122" s="76"/>
@@ -25082,7 +25073,7 @@
         <v>206</v>
       </c>
       <c r="G123" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H123" s="76"/>
       <c r="I123" s="76"/>
@@ -25119,7 +25110,7 @@
         <v>209</v>
       </c>
       <c r="G124" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H124" s="76"/>
       <c r="I124" s="76"/>
@@ -25154,7 +25145,7 @@
         <v>210</v>
       </c>
       <c r="G125" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H125" s="76"/>
       <c r="I125" s="76"/>
@@ -25189,7 +25180,7 @@
         <v>211</v>
       </c>
       <c r="G126" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H126" s="76"/>
       <c r="I126" s="76"/>
@@ -25224,7 +25215,7 @@
         <v>212</v>
       </c>
       <c r="G127" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H127" s="76"/>
       <c r="I127" s="76"/>
@@ -25259,7 +25250,7 @@
         <v>213</v>
       </c>
       <c r="G128" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H128" s="76"/>
       <c r="I128" s="76"/>
@@ -25290,13 +25281,13 @@
       <c r="C129" s="115"/>
       <c r="D129" s="114"/>
       <c r="E129" s="114" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F129" s="110" t="s">
         <v>215</v>
       </c>
       <c r="G129" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H129" s="76"/>
       <c r="I129" s="76"/>
@@ -25326,16 +25317,16 @@
       <c r="B130" s="109"/>
       <c r="C130" s="116"/>
       <c r="D130" s="114" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E130" s="114" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F130" s="110" t="s">
         <v>216</v>
       </c>
       <c r="G130" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H130" s="76"/>
       <c r="I130" s="76"/>
@@ -25364,7 +25355,7 @@
       </c>
       <c r="B131" s="109"/>
       <c r="C131" s="109" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D131" s="109" t="s">
         <v>217</v>
@@ -25376,7 +25367,7 @@
         <v>219</v>
       </c>
       <c r="G131" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H131" s="76"/>
       <c r="I131" s="76"/>
@@ -25407,13 +25398,13 @@
       <c r="C132" s="109"/>
       <c r="D132" s="109"/>
       <c r="E132" s="115" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F132" s="110" t="s">
         <v>221</v>
       </c>
       <c r="G132" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H132" s="76"/>
       <c r="I132" s="76"/>
@@ -25448,7 +25439,7 @@
         <v>222</v>
       </c>
       <c r="G133" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H133" s="76"/>
       <c r="I133" s="76"/>
@@ -25483,7 +25474,7 @@
         <v>223</v>
       </c>
       <c r="G134" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H134" s="76"/>
       <c r="I134" s="76"/>
@@ -25517,16 +25508,16 @@
         <v>196</v>
       </c>
       <c r="D135" s="108" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E135" s="167" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F135" s="110" t="s">
         <v>225</v>
       </c>
       <c r="G135" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H135" s="76"/>
       <c r="I135" s="76"/>
@@ -25563,7 +25554,7 @@
         <v>227</v>
       </c>
       <c r="G136" s="51" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H136" s="76"/>
       <c r="I136" s="76"/>
@@ -25598,7 +25589,7 @@
         <v>228</v>
       </c>
       <c r="G137" s="51" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H137" s="76"/>
       <c r="I137" s="76"/>
@@ -25633,7 +25624,7 @@
         <v>229</v>
       </c>
       <c r="G138" s="51" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H138" s="76"/>
       <c r="I138" s="76"/>
@@ -25670,7 +25661,7 @@
         <v>231</v>
       </c>
       <c r="G139" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H139" s="76"/>
       <c r="I139" s="76"/>
@@ -25705,7 +25696,7 @@
         <v>232</v>
       </c>
       <c r="G140" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H140" s="76"/>
       <c r="I140" s="76"/>
@@ -25735,16 +25726,16 @@
       <c r="B141" s="109"/>
       <c r="C141" s="116"/>
       <c r="D141" s="114" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E141" s="114" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F141" s="110" t="s">
         <v>233</v>
       </c>
       <c r="G141" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H141" s="76"/>
       <c r="I141" s="76"/>
@@ -25785,7 +25776,7 @@
         <v>236</v>
       </c>
       <c r="G142" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H142" s="76"/>
       <c r="I142" s="76"/>
@@ -25822,7 +25813,7 @@
         <v>238</v>
       </c>
       <c r="G143" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H143" s="76"/>
       <c r="I143" s="76"/>
@@ -25859,7 +25850,7 @@
         <v>240</v>
       </c>
       <c r="G144" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H144" s="76"/>
       <c r="I144" s="76"/>
@@ -25927,13 +25918,13 @@
       <c r="C146" s="115"/>
       <c r="D146" s="109"/>
       <c r="E146" s="110" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F146" s="110" t="s">
         <v>244</v>
       </c>
       <c r="G146" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H146" s="76"/>
       <c r="I146" s="76"/>
@@ -25964,7 +25955,7 @@
       <c r="C147" s="115"/>
       <c r="D147" s="109"/>
       <c r="E147" s="129" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F147" s="110" t="s">
         <v>246</v>
@@ -26178,13 +26169,13 @@
         <v>253</v>
       </c>
       <c r="E153" s="108" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F153" s="110" t="s">
         <v>254</v>
       </c>
       <c r="G153" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H153" s="76"/>
       <c r="I153" s="76"/>
@@ -26219,7 +26210,7 @@
         <v>255</v>
       </c>
       <c r="G154" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H154" s="76"/>
       <c r="I154" s="76"/>
@@ -26256,7 +26247,7 @@
         <v>256</v>
       </c>
       <c r="G155" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H155" s="76"/>
       <c r="I155" s="76"/>
@@ -26291,7 +26282,7 @@
         <v>257</v>
       </c>
       <c r="G156" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H156" s="76"/>
       <c r="I156" s="76"/>
@@ -26323,10 +26314,10 @@
       <c r="D157" s="109"/>
       <c r="E157" s="129"/>
       <c r="F157" s="110" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G157" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H157" s="76"/>
       <c r="I157" s="76"/>
@@ -26358,10 +26349,10 @@
       <c r="D158" s="109"/>
       <c r="E158" s="129"/>
       <c r="F158" s="110" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G158" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H158" s="76"/>
       <c r="I158" s="76"/>
@@ -26396,7 +26387,7 @@
         <v>260</v>
       </c>
       <c r="G159" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H159" s="76"/>
       <c r="I159" s="76"/>
@@ -26431,7 +26422,7 @@
         <v>261</v>
       </c>
       <c r="G160" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H160" s="76"/>
       <c r="I160" s="76"/>
@@ -26466,7 +26457,7 @@
         <v>262</v>
       </c>
       <c r="G161" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H161" s="76"/>
       <c r="I161" s="76"/>
@@ -26501,7 +26492,7 @@
         <v>263</v>
       </c>
       <c r="G162" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H162" s="76"/>
       <c r="I162" s="76"/>
@@ -26536,7 +26527,7 @@
         <v>264</v>
       </c>
       <c r="G163" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H163" s="76"/>
       <c r="I163" s="76"/>
@@ -26571,7 +26562,7 @@
         <v>265</v>
       </c>
       <c r="G164" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H164" s="76"/>
       <c r="I164" s="76"/>
@@ -26606,7 +26597,7 @@
         <v>266</v>
       </c>
       <c r="G165" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H165" s="76"/>
       <c r="I165" s="76"/>
@@ -26643,7 +26634,7 @@
         <v>267</v>
       </c>
       <c r="G166" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H166" s="76"/>
       <c r="I166" s="76"/>
@@ -26678,7 +26669,7 @@
         <v>268</v>
       </c>
       <c r="G167" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H167" s="76"/>
       <c r="I167" s="76"/>
@@ -26713,7 +26704,7 @@
         <v>269</v>
       </c>
       <c r="G168" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H168" s="76"/>
       <c r="I168" s="76"/>
@@ -26748,7 +26739,7 @@
         <v>270</v>
       </c>
       <c r="G169" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H169" s="76"/>
       <c r="I169" s="76"/>
@@ -26783,7 +26774,7 @@
         <v>271</v>
       </c>
       <c r="G170" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H170" s="76"/>
       <c r="I170" s="76"/>
@@ -26818,7 +26809,7 @@
         <v>272</v>
       </c>
       <c r="G171" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H171" s="76"/>
       <c r="I171" s="76"/>
@@ -26890,7 +26881,7 @@
         <v>274</v>
       </c>
       <c r="G173" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H173" s="76"/>
       <c r="I173" s="76"/>
@@ -26925,7 +26916,7 @@
         <v>275</v>
       </c>
       <c r="G174" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H174" s="76"/>
       <c r="I174" s="76"/>
@@ -26960,7 +26951,7 @@
         <v>276</v>
       </c>
       <c r="G175" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H175" s="76"/>
       <c r="I175" s="76"/>
@@ -26995,7 +26986,7 @@
         <v>277</v>
       </c>
       <c r="G176" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H176" s="76"/>
       <c r="I176" s="76"/>
@@ -27030,7 +27021,7 @@
         <v>278</v>
       </c>
       <c r="G177" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H177" s="76"/>
       <c r="I177" s="76"/>
@@ -27065,7 +27056,7 @@
         <v>279</v>
       </c>
       <c r="G178" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H178" s="76"/>
       <c r="I178" s="76"/>
@@ -27207,7 +27198,7 @@
         <v>283</v>
       </c>
       <c r="G182" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H182" s="76"/>
       <c r="I182" s="76"/>
@@ -27356,7 +27347,7 @@
       <c r="B186" s="114"/>
       <c r="C186" s="116"/>
       <c r="D186" s="116" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E186" s="116" t="s">
         <v>51</v>
@@ -27399,7 +27390,7 @@
         <v>196</v>
       </c>
       <c r="D187" s="130" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E187" s="131" t="s">
         <v>296</v>
@@ -27408,7 +27399,7 @@
         <v>297</v>
       </c>
       <c r="G187" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H187" s="48"/>
       <c r="I187" s="48"/>
@@ -27445,7 +27436,7 @@
         <v>299</v>
       </c>
       <c r="G188" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H188" s="48"/>
       <c r="I188" s="48"/>
@@ -27480,7 +27471,7 @@
         <v>300</v>
       </c>
       <c r="G189" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H189" s="48"/>
       <c r="I189" s="48"/>
@@ -27517,7 +27508,7 @@
         <v>302</v>
       </c>
       <c r="G190" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H190" s="48"/>
       <c r="I190" s="48"/>
@@ -27552,7 +27543,7 @@
         <v>303</v>
       </c>
       <c r="G191" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H191" s="48"/>
       <c r="I191" s="48"/>
@@ -27582,16 +27573,16 @@
       <c r="B192" s="133"/>
       <c r="C192" s="137"/>
       <c r="D192" s="137" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E192" s="137" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F192" s="131" t="s">
         <v>304</v>
       </c>
       <c r="G192" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H192" s="48"/>
       <c r="I192" s="48"/>
@@ -27623,7 +27614,7 @@
         <v>305</v>
       </c>
       <c r="D193" s="133" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E193" s="135" t="s">
         <v>307</v>
@@ -27632,7 +27623,7 @@
         <v>308</v>
       </c>
       <c r="G193" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H193" s="48"/>
       <c r="I193" s="48"/>
@@ -27667,7 +27658,7 @@
         <v>309</v>
       </c>
       <c r="G194" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H194" s="48"/>
       <c r="I194" s="48"/>
@@ -27702,7 +27693,7 @@
         <v>310</v>
       </c>
       <c r="G195" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H195" s="48"/>
       <c r="I195" s="48"/>
@@ -27737,7 +27728,7 @@
         <v>311</v>
       </c>
       <c r="G196" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H196" s="48"/>
       <c r="I196" s="48"/>
@@ -27772,7 +27763,7 @@
         <v>312</v>
       </c>
       <c r="G197" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H197" s="48"/>
       <c r="I197" s="48"/>
@@ -27807,7 +27798,7 @@
         <v>313</v>
       </c>
       <c r="G198" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H198" s="48"/>
       <c r="I198" s="48"/>
@@ -27842,7 +27833,7 @@
         <v>314</v>
       </c>
       <c r="G199" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H199" s="48"/>
       <c r="I199" s="48"/>
@@ -27876,10 +27867,10 @@
         <v>315</v>
       </c>
       <c r="F200" s="131" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G200" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H200" s="48"/>
       <c r="I200" s="48"/>
@@ -27918,7 +27909,7 @@
         <v>318</v>
       </c>
       <c r="G201" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H201" s="48"/>
       <c r="I201" s="48"/>
@@ -27953,7 +27944,7 @@
         <v>319</v>
       </c>
       <c r="G202" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H202" s="48"/>
       <c r="I202" s="48"/>
@@ -27988,7 +27979,7 @@
         <v>320</v>
       </c>
       <c r="G203" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H203" s="48"/>
       <c r="I203" s="48"/>
@@ -28023,7 +28014,7 @@
         <v>321</v>
       </c>
       <c r="G204" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H204" s="48"/>
       <c r="I204" s="48"/>
@@ -28058,7 +28049,7 @@
         <v>322</v>
       </c>
       <c r="G205" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H205" s="48"/>
       <c r="I205" s="48"/>
@@ -28093,7 +28084,7 @@
         <v>323</v>
       </c>
       <c r="G206" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H206" s="48"/>
       <c r="I206" s="48"/>
@@ -28125,10 +28116,10 @@
       <c r="D207" s="133"/>
       <c r="E207" s="135"/>
       <c r="F207" s="131" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G207" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H207" s="48"/>
       <c r="I207" s="48"/>
@@ -28163,7 +28154,7 @@
         <v>325</v>
       </c>
       <c r="G208" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H208" s="48"/>
       <c r="I208" s="48"/>
@@ -28198,7 +28189,7 @@
         <v>326</v>
       </c>
       <c r="G209" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H209" s="48"/>
       <c r="I209" s="48"/>
@@ -28233,7 +28224,7 @@
         <v>327</v>
       </c>
       <c r="G210" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H210" s="48"/>
       <c r="I210" s="48"/>
@@ -28268,7 +28259,7 @@
         <v>328</v>
       </c>
       <c r="G211" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H211" s="48"/>
       <c r="I211" s="48"/>
@@ -28303,7 +28294,7 @@
         <v>329</v>
       </c>
       <c r="G212" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H212" s="48"/>
       <c r="I212" s="48"/>
@@ -28338,7 +28329,7 @@
         <v>330</v>
       </c>
       <c r="G213" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H213" s="48"/>
       <c r="I213" s="48"/>
@@ -28368,7 +28359,7 @@
       <c r="B214" s="133"/>
       <c r="C214" s="134"/>
       <c r="D214" s="130" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E214" s="140" t="s">
         <v>127</v>
@@ -28377,7 +28368,7 @@
         <v>332</v>
       </c>
       <c r="G214" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H214" s="48"/>
       <c r="I214" s="48"/>
@@ -28412,7 +28403,7 @@
         <v>333</v>
       </c>
       <c r="G215" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H215" s="48"/>
       <c r="I215" s="48"/>
@@ -28447,7 +28438,7 @@
         <v>334</v>
       </c>
       <c r="G216" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H216" s="48"/>
       <c r="I216" s="48"/>
@@ -28482,7 +28473,7 @@
         <v>320</v>
       </c>
       <c r="G217" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H217" s="48"/>
       <c r="I217" s="48"/>
@@ -28517,7 +28508,7 @@
         <v>321</v>
       </c>
       <c r="G218" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H218" s="48"/>
       <c r="I218" s="48"/>
@@ -28552,7 +28543,7 @@
         <v>335</v>
       </c>
       <c r="G219" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H219" s="48"/>
       <c r="I219" s="48"/>
@@ -28587,7 +28578,7 @@
         <v>336</v>
       </c>
       <c r="G220" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H220" s="48"/>
       <c r="I220" s="48"/>
@@ -28619,10 +28610,10 @@
       <c r="D221" s="133"/>
       <c r="E221" s="135"/>
       <c r="F221" s="131" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G221" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H221" s="48"/>
       <c r="I221" s="48"/>
@@ -28654,10 +28645,10 @@
       <c r="D222" s="133"/>
       <c r="E222" s="135"/>
       <c r="F222" s="131" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G222" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H222" s="48"/>
       <c r="I222" s="48"/>
@@ -28692,7 +28683,7 @@
         <v>339</v>
       </c>
       <c r="G223" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H223" s="48"/>
       <c r="I223" s="48"/>
@@ -28727,7 +28718,7 @@
         <v>340</v>
       </c>
       <c r="G224" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H224" s="48"/>
       <c r="I224" s="48"/>
@@ -28762,7 +28753,7 @@
         <v>341</v>
       </c>
       <c r="G225" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H225" s="48"/>
       <c r="I225" s="48"/>
@@ -28797,7 +28788,7 @@
         <v>342</v>
       </c>
       <c r="G226" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H226" s="48"/>
       <c r="I226" s="48"/>
@@ -28832,7 +28823,7 @@
         <v>343</v>
       </c>
       <c r="G227" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H227" s="48"/>
       <c r="I227" s="48"/>
@@ -28867,7 +28858,7 @@
         <v>330</v>
       </c>
       <c r="G228" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H228" s="48"/>
       <c r="I228" s="48"/>
@@ -28904,7 +28895,7 @@
         <v>345</v>
       </c>
       <c r="G229" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H229" s="48"/>
       <c r="I229" s="48"/>
@@ -28939,7 +28930,7 @@
         <v>346</v>
       </c>
       <c r="G230" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H230" s="48"/>
       <c r="I230" s="48"/>
@@ -28974,7 +28965,7 @@
         <v>347</v>
       </c>
       <c r="G231" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H231" s="48"/>
       <c r="I231" s="48"/>
@@ -29008,10 +28999,10 @@
         <v>154</v>
       </c>
       <c r="F232" s="131" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G232" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H232" s="48"/>
       <c r="I232" s="48"/>
@@ -29048,7 +29039,7 @@
         <v>350</v>
       </c>
       <c r="G233" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H233" s="48"/>
       <c r="I233" s="48"/>
@@ -29082,16 +29073,16 @@
         <v>196</v>
       </c>
       <c r="D234" s="108" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E234" s="110" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F234" s="110" t="s">
         <v>352</v>
       </c>
       <c r="G234" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H234" s="76"/>
       <c r="I234" s="76"/>
@@ -29128,7 +29119,7 @@
         <v>353</v>
       </c>
       <c r="G235" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H235" s="76"/>
       <c r="I235" s="76"/>
@@ -29163,7 +29154,7 @@
         <v>354</v>
       </c>
       <c r="G236" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H236" s="76"/>
       <c r="I236" s="76"/>
@@ -29198,7 +29189,7 @@
         <v>355</v>
       </c>
       <c r="G237" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H237" s="76"/>
       <c r="I237" s="76"/>
@@ -29233,7 +29224,7 @@
         <v>356</v>
       </c>
       <c r="G238" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H238" s="76"/>
       <c r="I238" s="76"/>
@@ -29268,7 +29259,7 @@
         <v>357</v>
       </c>
       <c r="G239" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H239" s="76"/>
       <c r="I239" s="76"/>
@@ -29305,7 +29296,7 @@
         <v>358</v>
       </c>
       <c r="G240" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H240" s="76"/>
       <c r="I240" s="76"/>
@@ -29340,7 +29331,7 @@
         <v>359</v>
       </c>
       <c r="G241" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H241" s="76"/>
       <c r="I241" s="76"/>
@@ -29375,7 +29366,7 @@
         <v>360</v>
       </c>
       <c r="G242" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H242" s="76"/>
       <c r="I242" s="76"/>
@@ -29410,7 +29401,7 @@
         <v>361</v>
       </c>
       <c r="G243" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H243" s="76"/>
       <c r="I243" s="76"/>
@@ -29445,7 +29436,7 @@
         <v>362</v>
       </c>
       <c r="G244" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H244" s="76"/>
       <c r="I244" s="76"/>
@@ -29476,13 +29467,13 @@
       <c r="C245" s="114"/>
       <c r="D245" s="114"/>
       <c r="E245" s="114" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F245" s="110" t="s">
         <v>363</v>
       </c>
       <c r="G245" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H245" s="76"/>
       <c r="I245" s="76"/>
@@ -29511,7 +29502,7 @@
       </c>
       <c r="B246" s="114"/>
       <c r="C246" s="114" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D246" s="114" t="s">
         <v>217</v>
@@ -29523,7 +29514,7 @@
         <v>364</v>
       </c>
       <c r="G246" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H246" s="76"/>
       <c r="I246" s="76"/>
@@ -29557,16 +29548,16 @@
         <v>366</v>
       </c>
       <c r="D247" s="108" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E247" s="142" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F247" s="110" t="s">
         <v>367</v>
       </c>
       <c r="G247" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H247" s="76"/>
       <c r="I247" s="76"/>
@@ -29601,7 +29592,7 @@
         <v>368</v>
       </c>
       <c r="G248" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H248" s="76"/>
       <c r="I248" s="76"/>
@@ -29631,16 +29622,16 @@
       <c r="B249" s="109"/>
       <c r="C249" s="109"/>
       <c r="D249" s="109" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E249" s="115" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F249" s="110" t="s">
         <v>369</v>
       </c>
       <c r="G249" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H249" s="76"/>
       <c r="I249" s="76"/>
@@ -29675,7 +29666,7 @@
         <v>370</v>
       </c>
       <c r="G250" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H250" s="76"/>
       <c r="I250" s="76"/>
@@ -29716,7 +29707,7 @@
         <v>372</v>
       </c>
       <c r="G251" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H251" s="76"/>
       <c r="I251" s="76"/>
@@ -29753,7 +29744,7 @@
         <v>373</v>
       </c>
       <c r="G252" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H252" s="76"/>
       <c r="I252" s="76"/>
@@ -29790,7 +29781,7 @@
         <v>374</v>
       </c>
       <c r="G253" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H253" s="76"/>
       <c r="I253" s="76"/>
@@ -29827,7 +29818,7 @@
         <v>375</v>
       </c>
       <c r="G254" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H254" s="76"/>
       <c r="I254" s="76"/>
@@ -29860,13 +29851,13 @@
         <v>253</v>
       </c>
       <c r="E255" s="129" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F255" s="110" t="s">
         <v>376</v>
       </c>
       <c r="G255" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H255" s="76"/>
       <c r="I255" s="76"/>
@@ -29901,7 +29892,7 @@
         <v>377</v>
       </c>
       <c r="G256" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H256" s="76"/>
       <c r="I256" s="76"/>
@@ -29938,7 +29929,7 @@
         <v>378</v>
       </c>
       <c r="G257" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H257" s="76"/>
       <c r="I257" s="76"/>
@@ -29973,7 +29964,7 @@
         <v>379</v>
       </c>
       <c r="G258" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H258" s="76"/>
       <c r="I258" s="76"/>
@@ -30005,10 +29996,10 @@
       <c r="D259" s="115"/>
       <c r="E259" s="115"/>
       <c r="F259" s="110" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G259" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H259" s="76"/>
       <c r="I259" s="76"/>
@@ -30043,7 +30034,7 @@
         <v>381</v>
       </c>
       <c r="G260" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H260" s="76"/>
       <c r="I260" s="76"/>
@@ -30078,7 +30069,7 @@
         <v>382</v>
       </c>
       <c r="G261" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H261" s="76"/>
       <c r="I261" s="76"/>
@@ -30113,7 +30104,7 @@
         <v>383</v>
       </c>
       <c r="G262" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H262" s="76"/>
       <c r="I262" s="76"/>
@@ -30148,7 +30139,7 @@
         <v>384</v>
       </c>
       <c r="G263" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H263" s="76"/>
       <c r="I263" s="76"/>
@@ -30183,7 +30174,7 @@
         <v>385</v>
       </c>
       <c r="G264" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H264" s="76"/>
       <c r="I264" s="76"/>
@@ -30218,7 +30209,7 @@
         <v>386</v>
       </c>
       <c r="G265" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H265" s="76"/>
       <c r="I265" s="76"/>
@@ -30253,7 +30244,7 @@
         <v>387</v>
       </c>
       <c r="G266" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H266" s="76"/>
       <c r="I266" s="76"/>
@@ -30288,7 +30279,7 @@
         <v>388</v>
       </c>
       <c r="G267" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H267" s="76"/>
       <c r="I267" s="76"/>
@@ -30325,7 +30316,7 @@
         <v>389</v>
       </c>
       <c r="G268" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H268" s="76"/>
       <c r="I268" s="76"/>
@@ -30360,7 +30351,7 @@
         <v>390</v>
       </c>
       <c r="G269" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H269" s="76"/>
       <c r="I269" s="76"/>
@@ -30395,7 +30386,7 @@
         <v>391</v>
       </c>
       <c r="G270" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H270" s="76"/>
       <c r="I270" s="76"/>
@@ -30430,7 +30421,7 @@
         <v>392</v>
       </c>
       <c r="G271" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H271" s="76"/>
       <c r="I271" s="76"/>
@@ -30465,7 +30456,7 @@
         <v>393</v>
       </c>
       <c r="G272" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H272" s="76"/>
       <c r="I272" s="76"/>
@@ -30500,7 +30491,7 @@
         <v>394</v>
       </c>
       <c r="G273" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H273" s="76"/>
       <c r="I273" s="76"/>
@@ -30537,7 +30528,7 @@
         <v>395</v>
       </c>
       <c r="G274" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H274" s="76"/>
       <c r="I274" s="76"/>
@@ -30572,7 +30563,7 @@
         <v>396</v>
       </c>
       <c r="G275" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H275" s="76"/>
       <c r="I275" s="76"/>
@@ -30607,7 +30598,7 @@
         <v>397</v>
       </c>
       <c r="G276" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H276" s="76"/>
       <c r="I276" s="76"/>
@@ -30642,7 +30633,7 @@
         <v>398</v>
       </c>
       <c r="G277" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H277" s="76"/>
       <c r="I277" s="76"/>
@@ -30677,7 +30668,7 @@
         <v>399</v>
       </c>
       <c r="G278" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H278" s="76"/>
       <c r="I278" s="76"/>
@@ -30712,7 +30703,7 @@
         <v>400</v>
       </c>
       <c r="G279" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H279" s="76"/>
       <c r="I279" s="76"/>
@@ -30747,7 +30738,7 @@
         <v>401</v>
       </c>
       <c r="G280" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H280" s="76"/>
       <c r="I280" s="76"/>
@@ -30782,7 +30773,7 @@
         <v>402</v>
       </c>
       <c r="G281" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H281" s="76"/>
       <c r="I281" s="76"/>
@@ -30819,7 +30810,7 @@
         <v>403</v>
       </c>
       <c r="G282" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H282" s="76"/>
       <c r="I282" s="76"/>
@@ -30853,10 +30844,10 @@
         <v>405</v>
       </c>
       <c r="D283" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E283" s="117" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F283" s="121" t="s">
         <v>406</v>
@@ -31238,7 +31229,7 @@
       <c r="D294" s="120"/>
       <c r="E294" s="120"/>
       <c r="F294" s="121" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G294" s="64"/>
       <c r="H294" s="65"/>
@@ -31271,7 +31262,7 @@
       <c r="D295" s="120"/>
       <c r="E295" s="120"/>
       <c r="F295" s="121" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G295" s="64"/>
       <c r="H295" s="65"/>
@@ -31304,7 +31295,7 @@
       <c r="D296" s="120"/>
       <c r="E296" s="120"/>
       <c r="F296" s="121" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G296" s="64"/>
       <c r="H296" s="65"/>
@@ -31337,7 +31328,7 @@
       <c r="D297" s="120"/>
       <c r="E297" s="120"/>
       <c r="F297" s="121" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G297" s="64"/>
       <c r="H297" s="65"/>
@@ -31432,7 +31423,7 @@
         <v>103-1-1</v>
       </c>
       <c r="B300" s="144" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C300" s="144" t="s">
         <v>145</v>
@@ -31444,7 +31435,7 @@
         <v>51</v>
       </c>
       <c r="F300" s="64" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G300" s="64"/>
       <c r="H300" s="146"/>
@@ -31475,13 +31466,13 @@
       <c r="B301" s="147"/>
       <c r="C301" s="147"/>
       <c r="D301" s="64" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E301" s="64" t="s">
         <v>51</v>
       </c>
       <c r="F301" s="64" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G301" s="64"/>
       <c r="H301" s="146"/>
@@ -31512,13 +31503,13 @@
       <c r="B302" s="147"/>
       <c r="C302" s="147"/>
       <c r="D302" s="145" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E302" s="145" t="s">
         <v>51</v>
       </c>
       <c r="F302" s="64" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G302" s="64"/>
       <c r="H302" s="146"/>
@@ -31551,7 +31542,7 @@
       <c r="D303" s="148"/>
       <c r="E303" s="148"/>
       <c r="F303" s="64" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G303" s="64"/>
       <c r="H303" s="146"/>
@@ -31584,7 +31575,7 @@
       <c r="D304" s="149"/>
       <c r="E304" s="149"/>
       <c r="F304" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G304" s="64"/>
       <c r="H304" s="146"/>
@@ -31615,13 +31606,13 @@
       <c r="B305" s="147"/>
       <c r="C305" s="147"/>
       <c r="D305" s="145" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E305" s="64" t="s">
         <v>51</v>
       </c>
       <c r="F305" s="64" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G305" s="64"/>
       <c r="H305" s="146"/>
@@ -31653,10 +31644,10 @@
       <c r="C306" s="147"/>
       <c r="D306" s="149"/>
       <c r="E306" s="64" t="s">
+        <v>481</v>
+      </c>
+      <c r="F306" s="64" t="s">
         <v>482</v>
-      </c>
-      <c r="F306" s="64" t="s">
-        <v>483</v>
       </c>
       <c r="G306" s="64"/>
       <c r="H306" s="146"/>
@@ -31693,7 +31684,7 @@
         <v>51</v>
       </c>
       <c r="F307" s="64" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G307" s="64"/>
       <c r="H307" s="146"/>
@@ -31726,7 +31717,7 @@
       <c r="D308" s="148"/>
       <c r="E308" s="148"/>
       <c r="F308" s="64" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G308" s="64"/>
       <c r="H308" s="146"/>
@@ -31759,7 +31750,7 @@
       <c r="D309" s="148"/>
       <c r="E309" s="148"/>
       <c r="F309" s="64" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G309" s="64"/>
       <c r="H309" s="146"/>
@@ -31792,7 +31783,7 @@
       <c r="D310" s="148"/>
       <c r="E310" s="148"/>
       <c r="F310" s="64" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G310" s="64"/>
       <c r="H310" s="146"/>
@@ -31825,7 +31816,7 @@
       <c r="D311" s="148"/>
       <c r="E311" s="148"/>
       <c r="F311" s="64" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G311" s="64"/>
       <c r="H311" s="146"/>
@@ -31858,7 +31849,7 @@
       <c r="D312" s="148"/>
       <c r="E312" s="148"/>
       <c r="F312" s="64" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G312" s="64"/>
       <c r="H312" s="146"/>
@@ -31891,7 +31882,7 @@
       <c r="D313" s="148"/>
       <c r="E313" s="148"/>
       <c r="F313" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G313" s="64"/>
       <c r="H313" s="146"/>
@@ -31924,7 +31915,7 @@
       <c r="D314" s="149"/>
       <c r="E314" s="149"/>
       <c r="F314" s="64" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G314" s="64"/>
       <c r="H314" s="146"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト(Webサービス)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト(Webサービス)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E707C5A3-E0C0-4C32-80CD-4ED2FF2EC977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DAEAC3-4C23-4489-BF74-B039D6361053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7236,7 +7236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -7645,7 +7645,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7729,6 +7728,72 @@
     </xf>
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -7836,72 +7901,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8847,12 +8846,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="174" t="str">
+      <c r="I25" s="173" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="174"/>
-      <c r="K25" s="174"/>
+      <c r="J25" s="173"/>
+      <c r="K25" s="173"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -9412,57 +9411,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="184" t="s">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="205" t="s">
         <v>467</v>
       </c>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="211" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="199" t="s">
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="220" t="s">
         <v>501</v>
       </c>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="181" t="s">
+      <c r="T1" s="221"/>
+      <c r="U1" s="221"/>
+      <c r="V1" s="221"/>
+      <c r="W1" s="221"/>
+      <c r="X1" s="221"/>
+      <c r="Y1" s="221"/>
+      <c r="Z1" s="222"/>
+      <c r="AA1" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="208" t="str">
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="229" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="175" t="str">
+      <c r="AD1" s="230"/>
+      <c r="AE1" s="230"/>
+      <c r="AF1" s="231"/>
+      <c r="AG1" s="196" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="177"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="198"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -9470,53 +9469,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="184" t="s">
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="205" t="s">
         <v>468</v>
       </c>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="203"/>
-      <c r="X2" s="203"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="181" t="s">
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="223"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="224"/>
+      <c r="V2" s="224"/>
+      <c r="W2" s="224"/>
+      <c r="X2" s="224"/>
+      <c r="Y2" s="224"/>
+      <c r="Z2" s="225"/>
+      <c r="AA2" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="187" t="str">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="208" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="188"/>
-      <c r="AE2" s="188"/>
-      <c r="AF2" s="189"/>
-      <c r="AG2" s="175" t="str">
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="210"/>
+      <c r="AG2" s="196" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="176"/>
-      <c r="AI2" s="177"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="198"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -9524,45 +9523,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="184" t="s">
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="205" t="s">
         <v>469</v>
       </c>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
-      <c r="Y3" s="206"/>
-      <c r="Z3" s="207"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="208"/>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="210"/>
-      <c r="AG3" s="175"/>
-      <c r="AH3" s="176"/>
-      <c r="AI3" s="177"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="217"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="219"/>
+      <c r="S3" s="226"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="227"/>
+      <c r="V3" s="227"/>
+      <c r="W3" s="227"/>
+      <c r="X3" s="227"/>
+      <c r="Y3" s="227"/>
+      <c r="Z3" s="228"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="229"/>
+      <c r="AD3" s="230"/>
+      <c r="AE3" s="230"/>
+      <c r="AF3" s="231"/>
+      <c r="AG3" s="196"/>
+      <c r="AH3" s="197"/>
+      <c r="AI3" s="198"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -9599,85 +9598,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="179"/>
-      <c r="D7" s="178" t="s">
+      <c r="C7" s="200"/>
+      <c r="D7" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="180"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="178" t="s">
+      <c r="E7" s="201"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="180"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="178" t="s">
+      <c r="H7" s="201"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="178" t="s">
+      <c r="K7" s="201"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="180"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="180"/>
-      <c r="U7" s="180"/>
-      <c r="V7" s="180"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="180"/>
-      <c r="Y7" s="180"/>
-      <c r="Z7" s="180"/>
-      <c r="AA7" s="180"/>
-      <c r="AB7" s="180"/>
-      <c r="AC7" s="180"/>
-      <c r="AD7" s="180"/>
-      <c r="AE7" s="179"/>
-      <c r="AF7" s="178" t="s">
+      <c r="R7" s="201"/>
+      <c r="S7" s="201"/>
+      <c r="T7" s="201"/>
+      <c r="U7" s="201"/>
+      <c r="V7" s="201"/>
+      <c r="W7" s="201"/>
+      <c r="X7" s="201"/>
+      <c r="Y7" s="201"/>
+      <c r="Z7" s="201"/>
+      <c r="AA7" s="201"/>
+      <c r="AB7" s="201"/>
+      <c r="AC7" s="201"/>
+      <c r="AD7" s="201"/>
+      <c r="AE7" s="200"/>
+      <c r="AF7" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="180"/>
-      <c r="AH7" s="180"/>
-      <c r="AI7" s="179"/>
+      <c r="AG7" s="201"/>
+      <c r="AH7" s="201"/>
+      <c r="AI7" s="200"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="223"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="228"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="230"/>
-      <c r="L8" s="230"/>
-      <c r="M8" s="230"/>
-      <c r="N8" s="230"/>
-      <c r="O8" s="230"/>
-      <c r="P8" s="231"/>
-      <c r="Q8" s="229"/>
-      <c r="R8" s="230"/>
-      <c r="S8" s="230"/>
-      <c r="T8" s="230"/>
-      <c r="U8" s="230"/>
-      <c r="V8" s="230"/>
-      <c r="W8" s="230"/>
-      <c r="X8" s="230"/>
-      <c r="Y8" s="230"/>
-      <c r="Z8" s="230"/>
-      <c r="AA8" s="230"/>
-      <c r="AB8" s="230"/>
-      <c r="AC8" s="230"/>
-      <c r="AD8" s="230"/>
-      <c r="AE8" s="231"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="193"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+      <c r="O8" s="194"/>
+      <c r="P8" s="195"/>
+      <c r="Q8" s="193"/>
+      <c r="R8" s="194"/>
+      <c r="S8" s="194"/>
+      <c r="T8" s="194"/>
+      <c r="U8" s="194"/>
+      <c r="V8" s="194"/>
+      <c r="W8" s="194"/>
+      <c r="X8" s="194"/>
+      <c r="Y8" s="194"/>
+      <c r="Z8" s="194"/>
+      <c r="AA8" s="194"/>
+      <c r="AB8" s="194"/>
+      <c r="AC8" s="194"/>
+      <c r="AD8" s="194"/>
+      <c r="AE8" s="195"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -9685,1089 +9684,934 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="211"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="215"/>
-      <c r="G9" s="213"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="217"/>
-      <c r="K9" s="218"/>
-      <c r="L9" s="218"/>
-      <c r="M9" s="218"/>
-      <c r="N9" s="218"/>
-      <c r="O9" s="218"/>
-      <c r="P9" s="219"/>
-      <c r="Q9" s="220"/>
-      <c r="R9" s="221"/>
-      <c r="S9" s="221"/>
-      <c r="T9" s="221"/>
-      <c r="U9" s="221"/>
-      <c r="V9" s="221"/>
-      <c r="W9" s="221"/>
-      <c r="X9" s="221"/>
-      <c r="Y9" s="221"/>
-      <c r="Z9" s="221"/>
-      <c r="AA9" s="221"/>
-      <c r="AB9" s="221"/>
-      <c r="AC9" s="221"/>
-      <c r="AD9" s="221"/>
-      <c r="AE9" s="222"/>
-      <c r="AF9" s="217"/>
-      <c r="AG9" s="218"/>
-      <c r="AH9" s="218"/>
-      <c r="AI9" s="219"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="182"/>
+      <c r="Q9" s="183"/>
+      <c r="R9" s="184"/>
+      <c r="S9" s="184"/>
+      <c r="T9" s="184"/>
+      <c r="U9" s="184"/>
+      <c r="V9" s="184"/>
+      <c r="W9" s="184"/>
+      <c r="X9" s="184"/>
+      <c r="Y9" s="184"/>
+      <c r="Z9" s="184"/>
+      <c r="AA9" s="184"/>
+      <c r="AB9" s="184"/>
+      <c r="AC9" s="184"/>
+      <c r="AD9" s="184"/>
+      <c r="AE9" s="185"/>
+      <c r="AF9" s="180"/>
+      <c r="AG9" s="181"/>
+      <c r="AH9" s="181"/>
+      <c r="AI9" s="182"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="211"/>
-      <c r="C10" s="212"/>
-      <c r="D10" s="213"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="215"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="216"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="217"/>
-      <c r="K10" s="218"/>
-      <c r="L10" s="218"/>
-      <c r="M10" s="218"/>
-      <c r="N10" s="218"/>
-      <c r="O10" s="218"/>
-      <c r="P10" s="219"/>
-      <c r="Q10" s="220"/>
-      <c r="R10" s="221"/>
-      <c r="S10" s="221"/>
-      <c r="T10" s="221"/>
-      <c r="U10" s="221"/>
-      <c r="V10" s="221"/>
-      <c r="W10" s="221"/>
-      <c r="X10" s="221"/>
-      <c r="Y10" s="221"/>
-      <c r="Z10" s="221"/>
-      <c r="AA10" s="221"/>
-      <c r="AB10" s="221"/>
-      <c r="AC10" s="221"/>
-      <c r="AD10" s="221"/>
-      <c r="AE10" s="222"/>
-      <c r="AF10" s="217"/>
-      <c r="AG10" s="218"/>
-      <c r="AH10" s="218"/>
-      <c r="AI10" s="219"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="182"/>
+      <c r="Q10" s="183"/>
+      <c r="R10" s="184"/>
+      <c r="S10" s="184"/>
+      <c r="T10" s="184"/>
+      <c r="U10" s="184"/>
+      <c r="V10" s="184"/>
+      <c r="W10" s="184"/>
+      <c r="X10" s="184"/>
+      <c r="Y10" s="184"/>
+      <c r="Z10" s="184"/>
+      <c r="AA10" s="184"/>
+      <c r="AB10" s="184"/>
+      <c r="AC10" s="184"/>
+      <c r="AD10" s="184"/>
+      <c r="AE10" s="185"/>
+      <c r="AF10" s="180"/>
+      <c r="AG10" s="181"/>
+      <c r="AH10" s="181"/>
+      <c r="AI10" s="182"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="211"/>
-      <c r="C11" s="212"/>
-      <c r="D11" s="213"/>
-      <c r="E11" s="214"/>
-      <c r="F11" s="215"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="216"/>
-      <c r="I11" s="212"/>
-      <c r="J11" s="217"/>
-      <c r="K11" s="218"/>
-      <c r="L11" s="218"/>
-      <c r="M11" s="218"/>
-      <c r="N11" s="218"/>
-      <c r="O11" s="218"/>
-      <c r="P11" s="219"/>
-      <c r="Q11" s="220"/>
-      <c r="R11" s="221"/>
-      <c r="S11" s="221"/>
-      <c r="T11" s="221"/>
-      <c r="U11" s="221"/>
-      <c r="V11" s="221"/>
-      <c r="W11" s="221"/>
-      <c r="X11" s="221"/>
-      <c r="Y11" s="221"/>
-      <c r="Z11" s="221"/>
-      <c r="AA11" s="221"/>
-      <c r="AB11" s="221"/>
-      <c r="AC11" s="221"/>
-      <c r="AD11" s="221"/>
-      <c r="AE11" s="222"/>
-      <c r="AF11" s="217"/>
-      <c r="AG11" s="218"/>
-      <c r="AH11" s="218"/>
-      <c r="AI11" s="219"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="181"/>
+      <c r="M11" s="181"/>
+      <c r="N11" s="181"/>
+      <c r="O11" s="181"/>
+      <c r="P11" s="182"/>
+      <c r="Q11" s="183"/>
+      <c r="R11" s="184"/>
+      <c r="S11" s="184"/>
+      <c r="T11" s="184"/>
+      <c r="U11" s="184"/>
+      <c r="V11" s="184"/>
+      <c r="W11" s="184"/>
+      <c r="X11" s="184"/>
+      <c r="Y11" s="184"/>
+      <c r="Z11" s="184"/>
+      <c r="AA11" s="184"/>
+      <c r="AB11" s="184"/>
+      <c r="AC11" s="184"/>
+      <c r="AD11" s="184"/>
+      <c r="AE11" s="185"/>
+      <c r="AF11" s="180"/>
+      <c r="AG11" s="181"/>
+      <c r="AH11" s="181"/>
+      <c r="AI11" s="182"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="211"/>
-      <c r="C12" s="212"/>
-      <c r="D12" s="213"/>
-      <c r="E12" s="214"/>
-      <c r="F12" s="215"/>
-      <c r="G12" s="211"/>
-      <c r="H12" s="216"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="217"/>
-      <c r="K12" s="218"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="218"/>
-      <c r="N12" s="218"/>
-      <c r="O12" s="218"/>
-      <c r="P12" s="219"/>
-      <c r="Q12" s="220"/>
-      <c r="R12" s="221"/>
-      <c r="S12" s="221"/>
-      <c r="T12" s="221"/>
-      <c r="U12" s="221"/>
-      <c r="V12" s="221"/>
-      <c r="W12" s="221"/>
-      <c r="X12" s="221"/>
-      <c r="Y12" s="221"/>
-      <c r="Z12" s="221"/>
-      <c r="AA12" s="221"/>
-      <c r="AB12" s="221"/>
-      <c r="AC12" s="221"/>
-      <c r="AD12" s="221"/>
-      <c r="AE12" s="222"/>
-      <c r="AF12" s="217"/>
-      <c r="AG12" s="218"/>
-      <c r="AH12" s="218"/>
-      <c r="AI12" s="219"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="181"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="181"/>
+      <c r="P12" s="182"/>
+      <c r="Q12" s="183"/>
+      <c r="R12" s="184"/>
+      <c r="S12" s="184"/>
+      <c r="T12" s="184"/>
+      <c r="U12" s="184"/>
+      <c r="V12" s="184"/>
+      <c r="W12" s="184"/>
+      <c r="X12" s="184"/>
+      <c r="Y12" s="184"/>
+      <c r="Z12" s="184"/>
+      <c r="AA12" s="184"/>
+      <c r="AB12" s="184"/>
+      <c r="AC12" s="184"/>
+      <c r="AD12" s="184"/>
+      <c r="AE12" s="185"/>
+      <c r="AF12" s="180"/>
+      <c r="AG12" s="181"/>
+      <c r="AH12" s="181"/>
+      <c r="AI12" s="182"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="211"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="215"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="216"/>
-      <c r="I13" s="212"/>
-      <c r="J13" s="217"/>
-      <c r="K13" s="218"/>
-      <c r="L13" s="218"/>
-      <c r="M13" s="218"/>
-      <c r="N13" s="218"/>
-      <c r="O13" s="218"/>
-      <c r="P13" s="219"/>
-      <c r="Q13" s="220"/>
-      <c r="R13" s="221"/>
-      <c r="S13" s="221"/>
-      <c r="T13" s="221"/>
-      <c r="U13" s="221"/>
-      <c r="V13" s="221"/>
-      <c r="W13" s="221"/>
-      <c r="X13" s="221"/>
-      <c r="Y13" s="221"/>
-      <c r="Z13" s="221"/>
-      <c r="AA13" s="221"/>
-      <c r="AB13" s="221"/>
-      <c r="AC13" s="221"/>
-      <c r="AD13" s="221"/>
-      <c r="AE13" s="222"/>
-      <c r="AF13" s="217"/>
-      <c r="AG13" s="218"/>
-      <c r="AH13" s="218"/>
-      <c r="AI13" s="219"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="181"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="181"/>
+      <c r="O13" s="181"/>
+      <c r="P13" s="182"/>
+      <c r="Q13" s="183"/>
+      <c r="R13" s="184"/>
+      <c r="S13" s="184"/>
+      <c r="T13" s="184"/>
+      <c r="U13" s="184"/>
+      <c r="V13" s="184"/>
+      <c r="W13" s="184"/>
+      <c r="X13" s="184"/>
+      <c r="Y13" s="184"/>
+      <c r="Z13" s="184"/>
+      <c r="AA13" s="184"/>
+      <c r="AB13" s="184"/>
+      <c r="AC13" s="184"/>
+      <c r="AD13" s="184"/>
+      <c r="AE13" s="185"/>
+      <c r="AF13" s="180"/>
+      <c r="AG13" s="181"/>
+      <c r="AH13" s="181"/>
+      <c r="AI13" s="182"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="211"/>
-      <c r="C14" s="212"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="214"/>
-      <c r="F14" s="215"/>
-      <c r="G14" s="211"/>
-      <c r="H14" s="216"/>
-      <c r="I14" s="212"/>
-      <c r="J14" s="217"/>
-      <c r="K14" s="218"/>
-      <c r="L14" s="218"/>
-      <c r="M14" s="218"/>
-      <c r="N14" s="218"/>
-      <c r="O14" s="218"/>
-      <c r="P14" s="219"/>
-      <c r="Q14" s="220"/>
-      <c r="R14" s="221"/>
-      <c r="S14" s="221"/>
-      <c r="T14" s="221"/>
-      <c r="U14" s="221"/>
-      <c r="V14" s="221"/>
-      <c r="W14" s="221"/>
-      <c r="X14" s="221"/>
-      <c r="Y14" s="221"/>
-      <c r="Z14" s="221"/>
-      <c r="AA14" s="221"/>
-      <c r="AB14" s="221"/>
-      <c r="AC14" s="221"/>
-      <c r="AD14" s="221"/>
-      <c r="AE14" s="222"/>
-      <c r="AF14" s="217"/>
-      <c r="AG14" s="218"/>
-      <c r="AH14" s="218"/>
-      <c r="AI14" s="219"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="181"/>
+      <c r="L14" s="181"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="181"/>
+      <c r="O14" s="181"/>
+      <c r="P14" s="182"/>
+      <c r="Q14" s="183"/>
+      <c r="R14" s="184"/>
+      <c r="S14" s="184"/>
+      <c r="T14" s="184"/>
+      <c r="U14" s="184"/>
+      <c r="V14" s="184"/>
+      <c r="W14" s="184"/>
+      <c r="X14" s="184"/>
+      <c r="Y14" s="184"/>
+      <c r="Z14" s="184"/>
+      <c r="AA14" s="184"/>
+      <c r="AB14" s="184"/>
+      <c r="AC14" s="184"/>
+      <c r="AD14" s="184"/>
+      <c r="AE14" s="185"/>
+      <c r="AF14" s="180"/>
+      <c r="AG14" s="181"/>
+      <c r="AH14" s="181"/>
+      <c r="AI14" s="182"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="211"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="213"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="215"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="216"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="217"/>
-      <c r="K15" s="218"/>
-      <c r="L15" s="218"/>
-      <c r="M15" s="218"/>
-      <c r="N15" s="218"/>
-      <c r="O15" s="218"/>
-      <c r="P15" s="219"/>
-      <c r="Q15" s="220"/>
-      <c r="R15" s="221"/>
-      <c r="S15" s="221"/>
-      <c r="T15" s="221"/>
-      <c r="U15" s="221"/>
-      <c r="V15" s="221"/>
-      <c r="W15" s="221"/>
-      <c r="X15" s="221"/>
-      <c r="Y15" s="221"/>
-      <c r="Z15" s="221"/>
-      <c r="AA15" s="221"/>
-      <c r="AB15" s="221"/>
-      <c r="AC15" s="221"/>
-      <c r="AD15" s="221"/>
-      <c r="AE15" s="222"/>
-      <c r="AF15" s="217"/>
-      <c r="AG15" s="218"/>
-      <c r="AH15" s="218"/>
-      <c r="AI15" s="219"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="181"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="181"/>
+      <c r="P15" s="182"/>
+      <c r="Q15" s="183"/>
+      <c r="R15" s="184"/>
+      <c r="S15" s="184"/>
+      <c r="T15" s="184"/>
+      <c r="U15" s="184"/>
+      <c r="V15" s="184"/>
+      <c r="W15" s="184"/>
+      <c r="X15" s="184"/>
+      <c r="Y15" s="184"/>
+      <c r="Z15" s="184"/>
+      <c r="AA15" s="184"/>
+      <c r="AB15" s="184"/>
+      <c r="AC15" s="184"/>
+      <c r="AD15" s="184"/>
+      <c r="AE15" s="185"/>
+      <c r="AF15" s="180"/>
+      <c r="AG15" s="181"/>
+      <c r="AH15" s="181"/>
+      <c r="AI15" s="182"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="211"/>
-      <c r="C16" s="212"/>
-      <c r="D16" s="213"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="215"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="216"/>
-      <c r="I16" s="212"/>
-      <c r="J16" s="217"/>
-      <c r="K16" s="218"/>
-      <c r="L16" s="218"/>
-      <c r="M16" s="218"/>
-      <c r="N16" s="218"/>
-      <c r="O16" s="218"/>
-      <c r="P16" s="219"/>
-      <c r="Q16" s="220"/>
-      <c r="R16" s="221"/>
-      <c r="S16" s="221"/>
-      <c r="T16" s="221"/>
-      <c r="U16" s="221"/>
-      <c r="V16" s="221"/>
-      <c r="W16" s="221"/>
-      <c r="X16" s="221"/>
-      <c r="Y16" s="221"/>
-      <c r="Z16" s="221"/>
-      <c r="AA16" s="221"/>
-      <c r="AB16" s="221"/>
-      <c r="AC16" s="221"/>
-      <c r="AD16" s="221"/>
-      <c r="AE16" s="222"/>
-      <c r="AF16" s="217"/>
-      <c r="AG16" s="218"/>
-      <c r="AH16" s="218"/>
-      <c r="AI16" s="219"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="181"/>
+      <c r="M16" s="181"/>
+      <c r="N16" s="181"/>
+      <c r="O16" s="181"/>
+      <c r="P16" s="182"/>
+      <c r="Q16" s="183"/>
+      <c r="R16" s="184"/>
+      <c r="S16" s="184"/>
+      <c r="T16" s="184"/>
+      <c r="U16" s="184"/>
+      <c r="V16" s="184"/>
+      <c r="W16" s="184"/>
+      <c r="X16" s="184"/>
+      <c r="Y16" s="184"/>
+      <c r="Z16" s="184"/>
+      <c r="AA16" s="184"/>
+      <c r="AB16" s="184"/>
+      <c r="AC16" s="184"/>
+      <c r="AD16" s="184"/>
+      <c r="AE16" s="185"/>
+      <c r="AF16" s="180"/>
+      <c r="AG16" s="181"/>
+      <c r="AH16" s="181"/>
+      <c r="AI16" s="182"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="211"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="213"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="215"/>
-      <c r="G17" s="211"/>
-      <c r="H17" s="216"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="217"/>
-      <c r="K17" s="218"/>
-      <c r="L17" s="218"/>
-      <c r="M17" s="218"/>
-      <c r="N17" s="218"/>
-      <c r="O17" s="218"/>
-      <c r="P17" s="219"/>
-      <c r="Q17" s="220"/>
-      <c r="R17" s="221"/>
-      <c r="S17" s="221"/>
-      <c r="T17" s="221"/>
-      <c r="U17" s="221"/>
-      <c r="V17" s="221"/>
-      <c r="W17" s="221"/>
-      <c r="X17" s="221"/>
-      <c r="Y17" s="221"/>
-      <c r="Z17" s="221"/>
-      <c r="AA17" s="221"/>
-      <c r="AB17" s="221"/>
-      <c r="AC17" s="221"/>
-      <c r="AD17" s="221"/>
-      <c r="AE17" s="222"/>
-      <c r="AF17" s="217"/>
-      <c r="AG17" s="218"/>
-      <c r="AH17" s="218"/>
-      <c r="AI17" s="219"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="181"/>
+      <c r="L17" s="181"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="181"/>
+      <c r="P17" s="182"/>
+      <c r="Q17" s="183"/>
+      <c r="R17" s="184"/>
+      <c r="S17" s="184"/>
+      <c r="T17" s="184"/>
+      <c r="U17" s="184"/>
+      <c r="V17" s="184"/>
+      <c r="W17" s="184"/>
+      <c r="X17" s="184"/>
+      <c r="Y17" s="184"/>
+      <c r="Z17" s="184"/>
+      <c r="AA17" s="184"/>
+      <c r="AB17" s="184"/>
+      <c r="AC17" s="184"/>
+      <c r="AD17" s="184"/>
+      <c r="AE17" s="185"/>
+      <c r="AF17" s="180"/>
+      <c r="AG17" s="181"/>
+      <c r="AH17" s="181"/>
+      <c r="AI17" s="182"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="211"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="213"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="215"/>
-      <c r="G18" s="211"/>
-      <c r="H18" s="216"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="217"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="218"/>
-      <c r="N18" s="218"/>
-      <c r="O18" s="218"/>
-      <c r="P18" s="219"/>
-      <c r="Q18" s="220"/>
-      <c r="R18" s="221"/>
-      <c r="S18" s="221"/>
-      <c r="T18" s="221"/>
-      <c r="U18" s="221"/>
-      <c r="V18" s="221"/>
-      <c r="W18" s="221"/>
-      <c r="X18" s="221"/>
-      <c r="Y18" s="221"/>
-      <c r="Z18" s="221"/>
-      <c r="AA18" s="221"/>
-      <c r="AB18" s="221"/>
-      <c r="AC18" s="221"/>
-      <c r="AD18" s="221"/>
-      <c r="AE18" s="222"/>
-      <c r="AF18" s="217"/>
-      <c r="AG18" s="218"/>
-      <c r="AH18" s="218"/>
-      <c r="AI18" s="219"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="182"/>
+      <c r="Q18" s="183"/>
+      <c r="R18" s="184"/>
+      <c r="S18" s="184"/>
+      <c r="T18" s="184"/>
+      <c r="U18" s="184"/>
+      <c r="V18" s="184"/>
+      <c r="W18" s="184"/>
+      <c r="X18" s="184"/>
+      <c r="Y18" s="184"/>
+      <c r="Z18" s="184"/>
+      <c r="AA18" s="184"/>
+      <c r="AB18" s="184"/>
+      <c r="AC18" s="184"/>
+      <c r="AD18" s="184"/>
+      <c r="AE18" s="185"/>
+      <c r="AF18" s="180"/>
+      <c r="AG18" s="181"/>
+      <c r="AH18" s="181"/>
+      <c r="AI18" s="182"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="211"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="213"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="215"/>
-      <c r="G19" s="211"/>
-      <c r="H19" s="216"/>
-      <c r="I19" s="212"/>
-      <c r="J19" s="217"/>
-      <c r="K19" s="218"/>
-      <c r="L19" s="218"/>
-      <c r="M19" s="218"/>
-      <c r="N19" s="218"/>
-      <c r="O19" s="218"/>
-      <c r="P19" s="219"/>
-      <c r="Q19" s="220"/>
-      <c r="R19" s="221"/>
-      <c r="S19" s="221"/>
-      <c r="T19" s="221"/>
-      <c r="U19" s="221"/>
-      <c r="V19" s="221"/>
-      <c r="W19" s="221"/>
-      <c r="X19" s="221"/>
-      <c r="Y19" s="221"/>
-      <c r="Z19" s="221"/>
-      <c r="AA19" s="221"/>
-      <c r="AB19" s="221"/>
-      <c r="AC19" s="221"/>
-      <c r="AD19" s="221"/>
-      <c r="AE19" s="222"/>
-      <c r="AF19" s="217"/>
-      <c r="AG19" s="218"/>
-      <c r="AH19" s="218"/>
-      <c r="AI19" s="219"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="180"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="181"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="181"/>
+      <c r="P19" s="182"/>
+      <c r="Q19" s="183"/>
+      <c r="R19" s="184"/>
+      <c r="S19" s="184"/>
+      <c r="T19" s="184"/>
+      <c r="U19" s="184"/>
+      <c r="V19" s="184"/>
+      <c r="W19" s="184"/>
+      <c r="X19" s="184"/>
+      <c r="Y19" s="184"/>
+      <c r="Z19" s="184"/>
+      <c r="AA19" s="184"/>
+      <c r="AB19" s="184"/>
+      <c r="AC19" s="184"/>
+      <c r="AD19" s="184"/>
+      <c r="AE19" s="185"/>
+      <c r="AF19" s="180"/>
+      <c r="AG19" s="181"/>
+      <c r="AH19" s="181"/>
+      <c r="AI19" s="182"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="211"/>
-      <c r="C20" s="212"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="214"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="211"/>
-      <c r="H20" s="216"/>
-      <c r="I20" s="212"/>
-      <c r="J20" s="217"/>
-      <c r="K20" s="218"/>
-      <c r="L20" s="218"/>
-      <c r="M20" s="218"/>
-      <c r="N20" s="218"/>
-      <c r="O20" s="218"/>
-      <c r="P20" s="219"/>
-      <c r="Q20" s="220"/>
-      <c r="R20" s="221"/>
-      <c r="S20" s="221"/>
-      <c r="T20" s="221"/>
-      <c r="U20" s="221"/>
-      <c r="V20" s="221"/>
-      <c r="W20" s="221"/>
-      <c r="X20" s="221"/>
-      <c r="Y20" s="221"/>
-      <c r="Z20" s="221"/>
-      <c r="AA20" s="221"/>
-      <c r="AB20" s="221"/>
-      <c r="AC20" s="221"/>
-      <c r="AD20" s="221"/>
-      <c r="AE20" s="222"/>
-      <c r="AF20" s="217"/>
-      <c r="AG20" s="218"/>
-      <c r="AH20" s="218"/>
-      <c r="AI20" s="219"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="181"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="182"/>
+      <c r="Q20" s="183"/>
+      <c r="R20" s="184"/>
+      <c r="S20" s="184"/>
+      <c r="T20" s="184"/>
+      <c r="U20" s="184"/>
+      <c r="V20" s="184"/>
+      <c r="W20" s="184"/>
+      <c r="X20" s="184"/>
+      <c r="Y20" s="184"/>
+      <c r="Z20" s="184"/>
+      <c r="AA20" s="184"/>
+      <c r="AB20" s="184"/>
+      <c r="AC20" s="184"/>
+      <c r="AD20" s="184"/>
+      <c r="AE20" s="185"/>
+      <c r="AF20" s="180"/>
+      <c r="AG20" s="181"/>
+      <c r="AH20" s="181"/>
+      <c r="AI20" s="182"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="211"/>
-      <c r="C21" s="212"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="215"/>
-      <c r="G21" s="211"/>
-      <c r="H21" s="216"/>
-      <c r="I21" s="212"/>
-      <c r="J21" s="217"/>
-      <c r="K21" s="218"/>
-      <c r="L21" s="218"/>
-      <c r="M21" s="218"/>
-      <c r="N21" s="218"/>
-      <c r="O21" s="218"/>
-      <c r="P21" s="219"/>
-      <c r="Q21" s="220"/>
-      <c r="R21" s="221"/>
-      <c r="S21" s="221"/>
-      <c r="T21" s="221"/>
-      <c r="U21" s="221"/>
-      <c r="V21" s="221"/>
-      <c r="W21" s="221"/>
-      <c r="X21" s="221"/>
-      <c r="Y21" s="221"/>
-      <c r="Z21" s="221"/>
-      <c r="AA21" s="221"/>
-      <c r="AB21" s="221"/>
-      <c r="AC21" s="221"/>
-      <c r="AD21" s="221"/>
-      <c r="AE21" s="222"/>
-      <c r="AF21" s="217"/>
-      <c r="AG21" s="218"/>
-      <c r="AH21" s="218"/>
-      <c r="AI21" s="219"/>
+      <c r="B21" s="174"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="181"/>
+      <c r="P21" s="182"/>
+      <c r="Q21" s="183"/>
+      <c r="R21" s="184"/>
+      <c r="S21" s="184"/>
+      <c r="T21" s="184"/>
+      <c r="U21" s="184"/>
+      <c r="V21" s="184"/>
+      <c r="W21" s="184"/>
+      <c r="X21" s="184"/>
+      <c r="Y21" s="184"/>
+      <c r="Z21" s="184"/>
+      <c r="AA21" s="184"/>
+      <c r="AB21" s="184"/>
+      <c r="AC21" s="184"/>
+      <c r="AD21" s="184"/>
+      <c r="AE21" s="185"/>
+      <c r="AF21" s="180"/>
+      <c r="AG21" s="181"/>
+      <c r="AH21" s="181"/>
+      <c r="AI21" s="182"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="211"/>
-      <c r="C22" s="212"/>
-      <c r="D22" s="213"/>
-      <c r="E22" s="214"/>
-      <c r="F22" s="215"/>
-      <c r="G22" s="211"/>
-      <c r="H22" s="216"/>
-      <c r="I22" s="212"/>
-      <c r="J22" s="217"/>
-      <c r="K22" s="218"/>
-      <c r="L22" s="218"/>
-      <c r="M22" s="218"/>
-      <c r="N22" s="218"/>
-      <c r="O22" s="218"/>
-      <c r="P22" s="219"/>
-      <c r="Q22" s="220"/>
-      <c r="R22" s="221"/>
-      <c r="S22" s="221"/>
-      <c r="T22" s="221"/>
-      <c r="U22" s="221"/>
-      <c r="V22" s="221"/>
-      <c r="W22" s="221"/>
-      <c r="X22" s="221"/>
-      <c r="Y22" s="221"/>
-      <c r="Z22" s="221"/>
-      <c r="AA22" s="221"/>
-      <c r="AB22" s="221"/>
-      <c r="AC22" s="221"/>
-      <c r="AD22" s="221"/>
-      <c r="AE22" s="222"/>
-      <c r="AF22" s="217"/>
-      <c r="AG22" s="218"/>
-      <c r="AH22" s="218"/>
-      <c r="AI22" s="219"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="182"/>
+      <c r="Q22" s="183"/>
+      <c r="R22" s="184"/>
+      <c r="S22" s="184"/>
+      <c r="T22" s="184"/>
+      <c r="U22" s="184"/>
+      <c r="V22" s="184"/>
+      <c r="W22" s="184"/>
+      <c r="X22" s="184"/>
+      <c r="Y22" s="184"/>
+      <c r="Z22" s="184"/>
+      <c r="AA22" s="184"/>
+      <c r="AB22" s="184"/>
+      <c r="AC22" s="184"/>
+      <c r="AD22" s="184"/>
+      <c r="AE22" s="185"/>
+      <c r="AF22" s="180"/>
+      <c r="AG22" s="181"/>
+      <c r="AH22" s="181"/>
+      <c r="AI22" s="182"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="211"/>
-      <c r="C23" s="212"/>
-      <c r="D23" s="213"/>
-      <c r="E23" s="214"/>
-      <c r="F23" s="215"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="216"/>
-      <c r="I23" s="212"/>
-      <c r="J23" s="217"/>
-      <c r="K23" s="218"/>
-      <c r="L23" s="218"/>
-      <c r="M23" s="218"/>
-      <c r="N23" s="218"/>
-      <c r="O23" s="218"/>
-      <c r="P23" s="219"/>
-      <c r="Q23" s="220"/>
-      <c r="R23" s="221"/>
-      <c r="S23" s="221"/>
-      <c r="T23" s="221"/>
-      <c r="U23" s="221"/>
-      <c r="V23" s="221"/>
-      <c r="W23" s="221"/>
-      <c r="X23" s="221"/>
-      <c r="Y23" s="221"/>
-      <c r="Z23" s="221"/>
-      <c r="AA23" s="221"/>
-      <c r="AB23" s="221"/>
-      <c r="AC23" s="221"/>
-      <c r="AD23" s="221"/>
-      <c r="AE23" s="222"/>
-      <c r="AF23" s="217"/>
-      <c r="AG23" s="218"/>
-      <c r="AH23" s="218"/>
-      <c r="AI23" s="219"/>
+      <c r="B23" s="174"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="180"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="182"/>
+      <c r="Q23" s="183"/>
+      <c r="R23" s="184"/>
+      <c r="S23" s="184"/>
+      <c r="T23" s="184"/>
+      <c r="U23" s="184"/>
+      <c r="V23" s="184"/>
+      <c r="W23" s="184"/>
+      <c r="X23" s="184"/>
+      <c r="Y23" s="184"/>
+      <c r="Z23" s="184"/>
+      <c r="AA23" s="184"/>
+      <c r="AB23" s="184"/>
+      <c r="AC23" s="184"/>
+      <c r="AD23" s="184"/>
+      <c r="AE23" s="185"/>
+      <c r="AF23" s="180"/>
+      <c r="AG23" s="181"/>
+      <c r="AH23" s="181"/>
+      <c r="AI23" s="182"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="211"/>
-      <c r="C24" s="212"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="214"/>
-      <c r="F24" s="215"/>
-      <c r="G24" s="211"/>
-      <c r="H24" s="216"/>
-      <c r="I24" s="212"/>
-      <c r="J24" s="217"/>
-      <c r="K24" s="218"/>
-      <c r="L24" s="218"/>
-      <c r="M24" s="218"/>
-      <c r="N24" s="218"/>
-      <c r="O24" s="218"/>
-      <c r="P24" s="219"/>
-      <c r="Q24" s="220"/>
-      <c r="R24" s="221"/>
-      <c r="S24" s="221"/>
-      <c r="T24" s="221"/>
-      <c r="U24" s="221"/>
-      <c r="V24" s="221"/>
-      <c r="W24" s="221"/>
-      <c r="X24" s="221"/>
-      <c r="Y24" s="221"/>
-      <c r="Z24" s="221"/>
-      <c r="AA24" s="221"/>
-      <c r="AB24" s="221"/>
-      <c r="AC24" s="221"/>
-      <c r="AD24" s="221"/>
-      <c r="AE24" s="222"/>
-      <c r="AF24" s="217"/>
-      <c r="AG24" s="218"/>
-      <c r="AH24" s="218"/>
-      <c r="AI24" s="219"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="180"/>
+      <c r="K24" s="181"/>
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="181"/>
+      <c r="P24" s="182"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="184"/>
+      <c r="S24" s="184"/>
+      <c r="T24" s="184"/>
+      <c r="U24" s="184"/>
+      <c r="V24" s="184"/>
+      <c r="W24" s="184"/>
+      <c r="X24" s="184"/>
+      <c r="Y24" s="184"/>
+      <c r="Z24" s="184"/>
+      <c r="AA24" s="184"/>
+      <c r="AB24" s="184"/>
+      <c r="AC24" s="184"/>
+      <c r="AD24" s="184"/>
+      <c r="AE24" s="185"/>
+      <c r="AF24" s="180"/>
+      <c r="AG24" s="181"/>
+      <c r="AH24" s="181"/>
+      <c r="AI24" s="182"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="211"/>
-      <c r="C25" s="212"/>
-      <c r="D25" s="213"/>
-      <c r="E25" s="214"/>
-      <c r="F25" s="215"/>
-      <c r="G25" s="211"/>
-      <c r="H25" s="216"/>
-      <c r="I25" s="212"/>
-      <c r="J25" s="217"/>
-      <c r="K25" s="218"/>
-      <c r="L25" s="218"/>
-      <c r="M25" s="218"/>
-      <c r="N25" s="218"/>
-      <c r="O25" s="218"/>
-      <c r="P25" s="219"/>
-      <c r="Q25" s="220"/>
-      <c r="R25" s="221"/>
-      <c r="S25" s="221"/>
-      <c r="T25" s="221"/>
-      <c r="U25" s="221"/>
-      <c r="V25" s="221"/>
-      <c r="W25" s="221"/>
-      <c r="X25" s="221"/>
-      <c r="Y25" s="221"/>
-      <c r="Z25" s="221"/>
-      <c r="AA25" s="221"/>
-      <c r="AB25" s="221"/>
-      <c r="AC25" s="221"/>
-      <c r="AD25" s="221"/>
-      <c r="AE25" s="222"/>
-      <c r="AF25" s="217"/>
-      <c r="AG25" s="218"/>
-      <c r="AH25" s="218"/>
-      <c r="AI25" s="219"/>
+      <c r="B25" s="174"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="176"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="180"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="181"/>
+      <c r="O25" s="181"/>
+      <c r="P25" s="182"/>
+      <c r="Q25" s="183"/>
+      <c r="R25" s="184"/>
+      <c r="S25" s="184"/>
+      <c r="T25" s="184"/>
+      <c r="U25" s="184"/>
+      <c r="V25" s="184"/>
+      <c r="W25" s="184"/>
+      <c r="X25" s="184"/>
+      <c r="Y25" s="184"/>
+      <c r="Z25" s="184"/>
+      <c r="AA25" s="184"/>
+      <c r="AB25" s="184"/>
+      <c r="AC25" s="184"/>
+      <c r="AD25" s="184"/>
+      <c r="AE25" s="185"/>
+      <c r="AF25" s="180"/>
+      <c r="AG25" s="181"/>
+      <c r="AH25" s="181"/>
+      <c r="AI25" s="182"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="211"/>
-      <c r="C26" s="212"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="214"/>
-      <c r="F26" s="215"/>
-      <c r="G26" s="211"/>
-      <c r="H26" s="216"/>
-      <c r="I26" s="212"/>
-      <c r="J26" s="217"/>
-      <c r="K26" s="218"/>
-      <c r="L26" s="218"/>
-      <c r="M26" s="218"/>
-      <c r="N26" s="218"/>
-      <c r="O26" s="218"/>
-      <c r="P26" s="219"/>
-      <c r="Q26" s="220"/>
-      <c r="R26" s="221"/>
-      <c r="S26" s="221"/>
-      <c r="T26" s="221"/>
-      <c r="U26" s="221"/>
-      <c r="V26" s="221"/>
-      <c r="W26" s="221"/>
-      <c r="X26" s="221"/>
-      <c r="Y26" s="221"/>
-      <c r="Z26" s="221"/>
-      <c r="AA26" s="221"/>
-      <c r="AB26" s="221"/>
-      <c r="AC26" s="221"/>
-      <c r="AD26" s="221"/>
-      <c r="AE26" s="222"/>
-      <c r="AF26" s="217"/>
-      <c r="AG26" s="218"/>
-      <c r="AH26" s="218"/>
-      <c r="AI26" s="219"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="180"/>
+      <c r="K26" s="181"/>
+      <c r="L26" s="181"/>
+      <c r="M26" s="181"/>
+      <c r="N26" s="181"/>
+      <c r="O26" s="181"/>
+      <c r="P26" s="182"/>
+      <c r="Q26" s="183"/>
+      <c r="R26" s="184"/>
+      <c r="S26" s="184"/>
+      <c r="T26" s="184"/>
+      <c r="U26" s="184"/>
+      <c r="V26" s="184"/>
+      <c r="W26" s="184"/>
+      <c r="X26" s="184"/>
+      <c r="Y26" s="184"/>
+      <c r="Z26" s="184"/>
+      <c r="AA26" s="184"/>
+      <c r="AB26" s="184"/>
+      <c r="AC26" s="184"/>
+      <c r="AD26" s="184"/>
+      <c r="AE26" s="185"/>
+      <c r="AF26" s="180"/>
+      <c r="AG26" s="181"/>
+      <c r="AH26" s="181"/>
+      <c r="AI26" s="182"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="211"/>
-      <c r="C27" s="212"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="215"/>
-      <c r="G27" s="211"/>
-      <c r="H27" s="216"/>
-      <c r="I27" s="212"/>
-      <c r="J27" s="217"/>
-      <c r="K27" s="218"/>
-      <c r="L27" s="218"/>
-      <c r="M27" s="218"/>
-      <c r="N27" s="218"/>
-      <c r="O27" s="218"/>
-      <c r="P27" s="219"/>
-      <c r="Q27" s="220"/>
-      <c r="R27" s="221"/>
-      <c r="S27" s="221"/>
-      <c r="T27" s="221"/>
-      <c r="U27" s="221"/>
-      <c r="V27" s="221"/>
-      <c r="W27" s="221"/>
-      <c r="X27" s="221"/>
-      <c r="Y27" s="221"/>
-      <c r="Z27" s="221"/>
-      <c r="AA27" s="221"/>
-      <c r="AB27" s="221"/>
-      <c r="AC27" s="221"/>
-      <c r="AD27" s="221"/>
-      <c r="AE27" s="222"/>
-      <c r="AF27" s="217"/>
-      <c r="AG27" s="218"/>
-      <c r="AH27" s="218"/>
-      <c r="AI27" s="219"/>
+      <c r="B27" s="174"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="180"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="181"/>
+      <c r="M27" s="181"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="182"/>
+      <c r="Q27" s="183"/>
+      <c r="R27" s="184"/>
+      <c r="S27" s="184"/>
+      <c r="T27" s="184"/>
+      <c r="U27" s="184"/>
+      <c r="V27" s="184"/>
+      <c r="W27" s="184"/>
+      <c r="X27" s="184"/>
+      <c r="Y27" s="184"/>
+      <c r="Z27" s="184"/>
+      <c r="AA27" s="184"/>
+      <c r="AB27" s="184"/>
+      <c r="AC27" s="184"/>
+      <c r="AD27" s="184"/>
+      <c r="AE27" s="185"/>
+      <c r="AF27" s="180"/>
+      <c r="AG27" s="181"/>
+      <c r="AH27" s="181"/>
+      <c r="AI27" s="182"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="211"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="213"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="215"/>
-      <c r="G28" s="211"/>
-      <c r="H28" s="216"/>
-      <c r="I28" s="212"/>
-      <c r="J28" s="217"/>
-      <c r="K28" s="218"/>
-      <c r="L28" s="218"/>
-      <c r="M28" s="218"/>
-      <c r="N28" s="218"/>
-      <c r="O28" s="218"/>
-      <c r="P28" s="219"/>
-      <c r="Q28" s="220"/>
-      <c r="R28" s="221"/>
-      <c r="S28" s="221"/>
-      <c r="T28" s="221"/>
-      <c r="U28" s="221"/>
-      <c r="V28" s="221"/>
-      <c r="W28" s="221"/>
-      <c r="X28" s="221"/>
-      <c r="Y28" s="221"/>
-      <c r="Z28" s="221"/>
-      <c r="AA28" s="221"/>
-      <c r="AB28" s="221"/>
-      <c r="AC28" s="221"/>
-      <c r="AD28" s="221"/>
-      <c r="AE28" s="222"/>
-      <c r="AF28" s="217"/>
-      <c r="AG28" s="218"/>
-      <c r="AH28" s="218"/>
-      <c r="AI28" s="219"/>
+      <c r="B28" s="174"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="180"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="182"/>
+      <c r="Q28" s="183"/>
+      <c r="R28" s="184"/>
+      <c r="S28" s="184"/>
+      <c r="T28" s="184"/>
+      <c r="U28" s="184"/>
+      <c r="V28" s="184"/>
+      <c r="W28" s="184"/>
+      <c r="X28" s="184"/>
+      <c r="Y28" s="184"/>
+      <c r="Z28" s="184"/>
+      <c r="AA28" s="184"/>
+      <c r="AB28" s="184"/>
+      <c r="AC28" s="184"/>
+      <c r="AD28" s="184"/>
+      <c r="AE28" s="185"/>
+      <c r="AF28" s="180"/>
+      <c r="AG28" s="181"/>
+      <c r="AH28" s="181"/>
+      <c r="AI28" s="182"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="211"/>
-      <c r="C29" s="212"/>
-      <c r="D29" s="213"/>
-      <c r="E29" s="214"/>
-      <c r="F29" s="215"/>
-      <c r="G29" s="211"/>
-      <c r="H29" s="216"/>
-      <c r="I29" s="212"/>
-      <c r="J29" s="217"/>
-      <c r="K29" s="218"/>
-      <c r="L29" s="218"/>
-      <c r="M29" s="218"/>
-      <c r="N29" s="218"/>
-      <c r="O29" s="218"/>
-      <c r="P29" s="219"/>
-      <c r="Q29" s="220"/>
-      <c r="R29" s="221"/>
-      <c r="S29" s="221"/>
-      <c r="T29" s="221"/>
-      <c r="U29" s="221"/>
-      <c r="V29" s="221"/>
-      <c r="W29" s="221"/>
-      <c r="X29" s="221"/>
-      <c r="Y29" s="221"/>
-      <c r="Z29" s="221"/>
-      <c r="AA29" s="221"/>
-      <c r="AB29" s="221"/>
-      <c r="AC29" s="221"/>
-      <c r="AD29" s="221"/>
-      <c r="AE29" s="222"/>
-      <c r="AF29" s="217"/>
-      <c r="AG29" s="218"/>
-      <c r="AH29" s="218"/>
-      <c r="AI29" s="219"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="182"/>
+      <c r="Q29" s="183"/>
+      <c r="R29" s="184"/>
+      <c r="S29" s="184"/>
+      <c r="T29" s="184"/>
+      <c r="U29" s="184"/>
+      <c r="V29" s="184"/>
+      <c r="W29" s="184"/>
+      <c r="X29" s="184"/>
+      <c r="Y29" s="184"/>
+      <c r="Z29" s="184"/>
+      <c r="AA29" s="184"/>
+      <c r="AB29" s="184"/>
+      <c r="AC29" s="184"/>
+      <c r="AD29" s="184"/>
+      <c r="AE29" s="185"/>
+      <c r="AF29" s="180"/>
+      <c r="AG29" s="181"/>
+      <c r="AH29" s="181"/>
+      <c r="AI29" s="182"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="211"/>
-      <c r="C30" s="212"/>
-      <c r="D30" s="213"/>
-      <c r="E30" s="214"/>
-      <c r="F30" s="215"/>
-      <c r="G30" s="211"/>
-      <c r="H30" s="216"/>
-      <c r="I30" s="212"/>
-      <c r="J30" s="217"/>
-      <c r="K30" s="218"/>
-      <c r="L30" s="218"/>
-      <c r="M30" s="218"/>
-      <c r="N30" s="218"/>
-      <c r="O30" s="218"/>
-      <c r="P30" s="219"/>
-      <c r="Q30" s="220"/>
-      <c r="R30" s="221"/>
-      <c r="S30" s="221"/>
-      <c r="T30" s="221"/>
-      <c r="U30" s="221"/>
-      <c r="V30" s="221"/>
-      <c r="W30" s="221"/>
-      <c r="X30" s="221"/>
-      <c r="Y30" s="221"/>
-      <c r="Z30" s="221"/>
-      <c r="AA30" s="221"/>
-      <c r="AB30" s="221"/>
-      <c r="AC30" s="221"/>
-      <c r="AD30" s="221"/>
-      <c r="AE30" s="222"/>
-      <c r="AF30" s="217"/>
-      <c r="AG30" s="218"/>
-      <c r="AH30" s="218"/>
-      <c r="AI30" s="219"/>
+      <c r="B30" s="174"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="180"/>
+      <c r="K30" s="181"/>
+      <c r="L30" s="181"/>
+      <c r="M30" s="181"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="182"/>
+      <c r="Q30" s="183"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="184"/>
+      <c r="AC30" s="184"/>
+      <c r="AD30" s="184"/>
+      <c r="AE30" s="185"/>
+      <c r="AF30" s="180"/>
+      <c r="AG30" s="181"/>
+      <c r="AH30" s="181"/>
+      <c r="AI30" s="182"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="211"/>
-      <c r="C31" s="212"/>
-      <c r="D31" s="213"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="215"/>
-      <c r="G31" s="211"/>
-      <c r="H31" s="216"/>
-      <c r="I31" s="212"/>
-      <c r="J31" s="217"/>
-      <c r="K31" s="218"/>
-      <c r="L31" s="218"/>
-      <c r="M31" s="218"/>
-      <c r="N31" s="218"/>
-      <c r="O31" s="218"/>
-      <c r="P31" s="219"/>
-      <c r="Q31" s="220"/>
-      <c r="R31" s="221"/>
-      <c r="S31" s="221"/>
-      <c r="T31" s="221"/>
-      <c r="U31" s="221"/>
-      <c r="V31" s="221"/>
-      <c r="W31" s="221"/>
-      <c r="X31" s="221"/>
-      <c r="Y31" s="221"/>
-      <c r="Z31" s="221"/>
-      <c r="AA31" s="221"/>
-      <c r="AB31" s="221"/>
-      <c r="AC31" s="221"/>
-      <c r="AD31" s="221"/>
-      <c r="AE31" s="222"/>
-      <c r="AF31" s="217"/>
-      <c r="AG31" s="218"/>
-      <c r="AH31" s="218"/>
-      <c r="AI31" s="219"/>
+      <c r="B31" s="174"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="180"/>
+      <c r="K31" s="181"/>
+      <c r="L31" s="181"/>
+      <c r="M31" s="181"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="182"/>
+      <c r="Q31" s="183"/>
+      <c r="R31" s="184"/>
+      <c r="S31" s="184"/>
+      <c r="T31" s="184"/>
+      <c r="U31" s="184"/>
+      <c r="V31" s="184"/>
+      <c r="W31" s="184"/>
+      <c r="X31" s="184"/>
+      <c r="Y31" s="184"/>
+      <c r="Z31" s="184"/>
+      <c r="AA31" s="184"/>
+      <c r="AB31" s="184"/>
+      <c r="AC31" s="184"/>
+      <c r="AD31" s="184"/>
+      <c r="AE31" s="185"/>
+      <c r="AF31" s="180"/>
+      <c r="AG31" s="181"/>
+      <c r="AH31" s="181"/>
+      <c r="AI31" s="182"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="211"/>
-      <c r="C32" s="212"/>
-      <c r="D32" s="213"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="215"/>
-      <c r="G32" s="211"/>
-      <c r="H32" s="216"/>
-      <c r="I32" s="212"/>
-      <c r="J32" s="217"/>
-      <c r="K32" s="232"/>
-      <c r="L32" s="218"/>
-      <c r="M32" s="218"/>
-      <c r="N32" s="218"/>
-      <c r="O32" s="218"/>
-      <c r="P32" s="219"/>
-      <c r="Q32" s="220"/>
-      <c r="R32" s="221"/>
-      <c r="S32" s="221"/>
-      <c r="T32" s="221"/>
-      <c r="U32" s="221"/>
-      <c r="V32" s="221"/>
-      <c r="W32" s="221"/>
-      <c r="X32" s="221"/>
-      <c r="Y32" s="221"/>
-      <c r="Z32" s="221"/>
-      <c r="AA32" s="221"/>
-      <c r="AB32" s="221"/>
-      <c r="AC32" s="221"/>
-      <c r="AD32" s="221"/>
-      <c r="AE32" s="222"/>
-      <c r="AF32" s="217"/>
-      <c r="AG32" s="218"/>
-      <c r="AH32" s="218"/>
-      <c r="AI32" s="219"/>
+      <c r="B32" s="174"/>
+      <c r="C32" s="175"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="180"/>
+      <c r="K32" s="186"/>
+      <c r="L32" s="181"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="181"/>
+      <c r="O32" s="181"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="183"/>
+      <c r="R32" s="184"/>
+      <c r="S32" s="184"/>
+      <c r="T32" s="184"/>
+      <c r="U32" s="184"/>
+      <c r="V32" s="184"/>
+      <c r="W32" s="184"/>
+      <c r="X32" s="184"/>
+      <c r="Y32" s="184"/>
+      <c r="Z32" s="184"/>
+      <c r="AA32" s="184"/>
+      <c r="AB32" s="184"/>
+      <c r="AC32" s="184"/>
+      <c r="AD32" s="184"/>
+      <c r="AE32" s="185"/>
+      <c r="AF32" s="180"/>
+      <c r="AG32" s="181"/>
+      <c r="AH32" s="181"/>
+      <c r="AI32" s="182"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="211"/>
-      <c r="C33" s="212"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="215"/>
-      <c r="G33" s="211"/>
-      <c r="H33" s="216"/>
-      <c r="I33" s="212"/>
-      <c r="J33" s="217"/>
-      <c r="K33" s="218"/>
-      <c r="L33" s="218"/>
-      <c r="M33" s="218"/>
-      <c r="N33" s="218"/>
-      <c r="O33" s="218"/>
-      <c r="P33" s="219"/>
-      <c r="Q33" s="220"/>
-      <c r="R33" s="221"/>
-      <c r="S33" s="221"/>
-      <c r="T33" s="221"/>
-      <c r="U33" s="221"/>
-      <c r="V33" s="221"/>
-      <c r="W33" s="221"/>
-      <c r="X33" s="221"/>
-      <c r="Y33" s="221"/>
-      <c r="Z33" s="221"/>
-      <c r="AA33" s="221"/>
-      <c r="AB33" s="221"/>
-      <c r="AC33" s="221"/>
-      <c r="AD33" s="221"/>
-      <c r="AE33" s="222"/>
-      <c r="AF33" s="217"/>
-      <c r="AG33" s="218"/>
-      <c r="AH33" s="218"/>
-      <c r="AI33" s="219"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="180"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="182"/>
+      <c r="Q33" s="183"/>
+      <c r="R33" s="184"/>
+      <c r="S33" s="184"/>
+      <c r="T33" s="184"/>
+      <c r="U33" s="184"/>
+      <c r="V33" s="184"/>
+      <c r="W33" s="184"/>
+      <c r="X33" s="184"/>
+      <c r="Y33" s="184"/>
+      <c r="Z33" s="184"/>
+      <c r="AA33" s="184"/>
+      <c r="AB33" s="184"/>
+      <c r="AC33" s="184"/>
+      <c r="AD33" s="184"/>
+      <c r="AE33" s="185"/>
+      <c r="AF33" s="180"/>
+      <c r="AG33" s="181"/>
+      <c r="AH33" s="181"/>
+      <c r="AI33" s="182"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -10791,6 +10635,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -11976,26 +11975,26 @@
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="49"/>
-      <c r="D40" s="154" t="s">
+      <c r="D40" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="155" t="s">
+      <c r="E40" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="156" t="s">
+      <c r="F40" s="155" t="s">
         <v>93</v>
       </c>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="157"/>
-      <c r="K40" s="158"/>
-      <c r="L40" s="159"/>
-      <c r="M40" s="160"/>
-      <c r="N40" s="161"/>
-      <c r="O40" s="162"/>
-      <c r="P40" s="160"/>
-      <c r="Q40" s="161"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="157"/>
+      <c r="L40" s="158"/>
+      <c r="M40" s="159"/>
+      <c r="N40" s="160"/>
+      <c r="O40" s="161"/>
+      <c r="P40" s="159"/>
+      <c r="Q40" s="160"/>
     </row>
     <row r="41" spans="1:17" s="32" customFormat="1">
       <c r="A41" s="40" t="str" cm="1">
@@ -12012,22 +12011,22 @@
       </c>
       <c r="B41" s="77"/>
       <c r="C41" s="77"/>
-      <c r="D41" s="163"/>
-      <c r="E41" s="164"/>
-      <c r="F41" s="156" t="s">
+      <c r="D41" s="162"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="157"/>
-      <c r="K41" s="158"/>
-      <c r="L41" s="159"/>
-      <c r="M41" s="160"/>
-      <c r="N41" s="161"/>
-      <c r="O41" s="162"/>
-      <c r="P41" s="160"/>
-      <c r="Q41" s="161"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="156"/>
+      <c r="K41" s="157"/>
+      <c r="L41" s="158"/>
+      <c r="M41" s="159"/>
+      <c r="N41" s="160"/>
+      <c r="O41" s="161"/>
+      <c r="P41" s="159"/>
+      <c r="Q41" s="160"/>
     </row>
     <row r="42" spans="1:17" s="32" customFormat="1" ht="22.5">
       <c r="A42" s="40" t="str" cm="1">
@@ -12057,7 +12056,7 @@
       <c r="F42" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="G42" s="165" t="s">
+      <c r="G42" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H42" s="52"/>
@@ -12091,7 +12090,7 @@
       <c r="F43" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="G43" s="165" t="s">
+      <c r="G43" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H43" s="52"/>
@@ -12125,7 +12124,7 @@
       <c r="F44" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="165" t="s">
+      <c r="G44" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H44" s="52"/>
@@ -12161,7 +12160,7 @@
       <c r="F45" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="G45" s="165" t="s">
+      <c r="G45" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H45" s="52"/>
@@ -12195,7 +12194,7 @@
       <c r="F46" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="G46" s="165" t="s">
+      <c r="G46" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H46" s="52"/>
@@ -12229,7 +12228,7 @@
       <c r="F47" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="165" t="s">
+      <c r="G47" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H47" s="52"/>
@@ -12265,7 +12264,7 @@
       <c r="F48" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="165" t="s">
+      <c r="G48" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H48" s="52"/>
@@ -12299,7 +12298,7 @@
       <c r="F49" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="165" t="s">
+      <c r="G49" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H49" s="52"/>
@@ -12335,7 +12334,7 @@
       <c r="F50" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="G50" s="165" t="s">
+      <c r="G50" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H50" s="52"/>
@@ -12369,7 +12368,7 @@
       <c r="F51" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="G51" s="165" t="s">
+      <c r="G51" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H51" s="52"/>
@@ -12403,7 +12402,7 @@
       <c r="F52" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="G52" s="165" t="s">
+      <c r="G52" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H52" s="52"/>
@@ -12437,7 +12436,7 @@
       <c r="F53" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="G53" s="165" t="s">
+      <c r="G53" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H53" s="52"/>
@@ -12471,7 +12470,7 @@
       <c r="F54" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="G54" s="165" t="s">
+      <c r="G54" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H54" s="52"/>
@@ -12505,7 +12504,7 @@
       <c r="F55" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="G55" s="165" t="s">
+      <c r="G55" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H55" s="52"/>
@@ -12541,7 +12540,7 @@
       <c r="F56" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="G56" s="165" t="s">
+      <c r="G56" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H56" s="52"/>
@@ -12577,7 +12576,7 @@
       <c r="F57" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="G57" s="165" t="s">
+      <c r="G57" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H57" s="52"/>
@@ -12613,7 +12612,7 @@
       <c r="F58" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="G58" s="165" t="s">
+      <c r="G58" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H58" s="52"/>
@@ -12651,7 +12650,7 @@
       <c r="F59" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="G59" s="165" t="s">
+      <c r="G59" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H59" s="52"/>
@@ -12685,7 +12684,7 @@
       <c r="F60" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="G60" s="165" t="s">
+      <c r="G60" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H60" s="52"/>
@@ -12719,7 +12718,7 @@
       <c r="F61" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="G61" s="165" t="s">
+      <c r="G61" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H61" s="52"/>
@@ -12753,7 +12752,7 @@
       <c r="F62" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="G62" s="165" t="s">
+      <c r="G62" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H62" s="52"/>
@@ -12787,7 +12786,7 @@
       <c r="F63" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="G63" s="165" t="s">
+      <c r="G63" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H63" s="52"/>
@@ -12823,7 +12822,7 @@
       <c r="F64" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="G64" s="165" t="s">
+      <c r="G64" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H64" s="52"/>
@@ -12857,7 +12856,7 @@
       <c r="F65" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="G65" s="165" t="s">
+      <c r="G65" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H65" s="52"/>
@@ -12891,7 +12890,7 @@
       <c r="F66" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="G66" s="165" t="s">
+      <c r="G66" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H66" s="52"/>
@@ -12925,7 +12924,7 @@
       <c r="F67" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="G67" s="165" t="s">
+      <c r="G67" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H67" s="52"/>
@@ -12959,7 +12958,7 @@
       <c r="F68" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="G68" s="165" t="s">
+      <c r="G68" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H68" s="52"/>
@@ -12993,7 +12992,7 @@
       <c r="F69" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="G69" s="165" t="s">
+      <c r="G69" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H69" s="52"/>
@@ -13027,7 +13026,7 @@
       <c r="F70" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="G70" s="165" t="s">
+      <c r="G70" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H70" s="52"/>
@@ -13061,7 +13060,7 @@
       <c r="F71" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="G71" s="165" t="s">
+      <c r="G71" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H71" s="52"/>
@@ -13097,7 +13096,7 @@
       <c r="F72" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="G72" s="165" t="s">
+      <c r="G72" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H72" s="52"/>
@@ -13133,7 +13132,7 @@
       <c r="F73" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="G73" s="165" t="s">
+      <c r="G73" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H73" s="52"/>
@@ -13167,7 +13166,7 @@
       <c r="F74" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="G74" s="165" t="s">
+      <c r="G74" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H74" s="52"/>
@@ -13201,7 +13200,7 @@
       <c r="F75" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="G75" s="165" t="s">
+      <c r="G75" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H75" s="52"/>
@@ -13235,7 +13234,7 @@
       <c r="F76" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="G76" s="165" t="s">
+      <c r="G76" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H76" s="52"/>
@@ -13269,7 +13268,7 @@
       <c r="F77" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="G77" s="165" t="s">
+      <c r="G77" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H77" s="52"/>
@@ -13309,7 +13308,7 @@
       <c r="F78" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="G78" s="165" t="s">
+      <c r="G78" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H78" s="52"/>
@@ -13343,7 +13342,7 @@
       <c r="F79" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="G79" s="165" t="s">
+      <c r="G79" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H79" s="52"/>
@@ -13379,7 +13378,7 @@
       <c r="F80" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="G80" s="165" t="s">
+      <c r="G80" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H80" s="52"/>
@@ -13415,7 +13414,7 @@
       <c r="F81" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="G81" s="165" t="s">
+      <c r="G81" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H81" s="52"/>
@@ -13449,7 +13448,7 @@
       <c r="F82" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="G82" s="165" t="s">
+      <c r="G82" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H82" s="52"/>
@@ -13485,7 +13484,7 @@
       <c r="F83" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="G83" s="165" t="s">
+      <c r="G83" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H83" s="52"/>
@@ -13521,7 +13520,7 @@
       <c r="F84" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="G84" s="165" t="s">
+      <c r="G84" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H84" s="52"/>
@@ -13561,7 +13560,7 @@
       <c r="F85" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="G85" s="165" t="s">
+      <c r="G85" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H85" s="52"/>
@@ -13597,7 +13596,7 @@
       <c r="F86" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="G86" s="165" t="s">
+      <c r="G86" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H86" s="52"/>
@@ -13633,7 +13632,7 @@
       <c r="F87" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="G87" s="165" t="s">
+      <c r="G87" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H87" s="52"/>
@@ -13673,7 +13672,7 @@
       <c r="F88" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="G88" s="165" t="s">
+      <c r="G88" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H88" s="52"/>
@@ -13707,7 +13706,7 @@
       <c r="F89" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="G89" s="165" t="s">
+      <c r="G89" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H89" s="52"/>
@@ -13743,7 +13742,7 @@
       <c r="F90" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="G90" s="165" t="s">
+      <c r="G90" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H90" s="52"/>
@@ -13779,7 +13778,7 @@
       <c r="F91" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="G91" s="165" t="s">
+      <c r="G91" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H91" s="52"/>
@@ -13813,7 +13812,7 @@
       <c r="F92" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="G92" s="165" t="s">
+      <c r="G92" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H92" s="52"/>
@@ -13849,7 +13848,7 @@
       <c r="F93" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="G93" s="165" t="s">
+      <c r="G93" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H93" s="52"/>
@@ -13889,7 +13888,7 @@
       <c r="F94" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="G94" s="165" t="s">
+      <c r="G94" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H94" s="52"/>
@@ -13923,7 +13922,7 @@
       <c r="F95" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="G95" s="165" t="s">
+      <c r="G95" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H95" s="52"/>
@@ -13957,7 +13956,7 @@
       <c r="F96" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="G96" s="165" t="s">
+      <c r="G96" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H96" s="52"/>
@@ -13991,7 +13990,7 @@
       <c r="F97" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="G97" s="165" t="s">
+      <c r="G97" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H97" s="52"/>
@@ -14025,7 +14024,7 @@
       <c r="F98" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="G98" s="165" t="s">
+      <c r="G98" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H98" s="52"/>
@@ -14061,7 +14060,7 @@
       <c r="F99" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="G99" s="165" t="s">
+      <c r="G99" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H99" s="52"/>
@@ -14095,7 +14094,7 @@
       <c r="F100" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="G100" s="165" t="s">
+      <c r="G100" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H100" s="52"/>
@@ -14129,7 +14128,7 @@
       <c r="F101" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="G101" s="165" t="s">
+      <c r="G101" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H101" s="52"/>
@@ -14163,7 +14162,7 @@
       <c r="F102" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="G102" s="165" t="s">
+      <c r="G102" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H102" s="52"/>
@@ -14197,7 +14196,7 @@
       <c r="F103" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="G103" s="165" t="s">
+      <c r="G103" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H103" s="52"/>
@@ -14233,7 +14232,7 @@
       <c r="F104" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="G104" s="165" t="s">
+      <c r="G104" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H104" s="52"/>
@@ -14275,7 +14274,7 @@
       <c r="F105" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="G105" s="165" t="s">
+      <c r="G105" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H105" s="52"/>
@@ -14315,7 +14314,7 @@
       <c r="F106" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="G106" s="165" t="s">
+      <c r="G106" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H106" s="52"/>
@@ -14349,7 +14348,7 @@
       <c r="F107" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="G107" s="165" t="s">
+      <c r="G107" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H107" s="52"/>
@@ -14389,7 +14388,7 @@
       <c r="F108" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="G108" s="165" t="s">
+      <c r="G108" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H108" s="52"/>
@@ -14429,7 +14428,7 @@
       <c r="F109" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="G109" s="165" t="s">
+      <c r="G109" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H109" s="52"/>
@@ -14463,7 +14462,7 @@
       <c r="F110" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="G110" s="165" t="s">
+      <c r="G110" s="164" t="s">
         <v>489</v>
       </c>
       <c r="H110" s="52"/>
@@ -14532,7 +14531,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="233" t="s">
+      <c r="B112" s="232" t="s">
         <v>198</v>
       </c>
       <c r="C112" s="56"/>
@@ -14568,7 +14567,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="233"/>
+      <c r="B113" s="232"/>
       <c r="C113" s="56"/>
       <c r="D113" s="43"/>
       <c r="E113" s="95"/>
@@ -15240,7 +15239,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="233" t="s">
+      <c r="B132" s="232" t="s">
         <v>226</v>
       </c>
       <c r="C132" s="56"/>
@@ -15276,7 +15275,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="233"/>
+      <c r="B133" s="232"/>
       <c r="C133" s="56"/>
       <c r="D133" s="43"/>
       <c r="E133" s="43"/>
@@ -21122,7 +21121,7 @@
 )</f>
         <v>1-1-1</v>
       </c>
-      <c r="B11" s="172" t="s">
+      <c r="B11" s="171" t="s">
         <v>426</v>
       </c>
       <c r="C11" s="108" t="s">
@@ -21165,7 +21164,7 @@
 )</f>
         <v>2-1-1</v>
       </c>
-      <c r="B12" s="168"/>
+      <c r="B12" s="167"/>
       <c r="C12" s="113"/>
       <c r="D12" s="114"/>
       <c r="E12" s="114" t="s">
@@ -21202,7 +21201,7 @@
 )</f>
         <v>3-1-1</v>
       </c>
-      <c r="B13" s="168"/>
+      <c r="B13" s="167"/>
       <c r="C13" s="113"/>
       <c r="D13" s="109" t="s">
         <v>50</v>
@@ -21241,7 +21240,7 @@
 )</f>
         <v>3-2-1</v>
       </c>
-      <c r="B14" s="168"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="113"/>
       <c r="D14" s="109"/>
       <c r="E14" s="115"/>
@@ -21276,7 +21275,7 @@
 )</f>
         <v>3-3-1</v>
       </c>
-      <c r="B15" s="168"/>
+      <c r="B15" s="167"/>
       <c r="C15" s="113"/>
       <c r="D15" s="109"/>
       <c r="E15" s="115"/>
@@ -21311,7 +21310,7 @@
 )</f>
         <v>3-4-1</v>
       </c>
-      <c r="B16" s="168"/>
+      <c r="B16" s="167"/>
       <c r="C16" s="113"/>
       <c r="D16" s="109"/>
       <c r="E16" s="115"/>
@@ -21346,7 +21345,7 @@
 )</f>
         <v>3-5-1</v>
       </c>
-      <c r="B17" s="168"/>
+      <c r="B17" s="167"/>
       <c r="C17" s="113"/>
       <c r="D17" s="116"/>
       <c r="E17" s="114"/>
@@ -21381,7 +21380,7 @@
 )</f>
         <v>4-1-1</v>
       </c>
-      <c r="B18" s="168"/>
+      <c r="B18" s="167"/>
       <c r="C18" s="113"/>
       <c r="D18" s="115" t="s">
         <v>57</v>
@@ -21420,7 +21419,7 @@
 )</f>
         <v>4-2-1</v>
       </c>
-      <c r="B19" s="168"/>
+      <c r="B19" s="167"/>
       <c r="C19" s="113"/>
       <c r="D19" s="115"/>
       <c r="E19" s="115"/>
@@ -21455,7 +21454,7 @@
 )</f>
         <v>4-3-1</v>
       </c>
-      <c r="B20" s="168"/>
+      <c r="B20" s="167"/>
       <c r="C20" s="113"/>
       <c r="D20" s="115"/>
       <c r="E20" s="114"/>
@@ -21490,7 +21489,7 @@
 )</f>
         <v>5-1-1</v>
       </c>
-      <c r="B21" s="168"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="113"/>
       <c r="D21" s="115"/>
       <c r="E21" s="115" t="s">
@@ -21527,7 +21526,7 @@
 )</f>
         <v>5-2-1</v>
       </c>
-      <c r="B22" s="168"/>
+      <c r="B22" s="167"/>
       <c r="C22" s="113"/>
       <c r="D22" s="115"/>
       <c r="E22" s="115"/>
@@ -21562,7 +21561,7 @@
 )</f>
         <v>5-3-1</v>
       </c>
-      <c r="B23" s="168"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="113"/>
       <c r="D23" s="115"/>
       <c r="E23" s="115"/>
@@ -21597,7 +21596,7 @@
 )</f>
         <v>5-4-1</v>
       </c>
-      <c r="B24" s="168"/>
+      <c r="B24" s="167"/>
       <c r="C24" s="113"/>
       <c r="D24" s="116"/>
       <c r="E24" s="114"/>
@@ -21632,7 +21631,7 @@
 )</f>
         <v>6-1-1</v>
       </c>
-      <c r="B25" s="168"/>
+      <c r="B25" s="167"/>
       <c r="C25" s="113"/>
       <c r="D25" s="115" t="s">
         <v>67</v>
@@ -21671,7 +21670,7 @@
 )</f>
         <v>6-2-1</v>
       </c>
-      <c r="B26" s="168"/>
+      <c r="B26" s="167"/>
       <c r="C26" s="113"/>
       <c r="D26" s="116"/>
       <c r="E26" s="114"/>
@@ -21706,7 +21705,7 @@
 )</f>
         <v>7-1-1</v>
       </c>
-      <c r="B27" s="168"/>
+      <c r="B27" s="167"/>
       <c r="C27" s="113"/>
       <c r="D27" s="115" t="s">
         <v>70</v>
@@ -21745,7 +21744,7 @@
 )</f>
         <v>7-2-1</v>
       </c>
-      <c r="B28" s="168"/>
+      <c r="B28" s="167"/>
       <c r="C28" s="113"/>
       <c r="D28" s="115"/>
       <c r="E28" s="114"/>
@@ -21780,7 +21779,7 @@
 )</f>
         <v>8-1-1</v>
       </c>
-      <c r="B29" s="168"/>
+      <c r="B29" s="167"/>
       <c r="C29" s="113"/>
       <c r="D29" s="109"/>
       <c r="E29" s="115" t="s">
@@ -21817,7 +21816,7 @@
 )</f>
         <v>8-2-1</v>
       </c>
-      <c r="B30" s="168"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="113"/>
       <c r="D30" s="115"/>
       <c r="E30" s="115"/>
@@ -21852,7 +21851,7 @@
 )</f>
         <v>8-3-1</v>
       </c>
-      <c r="B31" s="168"/>
+      <c r="B31" s="167"/>
       <c r="C31" s="113"/>
       <c r="D31" s="115"/>
       <c r="E31" s="115"/>
@@ -21887,7 +21886,7 @@
 )</f>
         <v>8-4-1</v>
       </c>
-      <c r="B32" s="168"/>
+      <c r="B32" s="167"/>
       <c r="C32" s="113"/>
       <c r="D32" s="115"/>
       <c r="E32" s="114"/>
@@ -21922,7 +21921,7 @@
 )</f>
         <v>9-1-1</v>
       </c>
-      <c r="B33" s="168"/>
+      <c r="B33" s="167"/>
       <c r="C33" s="113"/>
       <c r="D33" s="115"/>
       <c r="E33" s="115" t="s">
@@ -21959,7 +21958,7 @@
 )</f>
         <v>9-2-1</v>
       </c>
-      <c r="B34" s="168"/>
+      <c r="B34" s="167"/>
       <c r="C34" s="113"/>
       <c r="D34" s="115"/>
       <c r="E34" s="114"/>
@@ -21994,7 +21993,7 @@
 )</f>
         <v>10-1-1</v>
       </c>
-      <c r="B35" s="168"/>
+      <c r="B35" s="167"/>
       <c r="C35" s="109"/>
       <c r="D35" s="115"/>
       <c r="E35" s="109" t="s">
@@ -22031,7 +22030,7 @@
 )</f>
         <v>11-1-1</v>
       </c>
-      <c r="B36" s="168"/>
+      <c r="B36" s="167"/>
       <c r="C36" s="142" t="s">
         <v>85</v>
       </c>
@@ -22044,7 +22043,7 @@
       <c r="F36" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="166" t="s">
+      <c r="G36" s="165" t="s">
         <v>493</v>
       </c>
       <c r="H36" s="76"/>
@@ -22072,14 +22071,14 @@
 )</f>
         <v>11-2-1</v>
       </c>
-      <c r="B37" s="168"/>
+      <c r="B37" s="167"/>
       <c r="C37" s="109"/>
       <c r="D37" s="115"/>
       <c r="E37" s="109"/>
       <c r="F37" s="110" t="s">
         <v>434</v>
       </c>
-      <c r="G37" s="166" t="s">
+      <c r="G37" s="165" t="s">
         <v>493</v>
       </c>
       <c r="H37" s="76"/>
@@ -22107,14 +22106,14 @@
 )</f>
         <v>11-3-1</v>
       </c>
-      <c r="B38" s="168"/>
+      <c r="B38" s="167"/>
       <c r="C38" s="109"/>
       <c r="D38" s="115"/>
       <c r="E38" s="109"/>
       <c r="F38" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="G38" s="166" t="s">
+      <c r="G38" s="165" t="s">
         <v>493</v>
       </c>
       <c r="H38" s="76"/>
@@ -22142,14 +22141,14 @@
 )</f>
         <v>11-4-1</v>
       </c>
-      <c r="B39" s="168"/>
+      <c r="B39" s="167"/>
       <c r="C39" s="109"/>
       <c r="D39" s="116"/>
       <c r="E39" s="114"/>
       <c r="F39" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="166" t="s">
+      <c r="G39" s="165" t="s">
         <v>493</v>
       </c>
       <c r="H39" s="76"/>
@@ -22177,7 +22176,7 @@
 )</f>
         <v>12-1-1</v>
       </c>
-      <c r="B40" s="168"/>
+      <c r="B40" s="167"/>
       <c r="C40" s="109"/>
       <c r="D40" s="115" t="s">
         <v>92</v>
@@ -22188,7 +22187,7 @@
       <c r="F40" s="110" t="s">
         <v>435</v>
       </c>
-      <c r="G40" s="166" t="s">
+      <c r="G40" s="165" t="s">
         <v>493</v>
       </c>
       <c r="H40" s="76"/>
@@ -22216,14 +22215,14 @@
 )</f>
         <v>12-2-1</v>
       </c>
-      <c r="B41" s="168"/>
+      <c r="B41" s="167"/>
       <c r="C41" s="109"/>
       <c r="D41" s="115"/>
       <c r="E41" s="109"/>
       <c r="F41" s="110" t="s">
         <v>436</v>
       </c>
-      <c r="G41" s="166" t="s">
+      <c r="G41" s="165" t="s">
         <v>493</v>
       </c>
       <c r="H41" s="76"/>
@@ -22251,31 +22250,31 @@
 )</f>
         <v>13-1-1</v>
       </c>
-      <c r="B42" s="168"/>
-      <c r="C42" s="172" t="s">
+      <c r="B42" s="167"/>
+      <c r="C42" s="171" t="s">
         <v>494</v>
       </c>
-      <c r="D42" s="172" t="s">
+      <c r="D42" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="172" t="s">
+      <c r="E42" s="171" t="s">
         <v>495</v>
       </c>
-      <c r="F42" s="169" t="s">
+      <c r="F42" s="168" t="s">
         <v>497</v>
       </c>
-      <c r="G42" s="170"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="159"/>
-      <c r="K42" s="159"/>
-      <c r="L42" s="161"/>
-      <c r="M42" s="161"/>
-      <c r="N42" s="161"/>
-      <c r="O42" s="161"/>
-      <c r="P42" s="161"/>
-      <c r="Q42" s="171"/>
-      <c r="R42" s="159"/>
+      <c r="G42" s="169"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="158"/>
+      <c r="K42" s="158"/>
+      <c r="L42" s="160"/>
+      <c r="M42" s="160"/>
+      <c r="N42" s="160"/>
+      <c r="O42" s="160"/>
+      <c r="P42" s="160"/>
+      <c r="Q42" s="170"/>
+      <c r="R42" s="158"/>
     </row>
     <row r="43" spans="1:18" ht="22.5">
       <c r="A43" s="40" t="str" cm="1">
@@ -22290,25 +22289,25 @@
 )</f>
         <v>13-2-1</v>
       </c>
-      <c r="B43" s="168"/>
-      <c r="C43" s="168"/>
-      <c r="D43" s="173"/>
-      <c r="E43" s="173"/>
-      <c r="F43" s="169" t="s">
+      <c r="B43" s="167"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="172"/>
+      <c r="E43" s="172"/>
+      <c r="F43" s="168" t="s">
         <v>498</v>
       </c>
-      <c r="G43" s="170"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="159"/>
-      <c r="K43" s="159"/>
-      <c r="L43" s="161"/>
-      <c r="M43" s="161"/>
-      <c r="N43" s="161"/>
-      <c r="O43" s="161"/>
-      <c r="P43" s="161"/>
-      <c r="Q43" s="171"/>
-      <c r="R43" s="159"/>
+      <c r="G43" s="169"/>
+      <c r="H43" s="160"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="158"/>
+      <c r="K43" s="158"/>
+      <c r="L43" s="160"/>
+      <c r="M43" s="160"/>
+      <c r="N43" s="160"/>
+      <c r="O43" s="160"/>
+      <c r="P43" s="160"/>
+      <c r="Q43" s="170"/>
+      <c r="R43" s="158"/>
     </row>
     <row r="44" spans="1:18" ht="33.75">
       <c r="A44" s="40" t="str" cm="1">
@@ -22323,29 +22322,29 @@
 )</f>
         <v>14-1-1</v>
       </c>
-      <c r="B44" s="168"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="172" t="s">
+      <c r="B44" s="167"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="171" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="172" t="s">
+      <c r="E44" s="171" t="s">
         <v>496</v>
       </c>
-      <c r="F44" s="169" t="s">
+      <c r="F44" s="168" t="s">
         <v>499</v>
       </c>
-      <c r="G44" s="170"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="161"/>
-      <c r="J44" s="159"/>
-      <c r="K44" s="159"/>
-      <c r="L44" s="161"/>
-      <c r="M44" s="161"/>
-      <c r="N44" s="161"/>
-      <c r="O44" s="161"/>
-      <c r="P44" s="161"/>
-      <c r="Q44" s="171"/>
-      <c r="R44" s="159"/>
+      <c r="G44" s="169"/>
+      <c r="H44" s="160"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="158"/>
+      <c r="K44" s="158"/>
+      <c r="L44" s="160"/>
+      <c r="M44" s="160"/>
+      <c r="N44" s="160"/>
+      <c r="O44" s="160"/>
+      <c r="P44" s="160"/>
+      <c r="Q44" s="170"/>
+      <c r="R44" s="158"/>
     </row>
     <row r="45" spans="1:18" ht="22.5">
       <c r="A45" s="40" t="str" cm="1">
@@ -22360,25 +22359,25 @@
 )</f>
         <v>14-2-1</v>
       </c>
-      <c r="B45" s="173"/>
-      <c r="C45" s="173"/>
-      <c r="D45" s="173"/>
-      <c r="E45" s="173"/>
-      <c r="F45" s="169" t="s">
+      <c r="B45" s="172"/>
+      <c r="C45" s="172"/>
+      <c r="D45" s="172"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="168" t="s">
         <v>500</v>
       </c>
-      <c r="G45" s="170"/>
-      <c r="H45" s="161"/>
-      <c r="I45" s="161"/>
-      <c r="J45" s="159"/>
-      <c r="K45" s="159"/>
-      <c r="L45" s="161"/>
-      <c r="M45" s="161"/>
-      <c r="N45" s="161"/>
-      <c r="O45" s="161"/>
-      <c r="P45" s="161"/>
-      <c r="Q45" s="171"/>
-      <c r="R45" s="159"/>
+      <c r="G45" s="169"/>
+      <c r="H45" s="160"/>
+      <c r="I45" s="160"/>
+      <c r="J45" s="158"/>
+      <c r="K45" s="158"/>
+      <c r="L45" s="160"/>
+      <c r="M45" s="160"/>
+      <c r="N45" s="160"/>
+      <c r="O45" s="160"/>
+      <c r="P45" s="160"/>
+      <c r="Q45" s="170"/>
+      <c r="R45" s="158"/>
     </row>
     <row r="46" spans="1:18" ht="22.5">
       <c r="A46" s="40" t="str" cm="1">
@@ -24782,7 +24781,7 @@
       <c r="D115" s="108" t="s">
         <v>433</v>
       </c>
-      <c r="E115" s="167" t="s">
+      <c r="E115" s="166" t="s">
         <v>433</v>
       </c>
       <c r="F115" s="110" t="s">
@@ -24816,7 +24815,7 @@
 )</f>
         <v>45-2-1</v>
       </c>
-      <c r="B116" s="234" t="s">
+      <c r="B116" s="233" t="s">
         <v>445</v>
       </c>
       <c r="C116" s="115"/>
@@ -24853,7 +24852,7 @@
 )</f>
         <v>45-3-1</v>
       </c>
-      <c r="B117" s="234"/>
+      <c r="B117" s="233"/>
       <c r="C117" s="115"/>
       <c r="D117" s="109"/>
       <c r="E117" s="129"/>
@@ -25510,7 +25509,7 @@
       <c r="D135" s="108" t="s">
         <v>433</v>
       </c>
-      <c r="E135" s="167" t="s">
+      <c r="E135" s="166" t="s">
         <v>433</v>
       </c>
       <c r="F135" s="110" t="s">
@@ -25544,7 +25543,7 @@
 )</f>
         <v>52-2-1</v>
       </c>
-      <c r="B136" s="234" t="s">
+      <c r="B136" s="233" t="s">
         <v>226</v>
       </c>
       <c r="C136" s="115"/>
@@ -25581,7 +25580,7 @@
 )</f>
         <v>52-3-1</v>
       </c>
-      <c r="B137" s="234"/>
+      <c r="B137" s="233"/>
       <c r="C137" s="115"/>
       <c r="D137" s="109"/>
       <c r="E137" s="115"/>
@@ -31377,7 +31376,7 @@
       <c r="R298" s="64"/>
     </row>
     <row r="299" spans="1:18" ht="22.5">
-      <c r="A299" s="151" t="str" cm="1">
+      <c r="A299" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A299" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E299),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E299)&gt;0)*ROW($E$11:E299),0)),
@@ -31399,18 +31398,18 @@
       <c r="G299" s="145"/>
       <c r="H299" s="144"/>
       <c r="I299" s="144"/>
-      <c r="J299" s="152"/>
+      <c r="J299" s="151"/>
       <c r="K299" s="145"/>
       <c r="L299" s="144"/>
       <c r="M299" s="144"/>
       <c r="N299" s="144"/>
       <c r="O299" s="144"/>
       <c r="P299" s="144"/>
-      <c r="Q299" s="153"/>
+      <c r="Q299" s="152"/>
       <c r="R299" s="145"/>
     </row>
     <row r="300" spans="1:18" ht="33.75">
-      <c r="A300" s="151" t="str" cm="1">
+      <c r="A300" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A300" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E300),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E300)&gt;0)*ROW($E$11:E300),0)),
@@ -31438,20 +31437,20 @@
         <v>472</v>
       </c>
       <c r="G300" s="64"/>
-      <c r="H300" s="146"/>
-      <c r="I300" s="146"/>
-      <c r="J300" s="146"/>
-      <c r="K300" s="146"/>
-      <c r="L300" s="146"/>
-      <c r="M300" s="146"/>
-      <c r="N300" s="146"/>
-      <c r="O300" s="146"/>
-      <c r="P300" s="146"/>
-      <c r="Q300" s="146"/>
-      <c r="R300" s="146"/>
+      <c r="H300" s="65"/>
+      <c r="I300" s="65"/>
+      <c r="J300" s="65"/>
+      <c r="K300" s="65"/>
+      <c r="L300" s="65"/>
+      <c r="M300" s="65"/>
+      <c r="N300" s="65"/>
+      <c r="O300" s="65"/>
+      <c r="P300" s="65"/>
+      <c r="Q300" s="65"/>
+      <c r="R300" s="65"/>
     </row>
     <row r="301" spans="1:18" ht="22.5">
-      <c r="A301" s="151" t="str" cm="1">
+      <c r="A301" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A301" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E301),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E301)&gt;0)*ROW($E$11:E301),0)),
@@ -31463,8 +31462,8 @@
 )</f>
         <v>104-1-1</v>
       </c>
-      <c r="B301" s="147"/>
-      <c r="C301" s="147"/>
+      <c r="B301" s="146"/>
+      <c r="C301" s="146"/>
       <c r="D301" s="64" t="s">
         <v>473</v>
       </c>
@@ -31475,20 +31474,20 @@
         <v>474</v>
       </c>
       <c r="G301" s="64"/>
-      <c r="H301" s="146"/>
-      <c r="I301" s="146"/>
-      <c r="J301" s="146"/>
-      <c r="K301" s="146"/>
-      <c r="L301" s="146"/>
-      <c r="M301" s="146"/>
-      <c r="N301" s="146"/>
-      <c r="O301" s="146"/>
-      <c r="P301" s="146"/>
-      <c r="Q301" s="146"/>
-      <c r="R301" s="146"/>
+      <c r="H301" s="65"/>
+      <c r="I301" s="65"/>
+      <c r="J301" s="65"/>
+      <c r="K301" s="65"/>
+      <c r="L301" s="65"/>
+      <c r="M301" s="65"/>
+      <c r="N301" s="65"/>
+      <c r="O301" s="65"/>
+      <c r="P301" s="65"/>
+      <c r="Q301" s="65"/>
+      <c r="R301" s="65"/>
     </row>
     <row r="302" spans="1:18" ht="33.75">
-      <c r="A302" s="151" t="str" cm="1">
+      <c r="A302" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A302" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E302),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E302)&gt;0)*ROW($E$11:E302),0)),
@@ -31500,8 +31499,8 @@
 )</f>
         <v>105-1-1</v>
       </c>
-      <c r="B302" s="147"/>
-      <c r="C302" s="147"/>
+      <c r="B302" s="146"/>
+      <c r="C302" s="146"/>
       <c r="D302" s="145" t="s">
         <v>475</v>
       </c>
@@ -31512,20 +31511,20 @@
         <v>476</v>
       </c>
       <c r="G302" s="64"/>
-      <c r="H302" s="146"/>
-      <c r="I302" s="146"/>
-      <c r="J302" s="146"/>
-      <c r="K302" s="146"/>
-      <c r="L302" s="146"/>
-      <c r="M302" s="146"/>
-      <c r="N302" s="146"/>
-      <c r="O302" s="146"/>
-      <c r="P302" s="146"/>
-      <c r="Q302" s="146"/>
-      <c r="R302" s="146"/>
+      <c r="H302" s="65"/>
+      <c r="I302" s="65"/>
+      <c r="J302" s="65"/>
+      <c r="K302" s="65"/>
+      <c r="L302" s="65"/>
+      <c r="M302" s="65"/>
+      <c r="N302" s="65"/>
+      <c r="O302" s="65"/>
+      <c r="P302" s="65"/>
+      <c r="Q302" s="65"/>
+      <c r="R302" s="65"/>
     </row>
     <row r="303" spans="1:18" ht="33.75">
-      <c r="A303" s="151" t="str" cm="1">
+      <c r="A303" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A303" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E303),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E303)&gt;0)*ROW($E$11:E303),0)),
@@ -31537,28 +31536,28 @@
 )</f>
         <v>105-2-1</v>
       </c>
-      <c r="B303" s="147"/>
-      <c r="C303" s="147"/>
-      <c r="D303" s="148"/>
-      <c r="E303" s="148"/>
+      <c r="B303" s="146"/>
+      <c r="C303" s="146"/>
+      <c r="D303" s="147"/>
+      <c r="E303" s="147"/>
       <c r="F303" s="64" t="s">
         <v>477</v>
       </c>
       <c r="G303" s="64"/>
-      <c r="H303" s="146"/>
-      <c r="I303" s="146"/>
-      <c r="J303" s="146"/>
-      <c r="K303" s="146"/>
-      <c r="L303" s="146"/>
-      <c r="M303" s="146"/>
-      <c r="N303" s="146"/>
-      <c r="O303" s="146"/>
-      <c r="P303" s="146"/>
-      <c r="Q303" s="146"/>
-      <c r="R303" s="146"/>
+      <c r="H303" s="65"/>
+      <c r="I303" s="65"/>
+      <c r="J303" s="65"/>
+      <c r="K303" s="65"/>
+      <c r="L303" s="65"/>
+      <c r="M303" s="65"/>
+      <c r="N303" s="65"/>
+      <c r="O303" s="65"/>
+      <c r="P303" s="65"/>
+      <c r="Q303" s="65"/>
+      <c r="R303" s="65"/>
     </row>
     <row r="304" spans="1:18" ht="45">
-      <c r="A304" s="151" t="str" cm="1">
+      <c r="A304" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A304" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E304),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E304)&gt;0)*ROW($E$11:E304),0)),
@@ -31570,28 +31569,28 @@
 )</f>
         <v>105-3-1</v>
       </c>
-      <c r="B304" s="147"/>
-      <c r="C304" s="147"/>
-      <c r="D304" s="149"/>
-      <c r="E304" s="149"/>
+      <c r="B304" s="146"/>
+      <c r="C304" s="146"/>
+      <c r="D304" s="148"/>
+      <c r="E304" s="148"/>
       <c r="F304" s="64" t="s">
         <v>478</v>
       </c>
       <c r="G304" s="64"/>
-      <c r="H304" s="146"/>
-      <c r="I304" s="146"/>
-      <c r="J304" s="146"/>
-      <c r="K304" s="146"/>
-      <c r="L304" s="146"/>
-      <c r="M304" s="146"/>
-      <c r="N304" s="146"/>
-      <c r="O304" s="146"/>
-      <c r="P304" s="146"/>
-      <c r="Q304" s="146"/>
-      <c r="R304" s="146"/>
+      <c r="H304" s="65"/>
+      <c r="I304" s="65"/>
+      <c r="J304" s="65"/>
+      <c r="K304" s="65"/>
+      <c r="L304" s="65"/>
+      <c r="M304" s="65"/>
+      <c r="N304" s="65"/>
+      <c r="O304" s="65"/>
+      <c r="P304" s="65"/>
+      <c r="Q304" s="65"/>
+      <c r="R304" s="65"/>
     </row>
     <row r="305" spans="1:18" ht="33.75">
-      <c r="A305" s="151" t="str" cm="1">
+      <c r="A305" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A305" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E305),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E305)&gt;0)*ROW($E$11:E305),0)),
@@ -31603,8 +31602,8 @@
 )</f>
         <v>106-1-1</v>
       </c>
-      <c r="B305" s="147"/>
-      <c r="C305" s="147"/>
+      <c r="B305" s="146"/>
+      <c r="C305" s="146"/>
       <c r="D305" s="145" t="s">
         <v>479</v>
       </c>
@@ -31615,20 +31614,20 @@
         <v>480</v>
       </c>
       <c r="G305" s="64"/>
-      <c r="H305" s="146"/>
-      <c r="I305" s="146"/>
-      <c r="J305" s="146"/>
-      <c r="K305" s="146"/>
-      <c r="L305" s="146"/>
-      <c r="M305" s="146"/>
-      <c r="N305" s="146"/>
-      <c r="O305" s="146"/>
-      <c r="P305" s="146"/>
-      <c r="Q305" s="146"/>
-      <c r="R305" s="146"/>
+      <c r="H305" s="65"/>
+      <c r="I305" s="65"/>
+      <c r="J305" s="65"/>
+      <c r="K305" s="65"/>
+      <c r="L305" s="65"/>
+      <c r="M305" s="65"/>
+      <c r="N305" s="65"/>
+      <c r="O305" s="65"/>
+      <c r="P305" s="65"/>
+      <c r="Q305" s="65"/>
+      <c r="R305" s="65"/>
     </row>
     <row r="306" spans="1:18" ht="45">
-      <c r="A306" s="151" t="str" cm="1">
+      <c r="A306" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A306" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E306),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E306)&gt;0)*ROW($E$11:E306),0)),
@@ -31640,9 +31639,9 @@
 )</f>
         <v>107-1-1</v>
       </c>
-      <c r="B306" s="147"/>
-      <c r="C306" s="147"/>
-      <c r="D306" s="149"/>
+      <c r="B306" s="146"/>
+      <c r="C306" s="146"/>
+      <c r="D306" s="148"/>
       <c r="E306" s="64" t="s">
         <v>481</v>
       </c>
@@ -31650,20 +31649,20 @@
         <v>482</v>
       </c>
       <c r="G306" s="64"/>
-      <c r="H306" s="146"/>
-      <c r="I306" s="146"/>
-      <c r="J306" s="146"/>
-      <c r="K306" s="146"/>
-      <c r="L306" s="146"/>
-      <c r="M306" s="146"/>
-      <c r="N306" s="146"/>
-      <c r="O306" s="146"/>
-      <c r="P306" s="146"/>
-      <c r="Q306" s="146"/>
-      <c r="R306" s="146"/>
+      <c r="H306" s="65"/>
+      <c r="I306" s="65"/>
+      <c r="J306" s="65"/>
+      <c r="K306" s="65"/>
+      <c r="L306" s="65"/>
+      <c r="M306" s="65"/>
+      <c r="N306" s="65"/>
+      <c r="O306" s="65"/>
+      <c r="P306" s="65"/>
+      <c r="Q306" s="65"/>
+      <c r="R306" s="65"/>
     </row>
     <row r="307" spans="1:18" ht="33.75">
-      <c r="A307" s="151" t="str" cm="1">
+      <c r="A307" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A307" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E307),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E307)&gt;0)*ROW($E$11:E307),0)),
@@ -31675,8 +31674,8 @@
 )</f>
         <v>108-1-1</v>
       </c>
-      <c r="B307" s="147"/>
-      <c r="C307" s="147"/>
+      <c r="B307" s="146"/>
+      <c r="C307" s="146"/>
       <c r="D307" s="145" t="s">
         <v>161</v>
       </c>
@@ -31687,20 +31686,20 @@
         <v>465</v>
       </c>
       <c r="G307" s="64"/>
-      <c r="H307" s="146"/>
-      <c r="I307" s="146"/>
-      <c r="J307" s="146"/>
-      <c r="K307" s="146"/>
-      <c r="L307" s="146"/>
-      <c r="M307" s="146"/>
-      <c r="N307" s="146"/>
-      <c r="O307" s="146"/>
-      <c r="P307" s="146"/>
-      <c r="Q307" s="146"/>
-      <c r="R307" s="146"/>
+      <c r="H307" s="65"/>
+      <c r="I307" s="65"/>
+      <c r="J307" s="65"/>
+      <c r="K307" s="65"/>
+      <c r="L307" s="65"/>
+      <c r="M307" s="65"/>
+      <c r="N307" s="65"/>
+      <c r="O307" s="65"/>
+      <c r="P307" s="65"/>
+      <c r="Q307" s="65"/>
+      <c r="R307" s="65"/>
     </row>
     <row r="308" spans="1:18" ht="45">
-      <c r="A308" s="151" t="str" cm="1">
+      <c r="A308" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A308" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E308),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E308)&gt;0)*ROW($E$11:E308),0)),
@@ -31712,28 +31711,28 @@
 )</f>
         <v>108-2-1</v>
       </c>
-      <c r="B308" s="147"/>
-      <c r="C308" s="147"/>
-      <c r="D308" s="148"/>
-      <c r="E308" s="148"/>
+      <c r="B308" s="146"/>
+      <c r="C308" s="146"/>
+      <c r="D308" s="147"/>
+      <c r="E308" s="147"/>
       <c r="F308" s="64" t="s">
         <v>483</v>
       </c>
       <c r="G308" s="64"/>
-      <c r="H308" s="146"/>
-      <c r="I308" s="146"/>
-      <c r="J308" s="146"/>
-      <c r="K308" s="146"/>
-      <c r="L308" s="146"/>
-      <c r="M308" s="146"/>
-      <c r="N308" s="146"/>
-      <c r="O308" s="146"/>
-      <c r="P308" s="146"/>
-      <c r="Q308" s="146"/>
-      <c r="R308" s="146"/>
+      <c r="H308" s="65"/>
+      <c r="I308" s="65"/>
+      <c r="J308" s="65"/>
+      <c r="K308" s="65"/>
+      <c r="L308" s="65"/>
+      <c r="M308" s="65"/>
+      <c r="N308" s="65"/>
+      <c r="O308" s="65"/>
+      <c r="P308" s="65"/>
+      <c r="Q308" s="65"/>
+      <c r="R308" s="65"/>
     </row>
     <row r="309" spans="1:18" ht="45">
-      <c r="A309" s="151" t="str" cm="1">
+      <c r="A309" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A309" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E309),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E309)&gt;0)*ROW($E$11:E309),0)),
@@ -31745,28 +31744,28 @@
 )</f>
         <v>108-3-1</v>
       </c>
-      <c r="B309" s="147"/>
-      <c r="C309" s="147"/>
-      <c r="D309" s="148"/>
-      <c r="E309" s="148"/>
+      <c r="B309" s="146"/>
+      <c r="C309" s="146"/>
+      <c r="D309" s="147"/>
+      <c r="E309" s="147"/>
       <c r="F309" s="64" t="s">
         <v>484</v>
       </c>
       <c r="G309" s="64"/>
-      <c r="H309" s="146"/>
-      <c r="I309" s="146"/>
-      <c r="J309" s="146"/>
-      <c r="K309" s="146"/>
-      <c r="L309" s="146"/>
-      <c r="M309" s="146"/>
-      <c r="N309" s="146"/>
-      <c r="O309" s="146"/>
-      <c r="P309" s="146"/>
-      <c r="Q309" s="146"/>
-      <c r="R309" s="146"/>
+      <c r="H309" s="65"/>
+      <c r="I309" s="65"/>
+      <c r="J309" s="65"/>
+      <c r="K309" s="65"/>
+      <c r="L309" s="65"/>
+      <c r="M309" s="65"/>
+      <c r="N309" s="65"/>
+      <c r="O309" s="65"/>
+      <c r="P309" s="65"/>
+      <c r="Q309" s="65"/>
+      <c r="R309" s="65"/>
     </row>
     <row r="310" spans="1:18" ht="45">
-      <c r="A310" s="151" t="str" cm="1">
+      <c r="A310" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A310" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E310),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E310)&gt;0)*ROW($E$11:E310),0)),
@@ -31778,28 +31777,28 @@
 )</f>
         <v>108-4-1</v>
       </c>
-      <c r="B310" s="147"/>
-      <c r="C310" s="147"/>
-      <c r="D310" s="148"/>
-      <c r="E310" s="148"/>
+      <c r="B310" s="146"/>
+      <c r="C310" s="146"/>
+      <c r="D310" s="147"/>
+      <c r="E310" s="147"/>
       <c r="F310" s="64" t="s">
         <v>485</v>
       </c>
       <c r="G310" s="64"/>
-      <c r="H310" s="146"/>
-      <c r="I310" s="146"/>
-      <c r="J310" s="146"/>
-      <c r="K310" s="146"/>
-      <c r="L310" s="146"/>
-      <c r="M310" s="146"/>
-      <c r="N310" s="146"/>
-      <c r="O310" s="146"/>
-      <c r="P310" s="146"/>
-      <c r="Q310" s="146"/>
-      <c r="R310" s="146"/>
+      <c r="H310" s="65"/>
+      <c r="I310" s="65"/>
+      <c r="J310" s="65"/>
+      <c r="K310" s="65"/>
+      <c r="L310" s="65"/>
+      <c r="M310" s="65"/>
+      <c r="N310" s="65"/>
+      <c r="O310" s="65"/>
+      <c r="P310" s="65"/>
+      <c r="Q310" s="65"/>
+      <c r="R310" s="65"/>
     </row>
     <row r="311" spans="1:18" ht="45">
-      <c r="A311" s="151" t="str" cm="1">
+      <c r="A311" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A311" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E311),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E311)&gt;0)*ROW($E$11:E311),0)),
@@ -31811,28 +31810,28 @@
 )</f>
         <v>108-5-1</v>
       </c>
-      <c r="B311" s="147"/>
-      <c r="C311" s="147"/>
-      <c r="D311" s="148"/>
-      <c r="E311" s="148"/>
+      <c r="B311" s="146"/>
+      <c r="C311" s="146"/>
+      <c r="D311" s="147"/>
+      <c r="E311" s="147"/>
       <c r="F311" s="64" t="s">
         <v>486</v>
       </c>
       <c r="G311" s="64"/>
-      <c r="H311" s="146"/>
-      <c r="I311" s="146"/>
-      <c r="J311" s="146"/>
-      <c r="K311" s="146"/>
-      <c r="L311" s="146"/>
-      <c r="M311" s="146"/>
-      <c r="N311" s="146"/>
-      <c r="O311" s="146"/>
-      <c r="P311" s="146"/>
-      <c r="Q311" s="146"/>
-      <c r="R311" s="146"/>
+      <c r="H311" s="65"/>
+      <c r="I311" s="65"/>
+      <c r="J311" s="65"/>
+      <c r="K311" s="65"/>
+      <c r="L311" s="65"/>
+      <c r="M311" s="65"/>
+      <c r="N311" s="65"/>
+      <c r="O311" s="65"/>
+      <c r="P311" s="65"/>
+      <c r="Q311" s="65"/>
+      <c r="R311" s="65"/>
     </row>
     <row r="312" spans="1:18" ht="45">
-      <c r="A312" s="151" t="str" cm="1">
+      <c r="A312" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A312" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E312),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E312)&gt;0)*ROW($E$11:E312),0)),
@@ -31844,28 +31843,28 @@
 )</f>
         <v>108-6-1</v>
       </c>
-      <c r="B312" s="147"/>
-      <c r="C312" s="147"/>
-      <c r="D312" s="148"/>
-      <c r="E312" s="148"/>
+      <c r="B312" s="146"/>
+      <c r="C312" s="146"/>
+      <c r="D312" s="147"/>
+      <c r="E312" s="147"/>
       <c r="F312" s="64" t="s">
         <v>487</v>
       </c>
       <c r="G312" s="64"/>
-      <c r="H312" s="146"/>
-      <c r="I312" s="146"/>
-      <c r="J312" s="146"/>
-      <c r="K312" s="146"/>
-      <c r="L312" s="146"/>
-      <c r="M312" s="146"/>
-      <c r="N312" s="146"/>
-      <c r="O312" s="146"/>
-      <c r="P312" s="146"/>
-      <c r="Q312" s="146"/>
-      <c r="R312" s="146"/>
+      <c r="H312" s="65"/>
+      <c r="I312" s="65"/>
+      <c r="J312" s="65"/>
+      <c r="K312" s="65"/>
+      <c r="L312" s="65"/>
+      <c r="M312" s="65"/>
+      <c r="N312" s="65"/>
+      <c r="O312" s="65"/>
+      <c r="P312" s="65"/>
+      <c r="Q312" s="65"/>
+      <c r="R312" s="65"/>
     </row>
     <row r="313" spans="1:18" ht="45">
-      <c r="A313" s="151" t="str" cm="1">
+      <c r="A313" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A313" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E313),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E313)&gt;0)*ROW($E$11:E313),0)),
@@ -31877,25 +31876,25 @@
 )</f>
         <v>108-7-1</v>
       </c>
-      <c r="B313" s="147"/>
-      <c r="C313" s="147"/>
-      <c r="D313" s="148"/>
-      <c r="E313" s="148"/>
+      <c r="B313" s="146"/>
+      <c r="C313" s="146"/>
+      <c r="D313" s="147"/>
+      <c r="E313" s="147"/>
       <c r="F313" s="64" t="s">
         <v>488</v>
       </c>
       <c r="G313" s="64"/>
-      <c r="H313" s="146"/>
-      <c r="I313" s="146"/>
-      <c r="J313" s="146"/>
-      <c r="K313" s="146"/>
-      <c r="L313" s="146"/>
-      <c r="M313" s="146"/>
-      <c r="N313" s="146"/>
-      <c r="O313" s="146"/>
-      <c r="P313" s="146"/>
-      <c r="Q313" s="146"/>
-      <c r="R313" s="146"/>
+      <c r="H313" s="65"/>
+      <c r="I313" s="65"/>
+      <c r="J313" s="65"/>
+      <c r="K313" s="65"/>
+      <c r="L313" s="65"/>
+      <c r="M313" s="65"/>
+      <c r="N313" s="65"/>
+      <c r="O313" s="65"/>
+      <c r="P313" s="65"/>
+      <c r="Q313" s="65"/>
+      <c r="R313" s="65"/>
     </row>
     <row r="314" spans="1:18" ht="22.5">
       <c r="A314" s="40" t="str" cm="1">
@@ -31910,25 +31909,25 @@
 )</f>
         <v>108-8-1</v>
       </c>
-      <c r="B314" s="150"/>
-      <c r="C314" s="150"/>
-      <c r="D314" s="149"/>
-      <c r="E314" s="149"/>
+      <c r="B314" s="149"/>
+      <c r="C314" s="149"/>
+      <c r="D314" s="148"/>
+      <c r="E314" s="148"/>
       <c r="F314" s="64" t="s">
         <v>466</v>
       </c>
       <c r="G314" s="64"/>
-      <c r="H314" s="146"/>
-      <c r="I314" s="146"/>
-      <c r="J314" s="146"/>
-      <c r="K314" s="146"/>
-      <c r="L314" s="146"/>
-      <c r="M314" s="146"/>
-      <c r="N314" s="146"/>
-      <c r="O314" s="146"/>
-      <c r="P314" s="146"/>
-      <c r="Q314" s="146"/>
-      <c r="R314" s="146"/>
+      <c r="H314" s="65"/>
+      <c r="I314" s="65"/>
+      <c r="J314" s="65"/>
+      <c r="K314" s="65"/>
+      <c r="L314" s="65"/>
+      <c r="M314" s="65"/>
+      <c r="N314" s="65"/>
+      <c r="O314" s="65"/>
+      <c r="P314" s="65"/>
+      <c r="Q314" s="65"/>
+      <c r="R314" s="65"/>
     </row>
   </sheetData>
   <autoFilter ref="A10:R10" xr:uid="{00000000-0001-0000-0300-000000000000}"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト(Webサービス)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト(Webサービス)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80BFCC0-4318-4DDE-AE2B-01648E3FAC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DAEAC3-4C23-4489-BF74-B039D6361053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="502">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -5956,13 +5956,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バッチ処理ID：</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -7243,7 +7236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -7652,7 +7645,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8854,12 +8846,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="174" t="str">
+      <c r="I25" s="173" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="174"/>
-      <c r="K25" s="174"/>
+      <c r="J25" s="173"/>
+      <c r="K25" s="173"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -9419,57 +9411,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="206" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="212" t="s">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="205" t="s">
+        <v>467</v>
+      </c>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="211" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="214"/>
-      <c r="S1" s="221" t="s">
-        <v>502</v>
-      </c>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="223"/>
-      <c r="AA1" s="203" t="s">
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="220" t="s">
+        <v>501</v>
+      </c>
+      <c r="T1" s="221"/>
+      <c r="U1" s="221"/>
+      <c r="V1" s="221"/>
+      <c r="W1" s="221"/>
+      <c r="X1" s="221"/>
+      <c r="Y1" s="221"/>
+      <c r="Z1" s="222"/>
+      <c r="AA1" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="205"/>
-      <c r="AC1" s="230" t="str">
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="229" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="231"/>
-      <c r="AE1" s="231"/>
-      <c r="AF1" s="232"/>
-      <c r="AG1" s="197" t="str">
+      <c r="AD1" s="230"/>
+      <c r="AE1" s="230"/>
+      <c r="AF1" s="231"/>
+      <c r="AG1" s="196" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="198"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -9477,53 +9469,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="206" t="s">
-        <v>469</v>
-      </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="225"/>
-      <c r="U2" s="225"/>
-      <c r="V2" s="225"/>
-      <c r="W2" s="225"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="226"/>
-      <c r="AA2" s="203" t="s">
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="205" t="s">
+        <v>468</v>
+      </c>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="223"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="224"/>
+      <c r="V2" s="224"/>
+      <c r="W2" s="224"/>
+      <c r="X2" s="224"/>
+      <c r="Y2" s="224"/>
+      <c r="Z2" s="225"/>
+      <c r="AA2" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="209" t="str">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="208" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="210"/>
-      <c r="AE2" s="210"/>
-      <c r="AF2" s="211"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="210"/>
+      <c r="AG2" s="196" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="198"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -9531,45 +9523,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="206" t="s">
-        <v>470</v>
-      </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="228"/>
-      <c r="U3" s="228"/>
-      <c r="V3" s="228"/>
-      <c r="W3" s="228"/>
-      <c r="X3" s="228"/>
-      <c r="Y3" s="228"/>
-      <c r="Z3" s="229"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="205"/>
-      <c r="AC3" s="230"/>
-      <c r="AD3" s="231"/>
-      <c r="AE3" s="231"/>
-      <c r="AF3" s="232"/>
-      <c r="AG3" s="197"/>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="205" t="s">
+        <v>469</v>
+      </c>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="217"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="219"/>
+      <c r="S3" s="226"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="227"/>
+      <c r="V3" s="227"/>
+      <c r="W3" s="227"/>
+      <c r="X3" s="227"/>
+      <c r="Y3" s="227"/>
+      <c r="Z3" s="228"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="229"/>
+      <c r="AD3" s="230"/>
+      <c r="AE3" s="230"/>
+      <c r="AF3" s="231"/>
+      <c r="AG3" s="196"/>
+      <c r="AH3" s="197"/>
+      <c r="AI3" s="198"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -9606,85 +9598,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="200" t="s">
+      <c r="C7" s="200"/>
+      <c r="D7" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="202"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="200" t="s">
+      <c r="E7" s="201"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="202"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="200" t="s">
+      <c r="H7" s="201"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="201"/>
-      <c r="Q7" s="200" t="s">
+      <c r="K7" s="201"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="202"/>
-      <c r="S7" s="202"/>
-      <c r="T7" s="202"/>
-      <c r="U7" s="202"/>
-      <c r="V7" s="202"/>
-      <c r="W7" s="202"/>
-      <c r="X7" s="202"/>
-      <c r="Y7" s="202"/>
-      <c r="Z7" s="202"/>
-      <c r="AA7" s="202"/>
-      <c r="AB7" s="202"/>
-      <c r="AC7" s="202"/>
-      <c r="AD7" s="202"/>
-      <c r="AE7" s="201"/>
-      <c r="AF7" s="200" t="s">
+      <c r="R7" s="201"/>
+      <c r="S7" s="201"/>
+      <c r="T7" s="201"/>
+      <c r="U7" s="201"/>
+      <c r="V7" s="201"/>
+      <c r="W7" s="201"/>
+      <c r="X7" s="201"/>
+      <c r="Y7" s="201"/>
+      <c r="Z7" s="201"/>
+      <c r="AA7" s="201"/>
+      <c r="AB7" s="201"/>
+      <c r="AC7" s="201"/>
+      <c r="AD7" s="201"/>
+      <c r="AE7" s="200"/>
+      <c r="AF7" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="202"/>
-      <c r="AH7" s="202"/>
-      <c r="AI7" s="201"/>
+      <c r="AG7" s="201"/>
+      <c r="AH7" s="201"/>
+      <c r="AI7" s="200"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="195"/>
-      <c r="O8" s="195"/>
-      <c r="P8" s="196"/>
-      <c r="Q8" s="194"/>
-      <c r="R8" s="195"/>
-      <c r="S8" s="195"/>
-      <c r="T8" s="195"/>
-      <c r="U8" s="195"/>
-      <c r="V8" s="195"/>
-      <c r="W8" s="195"/>
-      <c r="X8" s="195"/>
-      <c r="Y8" s="195"/>
-      <c r="Z8" s="195"/>
-      <c r="AA8" s="195"/>
-      <c r="AB8" s="195"/>
-      <c r="AC8" s="195"/>
-      <c r="AD8" s="195"/>
-      <c r="AE8" s="196"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="193"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+      <c r="O8" s="194"/>
+      <c r="P8" s="195"/>
+      <c r="Q8" s="193"/>
+      <c r="R8" s="194"/>
+      <c r="S8" s="194"/>
+      <c r="T8" s="194"/>
+      <c r="U8" s="194"/>
+      <c r="V8" s="194"/>
+      <c r="W8" s="194"/>
+      <c r="X8" s="194"/>
+      <c r="Y8" s="194"/>
+      <c r="Z8" s="194"/>
+      <c r="AA8" s="194"/>
+      <c r="AB8" s="194"/>
+      <c r="AC8" s="194"/>
+      <c r="AD8" s="194"/>
+      <c r="AE8" s="195"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -9692,928 +9684,928 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="182"/>
-      <c r="L9" s="182"/>
-      <c r="M9" s="182"/>
-      <c r="N9" s="182"/>
-      <c r="O9" s="182"/>
-      <c r="P9" s="183"/>
-      <c r="Q9" s="184"/>
-      <c r="R9" s="185"/>
-      <c r="S9" s="185"/>
-      <c r="T9" s="185"/>
-      <c r="U9" s="185"/>
-      <c r="V9" s="185"/>
-      <c r="W9" s="185"/>
-      <c r="X9" s="185"/>
-      <c r="Y9" s="185"/>
-      <c r="Z9" s="185"/>
-      <c r="AA9" s="185"/>
-      <c r="AB9" s="185"/>
-      <c r="AC9" s="185"/>
-      <c r="AD9" s="185"/>
-      <c r="AE9" s="186"/>
-      <c r="AF9" s="181"/>
-      <c r="AG9" s="182"/>
-      <c r="AH9" s="182"/>
-      <c r="AI9" s="183"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="182"/>
+      <c r="Q9" s="183"/>
+      <c r="R9" s="184"/>
+      <c r="S9" s="184"/>
+      <c r="T9" s="184"/>
+      <c r="U9" s="184"/>
+      <c r="V9" s="184"/>
+      <c r="W9" s="184"/>
+      <c r="X9" s="184"/>
+      <c r="Y9" s="184"/>
+      <c r="Z9" s="184"/>
+      <c r="AA9" s="184"/>
+      <c r="AB9" s="184"/>
+      <c r="AC9" s="184"/>
+      <c r="AD9" s="184"/>
+      <c r="AE9" s="185"/>
+      <c r="AF9" s="180"/>
+      <c r="AG9" s="181"/>
+      <c r="AH9" s="181"/>
+      <c r="AI9" s="182"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="175"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="182"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="183"/>
-      <c r="Q10" s="184"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="185"/>
-      <c r="T10" s="185"/>
-      <c r="U10" s="185"/>
-      <c r="V10" s="185"/>
-      <c r="W10" s="185"/>
-      <c r="X10" s="185"/>
-      <c r="Y10" s="185"/>
-      <c r="Z10" s="185"/>
-      <c r="AA10" s="185"/>
-      <c r="AB10" s="185"/>
-      <c r="AC10" s="185"/>
-      <c r="AD10" s="185"/>
-      <c r="AE10" s="186"/>
-      <c r="AF10" s="181"/>
-      <c r="AG10" s="182"/>
-      <c r="AH10" s="182"/>
-      <c r="AI10" s="183"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="182"/>
+      <c r="Q10" s="183"/>
+      <c r="R10" s="184"/>
+      <c r="S10" s="184"/>
+      <c r="T10" s="184"/>
+      <c r="U10" s="184"/>
+      <c r="V10" s="184"/>
+      <c r="W10" s="184"/>
+      <c r="X10" s="184"/>
+      <c r="Y10" s="184"/>
+      <c r="Z10" s="184"/>
+      <c r="AA10" s="184"/>
+      <c r="AB10" s="184"/>
+      <c r="AC10" s="184"/>
+      <c r="AD10" s="184"/>
+      <c r="AE10" s="185"/>
+      <c r="AF10" s="180"/>
+      <c r="AG10" s="181"/>
+      <c r="AH10" s="181"/>
+      <c r="AI10" s="182"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="175"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="182"/>
-      <c r="M11" s="182"/>
-      <c r="N11" s="182"/>
-      <c r="O11" s="182"/>
-      <c r="P11" s="183"/>
-      <c r="Q11" s="184"/>
-      <c r="R11" s="185"/>
-      <c r="S11" s="185"/>
-      <c r="T11" s="185"/>
-      <c r="U11" s="185"/>
-      <c r="V11" s="185"/>
-      <c r="W11" s="185"/>
-      <c r="X11" s="185"/>
-      <c r="Y11" s="185"/>
-      <c r="Z11" s="185"/>
-      <c r="AA11" s="185"/>
-      <c r="AB11" s="185"/>
-      <c r="AC11" s="185"/>
-      <c r="AD11" s="185"/>
-      <c r="AE11" s="186"/>
-      <c r="AF11" s="181"/>
-      <c r="AG11" s="182"/>
-      <c r="AH11" s="182"/>
-      <c r="AI11" s="183"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="181"/>
+      <c r="M11" s="181"/>
+      <c r="N11" s="181"/>
+      <c r="O11" s="181"/>
+      <c r="P11" s="182"/>
+      <c r="Q11" s="183"/>
+      <c r="R11" s="184"/>
+      <c r="S11" s="184"/>
+      <c r="T11" s="184"/>
+      <c r="U11" s="184"/>
+      <c r="V11" s="184"/>
+      <c r="W11" s="184"/>
+      <c r="X11" s="184"/>
+      <c r="Y11" s="184"/>
+      <c r="Z11" s="184"/>
+      <c r="AA11" s="184"/>
+      <c r="AB11" s="184"/>
+      <c r="AC11" s="184"/>
+      <c r="AD11" s="184"/>
+      <c r="AE11" s="185"/>
+      <c r="AF11" s="180"/>
+      <c r="AG11" s="181"/>
+      <c r="AH11" s="181"/>
+      <c r="AI11" s="182"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="175"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="181"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="182"/>
-      <c r="M12" s="182"/>
-      <c r="N12" s="182"/>
-      <c r="O12" s="182"/>
-      <c r="P12" s="183"/>
-      <c r="Q12" s="184"/>
-      <c r="R12" s="185"/>
-      <c r="S12" s="185"/>
-      <c r="T12" s="185"/>
-      <c r="U12" s="185"/>
-      <c r="V12" s="185"/>
-      <c r="W12" s="185"/>
-      <c r="X12" s="185"/>
-      <c r="Y12" s="185"/>
-      <c r="Z12" s="185"/>
-      <c r="AA12" s="185"/>
-      <c r="AB12" s="185"/>
-      <c r="AC12" s="185"/>
-      <c r="AD12" s="185"/>
-      <c r="AE12" s="186"/>
-      <c r="AF12" s="181"/>
-      <c r="AG12" s="182"/>
-      <c r="AH12" s="182"/>
-      <c r="AI12" s="183"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="181"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="181"/>
+      <c r="P12" s="182"/>
+      <c r="Q12" s="183"/>
+      <c r="R12" s="184"/>
+      <c r="S12" s="184"/>
+      <c r="T12" s="184"/>
+      <c r="U12" s="184"/>
+      <c r="V12" s="184"/>
+      <c r="W12" s="184"/>
+      <c r="X12" s="184"/>
+      <c r="Y12" s="184"/>
+      <c r="Z12" s="184"/>
+      <c r="AA12" s="184"/>
+      <c r="AB12" s="184"/>
+      <c r="AC12" s="184"/>
+      <c r="AD12" s="184"/>
+      <c r="AE12" s="185"/>
+      <c r="AF12" s="180"/>
+      <c r="AG12" s="181"/>
+      <c r="AH12" s="181"/>
+      <c r="AI12" s="182"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="182"/>
-      <c r="L13" s="182"/>
-      <c r="M13" s="182"/>
-      <c r="N13" s="182"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="183"/>
-      <c r="Q13" s="184"/>
-      <c r="R13" s="185"/>
-      <c r="S13" s="185"/>
-      <c r="T13" s="185"/>
-      <c r="U13" s="185"/>
-      <c r="V13" s="185"/>
-      <c r="W13" s="185"/>
-      <c r="X13" s="185"/>
-      <c r="Y13" s="185"/>
-      <c r="Z13" s="185"/>
-      <c r="AA13" s="185"/>
-      <c r="AB13" s="185"/>
-      <c r="AC13" s="185"/>
-      <c r="AD13" s="185"/>
-      <c r="AE13" s="186"/>
-      <c r="AF13" s="181"/>
-      <c r="AG13" s="182"/>
-      <c r="AH13" s="182"/>
-      <c r="AI13" s="183"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="181"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="181"/>
+      <c r="O13" s="181"/>
+      <c r="P13" s="182"/>
+      <c r="Q13" s="183"/>
+      <c r="R13" s="184"/>
+      <c r="S13" s="184"/>
+      <c r="T13" s="184"/>
+      <c r="U13" s="184"/>
+      <c r="V13" s="184"/>
+      <c r="W13" s="184"/>
+      <c r="X13" s="184"/>
+      <c r="Y13" s="184"/>
+      <c r="Z13" s="184"/>
+      <c r="AA13" s="184"/>
+      <c r="AB13" s="184"/>
+      <c r="AC13" s="184"/>
+      <c r="AD13" s="184"/>
+      <c r="AE13" s="185"/>
+      <c r="AF13" s="180"/>
+      <c r="AG13" s="181"/>
+      <c r="AH13" s="181"/>
+      <c r="AI13" s="182"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="175"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="182"/>
-      <c r="L14" s="182"/>
-      <c r="M14" s="182"/>
-      <c r="N14" s="182"/>
-      <c r="O14" s="182"/>
-      <c r="P14" s="183"/>
-      <c r="Q14" s="184"/>
-      <c r="R14" s="185"/>
-      <c r="S14" s="185"/>
-      <c r="T14" s="185"/>
-      <c r="U14" s="185"/>
-      <c r="V14" s="185"/>
-      <c r="W14" s="185"/>
-      <c r="X14" s="185"/>
-      <c r="Y14" s="185"/>
-      <c r="Z14" s="185"/>
-      <c r="AA14" s="185"/>
-      <c r="AB14" s="185"/>
-      <c r="AC14" s="185"/>
-      <c r="AD14" s="185"/>
-      <c r="AE14" s="186"/>
-      <c r="AF14" s="181"/>
-      <c r="AG14" s="182"/>
-      <c r="AH14" s="182"/>
-      <c r="AI14" s="183"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="181"/>
+      <c r="L14" s="181"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="181"/>
+      <c r="O14" s="181"/>
+      <c r="P14" s="182"/>
+      <c r="Q14" s="183"/>
+      <c r="R14" s="184"/>
+      <c r="S14" s="184"/>
+      <c r="T14" s="184"/>
+      <c r="U14" s="184"/>
+      <c r="V14" s="184"/>
+      <c r="W14" s="184"/>
+      <c r="X14" s="184"/>
+      <c r="Y14" s="184"/>
+      <c r="Z14" s="184"/>
+      <c r="AA14" s="184"/>
+      <c r="AB14" s="184"/>
+      <c r="AC14" s="184"/>
+      <c r="AD14" s="184"/>
+      <c r="AE14" s="185"/>
+      <c r="AF14" s="180"/>
+      <c r="AG14" s="181"/>
+      <c r="AH14" s="181"/>
+      <c r="AI14" s="182"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="175"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="181"/>
-      <c r="K15" s="182"/>
-      <c r="L15" s="182"/>
-      <c r="M15" s="182"/>
-      <c r="N15" s="182"/>
-      <c r="O15" s="182"/>
-      <c r="P15" s="183"/>
-      <c r="Q15" s="184"/>
-      <c r="R15" s="185"/>
-      <c r="S15" s="185"/>
-      <c r="T15" s="185"/>
-      <c r="U15" s="185"/>
-      <c r="V15" s="185"/>
-      <c r="W15" s="185"/>
-      <c r="X15" s="185"/>
-      <c r="Y15" s="185"/>
-      <c r="Z15" s="185"/>
-      <c r="AA15" s="185"/>
-      <c r="AB15" s="185"/>
-      <c r="AC15" s="185"/>
-      <c r="AD15" s="185"/>
-      <c r="AE15" s="186"/>
-      <c r="AF15" s="181"/>
-      <c r="AG15" s="182"/>
-      <c r="AH15" s="182"/>
-      <c r="AI15" s="183"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="181"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="181"/>
+      <c r="P15" s="182"/>
+      <c r="Q15" s="183"/>
+      <c r="R15" s="184"/>
+      <c r="S15" s="184"/>
+      <c r="T15" s="184"/>
+      <c r="U15" s="184"/>
+      <c r="V15" s="184"/>
+      <c r="W15" s="184"/>
+      <c r="X15" s="184"/>
+      <c r="Y15" s="184"/>
+      <c r="Z15" s="184"/>
+      <c r="AA15" s="184"/>
+      <c r="AB15" s="184"/>
+      <c r="AC15" s="184"/>
+      <c r="AD15" s="184"/>
+      <c r="AE15" s="185"/>
+      <c r="AF15" s="180"/>
+      <c r="AG15" s="181"/>
+      <c r="AH15" s="181"/>
+      <c r="AI15" s="182"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="175"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="181"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="182"/>
-      <c r="M16" s="182"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="182"/>
-      <c r="P16" s="183"/>
-      <c r="Q16" s="184"/>
-      <c r="R16" s="185"/>
-      <c r="S16" s="185"/>
-      <c r="T16" s="185"/>
-      <c r="U16" s="185"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="185"/>
-      <c r="X16" s="185"/>
-      <c r="Y16" s="185"/>
-      <c r="Z16" s="185"/>
-      <c r="AA16" s="185"/>
-      <c r="AB16" s="185"/>
-      <c r="AC16" s="185"/>
-      <c r="AD16" s="185"/>
-      <c r="AE16" s="186"/>
-      <c r="AF16" s="181"/>
-      <c r="AG16" s="182"/>
-      <c r="AH16" s="182"/>
-      <c r="AI16" s="183"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="181"/>
+      <c r="M16" s="181"/>
+      <c r="N16" s="181"/>
+      <c r="O16" s="181"/>
+      <c r="P16" s="182"/>
+      <c r="Q16" s="183"/>
+      <c r="R16" s="184"/>
+      <c r="S16" s="184"/>
+      <c r="T16" s="184"/>
+      <c r="U16" s="184"/>
+      <c r="V16" s="184"/>
+      <c r="W16" s="184"/>
+      <c r="X16" s="184"/>
+      <c r="Y16" s="184"/>
+      <c r="Z16" s="184"/>
+      <c r="AA16" s="184"/>
+      <c r="AB16" s="184"/>
+      <c r="AC16" s="184"/>
+      <c r="AD16" s="184"/>
+      <c r="AE16" s="185"/>
+      <c r="AF16" s="180"/>
+      <c r="AG16" s="181"/>
+      <c r="AH16" s="181"/>
+      <c r="AI16" s="182"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="181"/>
-      <c r="K17" s="182"/>
-      <c r="L17" s="182"/>
-      <c r="M17" s="182"/>
-      <c r="N17" s="182"/>
-      <c r="O17" s="182"/>
-      <c r="P17" s="183"/>
-      <c r="Q17" s="184"/>
-      <c r="R17" s="185"/>
-      <c r="S17" s="185"/>
-      <c r="T17" s="185"/>
-      <c r="U17" s="185"/>
-      <c r="V17" s="185"/>
-      <c r="W17" s="185"/>
-      <c r="X17" s="185"/>
-      <c r="Y17" s="185"/>
-      <c r="Z17" s="185"/>
-      <c r="AA17" s="185"/>
-      <c r="AB17" s="185"/>
-      <c r="AC17" s="185"/>
-      <c r="AD17" s="185"/>
-      <c r="AE17" s="186"/>
-      <c r="AF17" s="181"/>
-      <c r="AG17" s="182"/>
-      <c r="AH17" s="182"/>
-      <c r="AI17" s="183"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="181"/>
+      <c r="L17" s="181"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="181"/>
+      <c r="P17" s="182"/>
+      <c r="Q17" s="183"/>
+      <c r="R17" s="184"/>
+      <c r="S17" s="184"/>
+      <c r="T17" s="184"/>
+      <c r="U17" s="184"/>
+      <c r="V17" s="184"/>
+      <c r="W17" s="184"/>
+      <c r="X17" s="184"/>
+      <c r="Y17" s="184"/>
+      <c r="Z17" s="184"/>
+      <c r="AA17" s="184"/>
+      <c r="AB17" s="184"/>
+      <c r="AC17" s="184"/>
+      <c r="AD17" s="184"/>
+      <c r="AE17" s="185"/>
+      <c r="AF17" s="180"/>
+      <c r="AG17" s="181"/>
+      <c r="AH17" s="181"/>
+      <c r="AI17" s="182"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="182"/>
-      <c r="L18" s="182"/>
-      <c r="M18" s="182"/>
-      <c r="N18" s="182"/>
-      <c r="O18" s="182"/>
-      <c r="P18" s="183"/>
-      <c r="Q18" s="184"/>
-      <c r="R18" s="185"/>
-      <c r="S18" s="185"/>
-      <c r="T18" s="185"/>
-      <c r="U18" s="185"/>
-      <c r="V18" s="185"/>
-      <c r="W18" s="185"/>
-      <c r="X18" s="185"/>
-      <c r="Y18" s="185"/>
-      <c r="Z18" s="185"/>
-      <c r="AA18" s="185"/>
-      <c r="AB18" s="185"/>
-      <c r="AC18" s="185"/>
-      <c r="AD18" s="185"/>
-      <c r="AE18" s="186"/>
-      <c r="AF18" s="181"/>
-      <c r="AG18" s="182"/>
-      <c r="AH18" s="182"/>
-      <c r="AI18" s="183"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="182"/>
+      <c r="Q18" s="183"/>
+      <c r="R18" s="184"/>
+      <c r="S18" s="184"/>
+      <c r="T18" s="184"/>
+      <c r="U18" s="184"/>
+      <c r="V18" s="184"/>
+      <c r="W18" s="184"/>
+      <c r="X18" s="184"/>
+      <c r="Y18" s="184"/>
+      <c r="Z18" s="184"/>
+      <c r="AA18" s="184"/>
+      <c r="AB18" s="184"/>
+      <c r="AC18" s="184"/>
+      <c r="AD18" s="184"/>
+      <c r="AE18" s="185"/>
+      <c r="AF18" s="180"/>
+      <c r="AG18" s="181"/>
+      <c r="AH18" s="181"/>
+      <c r="AI18" s="182"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="181"/>
-      <c r="K19" s="182"/>
-      <c r="L19" s="182"/>
-      <c r="M19" s="182"/>
-      <c r="N19" s="182"/>
-      <c r="O19" s="182"/>
-      <c r="P19" s="183"/>
-      <c r="Q19" s="184"/>
-      <c r="R19" s="185"/>
-      <c r="S19" s="185"/>
-      <c r="T19" s="185"/>
-      <c r="U19" s="185"/>
-      <c r="V19" s="185"/>
-      <c r="W19" s="185"/>
-      <c r="X19" s="185"/>
-      <c r="Y19" s="185"/>
-      <c r="Z19" s="185"/>
-      <c r="AA19" s="185"/>
-      <c r="AB19" s="185"/>
-      <c r="AC19" s="185"/>
-      <c r="AD19" s="185"/>
-      <c r="AE19" s="186"/>
-      <c r="AF19" s="181"/>
-      <c r="AG19" s="182"/>
-      <c r="AH19" s="182"/>
-      <c r="AI19" s="183"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="180"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="181"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="181"/>
+      <c r="P19" s="182"/>
+      <c r="Q19" s="183"/>
+      <c r="R19" s="184"/>
+      <c r="S19" s="184"/>
+      <c r="T19" s="184"/>
+      <c r="U19" s="184"/>
+      <c r="V19" s="184"/>
+      <c r="W19" s="184"/>
+      <c r="X19" s="184"/>
+      <c r="Y19" s="184"/>
+      <c r="Z19" s="184"/>
+      <c r="AA19" s="184"/>
+      <c r="AB19" s="184"/>
+      <c r="AC19" s="184"/>
+      <c r="AD19" s="184"/>
+      <c r="AE19" s="185"/>
+      <c r="AF19" s="180"/>
+      <c r="AG19" s="181"/>
+      <c r="AH19" s="181"/>
+      <c r="AI19" s="182"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="181"/>
-      <c r="K20" s="182"/>
-      <c r="L20" s="182"/>
-      <c r="M20" s="182"/>
-      <c r="N20" s="182"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="183"/>
-      <c r="Q20" s="184"/>
-      <c r="R20" s="185"/>
-      <c r="S20" s="185"/>
-      <c r="T20" s="185"/>
-      <c r="U20" s="185"/>
-      <c r="V20" s="185"/>
-      <c r="W20" s="185"/>
-      <c r="X20" s="185"/>
-      <c r="Y20" s="185"/>
-      <c r="Z20" s="185"/>
-      <c r="AA20" s="185"/>
-      <c r="AB20" s="185"/>
-      <c r="AC20" s="185"/>
-      <c r="AD20" s="185"/>
-      <c r="AE20" s="186"/>
-      <c r="AF20" s="181"/>
-      <c r="AG20" s="182"/>
-      <c r="AH20" s="182"/>
-      <c r="AI20" s="183"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="181"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="182"/>
+      <c r="Q20" s="183"/>
+      <c r="R20" s="184"/>
+      <c r="S20" s="184"/>
+      <c r="T20" s="184"/>
+      <c r="U20" s="184"/>
+      <c r="V20" s="184"/>
+      <c r="W20" s="184"/>
+      <c r="X20" s="184"/>
+      <c r="Y20" s="184"/>
+      <c r="Z20" s="184"/>
+      <c r="AA20" s="184"/>
+      <c r="AB20" s="184"/>
+      <c r="AC20" s="184"/>
+      <c r="AD20" s="184"/>
+      <c r="AE20" s="185"/>
+      <c r="AF20" s="180"/>
+      <c r="AG20" s="181"/>
+      <c r="AH20" s="181"/>
+      <c r="AI20" s="182"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="175"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="181"/>
-      <c r="K21" s="182"/>
-      <c r="L21" s="182"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="182"/>
-      <c r="P21" s="183"/>
-      <c r="Q21" s="184"/>
-      <c r="R21" s="185"/>
-      <c r="S21" s="185"/>
-      <c r="T21" s="185"/>
-      <c r="U21" s="185"/>
-      <c r="V21" s="185"/>
-      <c r="W21" s="185"/>
-      <c r="X21" s="185"/>
-      <c r="Y21" s="185"/>
-      <c r="Z21" s="185"/>
-      <c r="AA21" s="185"/>
-      <c r="AB21" s="185"/>
-      <c r="AC21" s="185"/>
-      <c r="AD21" s="185"/>
-      <c r="AE21" s="186"/>
-      <c r="AF21" s="181"/>
-      <c r="AG21" s="182"/>
-      <c r="AH21" s="182"/>
-      <c r="AI21" s="183"/>
+      <c r="B21" s="174"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="181"/>
+      <c r="P21" s="182"/>
+      <c r="Q21" s="183"/>
+      <c r="R21" s="184"/>
+      <c r="S21" s="184"/>
+      <c r="T21" s="184"/>
+      <c r="U21" s="184"/>
+      <c r="V21" s="184"/>
+      <c r="W21" s="184"/>
+      <c r="X21" s="184"/>
+      <c r="Y21" s="184"/>
+      <c r="Z21" s="184"/>
+      <c r="AA21" s="184"/>
+      <c r="AB21" s="184"/>
+      <c r="AC21" s="184"/>
+      <c r="AD21" s="184"/>
+      <c r="AE21" s="185"/>
+      <c r="AF21" s="180"/>
+      <c r="AG21" s="181"/>
+      <c r="AH21" s="181"/>
+      <c r="AI21" s="182"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="181"/>
-      <c r="K22" s="182"/>
-      <c r="L22" s="182"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="182"/>
-      <c r="O22" s="182"/>
-      <c r="P22" s="183"/>
-      <c r="Q22" s="184"/>
-      <c r="R22" s="185"/>
-      <c r="S22" s="185"/>
-      <c r="T22" s="185"/>
-      <c r="U22" s="185"/>
-      <c r="V22" s="185"/>
-      <c r="W22" s="185"/>
-      <c r="X22" s="185"/>
-      <c r="Y22" s="185"/>
-      <c r="Z22" s="185"/>
-      <c r="AA22" s="185"/>
-      <c r="AB22" s="185"/>
-      <c r="AC22" s="185"/>
-      <c r="AD22" s="185"/>
-      <c r="AE22" s="186"/>
-      <c r="AF22" s="181"/>
-      <c r="AG22" s="182"/>
-      <c r="AH22" s="182"/>
-      <c r="AI22" s="183"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="182"/>
+      <c r="Q22" s="183"/>
+      <c r="R22" s="184"/>
+      <c r="S22" s="184"/>
+      <c r="T22" s="184"/>
+      <c r="U22" s="184"/>
+      <c r="V22" s="184"/>
+      <c r="W22" s="184"/>
+      <c r="X22" s="184"/>
+      <c r="Y22" s="184"/>
+      <c r="Z22" s="184"/>
+      <c r="AA22" s="184"/>
+      <c r="AB22" s="184"/>
+      <c r="AC22" s="184"/>
+      <c r="AD22" s="184"/>
+      <c r="AE22" s="185"/>
+      <c r="AF22" s="180"/>
+      <c r="AG22" s="181"/>
+      <c r="AH22" s="181"/>
+      <c r="AI22" s="182"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="175"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="182"/>
-      <c r="L23" s="182"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="182"/>
-      <c r="O23" s="182"/>
-      <c r="P23" s="183"/>
-      <c r="Q23" s="184"/>
-      <c r="R23" s="185"/>
-      <c r="S23" s="185"/>
-      <c r="T23" s="185"/>
-      <c r="U23" s="185"/>
-      <c r="V23" s="185"/>
-      <c r="W23" s="185"/>
-      <c r="X23" s="185"/>
-      <c r="Y23" s="185"/>
-      <c r="Z23" s="185"/>
-      <c r="AA23" s="185"/>
-      <c r="AB23" s="185"/>
-      <c r="AC23" s="185"/>
-      <c r="AD23" s="185"/>
-      <c r="AE23" s="186"/>
-      <c r="AF23" s="181"/>
-      <c r="AG23" s="182"/>
-      <c r="AH23" s="182"/>
-      <c r="AI23" s="183"/>
+      <c r="B23" s="174"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="180"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="182"/>
+      <c r="Q23" s="183"/>
+      <c r="R23" s="184"/>
+      <c r="S23" s="184"/>
+      <c r="T23" s="184"/>
+      <c r="U23" s="184"/>
+      <c r="V23" s="184"/>
+      <c r="W23" s="184"/>
+      <c r="X23" s="184"/>
+      <c r="Y23" s="184"/>
+      <c r="Z23" s="184"/>
+      <c r="AA23" s="184"/>
+      <c r="AB23" s="184"/>
+      <c r="AC23" s="184"/>
+      <c r="AD23" s="184"/>
+      <c r="AE23" s="185"/>
+      <c r="AF23" s="180"/>
+      <c r="AG23" s="181"/>
+      <c r="AH23" s="181"/>
+      <c r="AI23" s="182"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="175"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="182"/>
-      <c r="L24" s="182"/>
-      <c r="M24" s="182"/>
-      <c r="N24" s="182"/>
-      <c r="O24" s="182"/>
-      <c r="P24" s="183"/>
-      <c r="Q24" s="184"/>
-      <c r="R24" s="185"/>
-      <c r="S24" s="185"/>
-      <c r="T24" s="185"/>
-      <c r="U24" s="185"/>
-      <c r="V24" s="185"/>
-      <c r="W24" s="185"/>
-      <c r="X24" s="185"/>
-      <c r="Y24" s="185"/>
-      <c r="Z24" s="185"/>
-      <c r="AA24" s="185"/>
-      <c r="AB24" s="185"/>
-      <c r="AC24" s="185"/>
-      <c r="AD24" s="185"/>
-      <c r="AE24" s="186"/>
-      <c r="AF24" s="181"/>
-      <c r="AG24" s="182"/>
-      <c r="AH24" s="182"/>
-      <c r="AI24" s="183"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="180"/>
+      <c r="K24" s="181"/>
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="181"/>
+      <c r="P24" s="182"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="184"/>
+      <c r="S24" s="184"/>
+      <c r="T24" s="184"/>
+      <c r="U24" s="184"/>
+      <c r="V24" s="184"/>
+      <c r="W24" s="184"/>
+      <c r="X24" s="184"/>
+      <c r="Y24" s="184"/>
+      <c r="Z24" s="184"/>
+      <c r="AA24" s="184"/>
+      <c r="AB24" s="184"/>
+      <c r="AC24" s="184"/>
+      <c r="AD24" s="184"/>
+      <c r="AE24" s="185"/>
+      <c r="AF24" s="180"/>
+      <c r="AG24" s="181"/>
+      <c r="AH24" s="181"/>
+      <c r="AI24" s="182"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="175"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="181"/>
-      <c r="K25" s="182"/>
-      <c r="L25" s="182"/>
-      <c r="M25" s="182"/>
-      <c r="N25" s="182"/>
-      <c r="O25" s="182"/>
-      <c r="P25" s="183"/>
-      <c r="Q25" s="184"/>
-      <c r="R25" s="185"/>
-      <c r="S25" s="185"/>
-      <c r="T25" s="185"/>
-      <c r="U25" s="185"/>
-      <c r="V25" s="185"/>
-      <c r="W25" s="185"/>
-      <c r="X25" s="185"/>
-      <c r="Y25" s="185"/>
-      <c r="Z25" s="185"/>
-      <c r="AA25" s="185"/>
-      <c r="AB25" s="185"/>
-      <c r="AC25" s="185"/>
-      <c r="AD25" s="185"/>
-      <c r="AE25" s="186"/>
-      <c r="AF25" s="181"/>
-      <c r="AG25" s="182"/>
-      <c r="AH25" s="182"/>
-      <c r="AI25" s="183"/>
+      <c r="B25" s="174"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="176"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="180"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="181"/>
+      <c r="O25" s="181"/>
+      <c r="P25" s="182"/>
+      <c r="Q25" s="183"/>
+      <c r="R25" s="184"/>
+      <c r="S25" s="184"/>
+      <c r="T25" s="184"/>
+      <c r="U25" s="184"/>
+      <c r="V25" s="184"/>
+      <c r="W25" s="184"/>
+      <c r="X25" s="184"/>
+      <c r="Y25" s="184"/>
+      <c r="Z25" s="184"/>
+      <c r="AA25" s="184"/>
+      <c r="AB25" s="184"/>
+      <c r="AC25" s="184"/>
+      <c r="AD25" s="184"/>
+      <c r="AE25" s="185"/>
+      <c r="AF25" s="180"/>
+      <c r="AG25" s="181"/>
+      <c r="AH25" s="181"/>
+      <c r="AI25" s="182"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="175"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="182"/>
-      <c r="L26" s="182"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="182"/>
-      <c r="O26" s="182"/>
-      <c r="P26" s="183"/>
-      <c r="Q26" s="184"/>
-      <c r="R26" s="185"/>
-      <c r="S26" s="185"/>
-      <c r="T26" s="185"/>
-      <c r="U26" s="185"/>
-      <c r="V26" s="185"/>
-      <c r="W26" s="185"/>
-      <c r="X26" s="185"/>
-      <c r="Y26" s="185"/>
-      <c r="Z26" s="185"/>
-      <c r="AA26" s="185"/>
-      <c r="AB26" s="185"/>
-      <c r="AC26" s="185"/>
-      <c r="AD26" s="185"/>
-      <c r="AE26" s="186"/>
-      <c r="AF26" s="181"/>
-      <c r="AG26" s="182"/>
-      <c r="AH26" s="182"/>
-      <c r="AI26" s="183"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="180"/>
+      <c r="K26" s="181"/>
+      <c r="L26" s="181"/>
+      <c r="M26" s="181"/>
+      <c r="N26" s="181"/>
+      <c r="O26" s="181"/>
+      <c r="P26" s="182"/>
+      <c r="Q26" s="183"/>
+      <c r="R26" s="184"/>
+      <c r="S26" s="184"/>
+      <c r="T26" s="184"/>
+      <c r="U26" s="184"/>
+      <c r="V26" s="184"/>
+      <c r="W26" s="184"/>
+      <c r="X26" s="184"/>
+      <c r="Y26" s="184"/>
+      <c r="Z26" s="184"/>
+      <c r="AA26" s="184"/>
+      <c r="AB26" s="184"/>
+      <c r="AC26" s="184"/>
+      <c r="AD26" s="184"/>
+      <c r="AE26" s="185"/>
+      <c r="AF26" s="180"/>
+      <c r="AG26" s="181"/>
+      <c r="AH26" s="181"/>
+      <c r="AI26" s="182"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="175"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="182"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="182"/>
-      <c r="O27" s="182"/>
-      <c r="P27" s="183"/>
-      <c r="Q27" s="184"/>
-      <c r="R27" s="185"/>
-      <c r="S27" s="185"/>
-      <c r="T27" s="185"/>
-      <c r="U27" s="185"/>
-      <c r="V27" s="185"/>
-      <c r="W27" s="185"/>
-      <c r="X27" s="185"/>
-      <c r="Y27" s="185"/>
-      <c r="Z27" s="185"/>
-      <c r="AA27" s="185"/>
-      <c r="AB27" s="185"/>
-      <c r="AC27" s="185"/>
-      <c r="AD27" s="185"/>
-      <c r="AE27" s="186"/>
-      <c r="AF27" s="181"/>
-      <c r="AG27" s="182"/>
-      <c r="AH27" s="182"/>
-      <c r="AI27" s="183"/>
+      <c r="B27" s="174"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="180"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="181"/>
+      <c r="M27" s="181"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="182"/>
+      <c r="Q27" s="183"/>
+      <c r="R27" s="184"/>
+      <c r="S27" s="184"/>
+      <c r="T27" s="184"/>
+      <c r="U27" s="184"/>
+      <c r="V27" s="184"/>
+      <c r="W27" s="184"/>
+      <c r="X27" s="184"/>
+      <c r="Y27" s="184"/>
+      <c r="Z27" s="184"/>
+      <c r="AA27" s="184"/>
+      <c r="AB27" s="184"/>
+      <c r="AC27" s="184"/>
+      <c r="AD27" s="184"/>
+      <c r="AE27" s="185"/>
+      <c r="AF27" s="180"/>
+      <c r="AG27" s="181"/>
+      <c r="AH27" s="181"/>
+      <c r="AI27" s="182"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="177"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="181"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="182"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="182"/>
-      <c r="O28" s="182"/>
-      <c r="P28" s="183"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="185"/>
-      <c r="S28" s="185"/>
-      <c r="T28" s="185"/>
-      <c r="U28" s="185"/>
-      <c r="V28" s="185"/>
-      <c r="W28" s="185"/>
-      <c r="X28" s="185"/>
-      <c r="Y28" s="185"/>
-      <c r="Z28" s="185"/>
-      <c r="AA28" s="185"/>
-      <c r="AB28" s="185"/>
-      <c r="AC28" s="185"/>
-      <c r="AD28" s="185"/>
-      <c r="AE28" s="186"/>
-      <c r="AF28" s="181"/>
-      <c r="AG28" s="182"/>
-      <c r="AH28" s="182"/>
-      <c r="AI28" s="183"/>
+      <c r="B28" s="174"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="180"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="182"/>
+      <c r="Q28" s="183"/>
+      <c r="R28" s="184"/>
+      <c r="S28" s="184"/>
+      <c r="T28" s="184"/>
+      <c r="U28" s="184"/>
+      <c r="V28" s="184"/>
+      <c r="W28" s="184"/>
+      <c r="X28" s="184"/>
+      <c r="Y28" s="184"/>
+      <c r="Z28" s="184"/>
+      <c r="AA28" s="184"/>
+      <c r="AB28" s="184"/>
+      <c r="AC28" s="184"/>
+      <c r="AD28" s="184"/>
+      <c r="AE28" s="185"/>
+      <c r="AF28" s="180"/>
+      <c r="AG28" s="181"/>
+      <c r="AH28" s="181"/>
+      <c r="AI28" s="182"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="175"/>
-      <c r="C29" s="176"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="182"/>
-      <c r="P29" s="183"/>
-      <c r="Q29" s="184"/>
-      <c r="R29" s="185"/>
-      <c r="S29" s="185"/>
-      <c r="T29" s="185"/>
-      <c r="U29" s="185"/>
-      <c r="V29" s="185"/>
-      <c r="W29" s="185"/>
-      <c r="X29" s="185"/>
-      <c r="Y29" s="185"/>
-      <c r="Z29" s="185"/>
-      <c r="AA29" s="185"/>
-      <c r="AB29" s="185"/>
-      <c r="AC29" s="185"/>
-      <c r="AD29" s="185"/>
-      <c r="AE29" s="186"/>
-      <c r="AF29" s="181"/>
-      <c r="AG29" s="182"/>
-      <c r="AH29" s="182"/>
-      <c r="AI29" s="183"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="182"/>
+      <c r="Q29" s="183"/>
+      <c r="R29" s="184"/>
+      <c r="S29" s="184"/>
+      <c r="T29" s="184"/>
+      <c r="U29" s="184"/>
+      <c r="V29" s="184"/>
+      <c r="W29" s="184"/>
+      <c r="X29" s="184"/>
+      <c r="Y29" s="184"/>
+      <c r="Z29" s="184"/>
+      <c r="AA29" s="184"/>
+      <c r="AB29" s="184"/>
+      <c r="AC29" s="184"/>
+      <c r="AD29" s="184"/>
+      <c r="AE29" s="185"/>
+      <c r="AF29" s="180"/>
+      <c r="AG29" s="181"/>
+      <c r="AH29" s="181"/>
+      <c r="AI29" s="182"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="175"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182"/>
-      <c r="O30" s="182"/>
-      <c r="P30" s="183"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="185"/>
-      <c r="S30" s="185"/>
-      <c r="T30" s="185"/>
-      <c r="U30" s="185"/>
-      <c r="V30" s="185"/>
-      <c r="W30" s="185"/>
-      <c r="X30" s="185"/>
-      <c r="Y30" s="185"/>
-      <c r="Z30" s="185"/>
-      <c r="AA30" s="185"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="185"/>
-      <c r="AD30" s="185"/>
-      <c r="AE30" s="186"/>
-      <c r="AF30" s="181"/>
-      <c r="AG30" s="182"/>
-      <c r="AH30" s="182"/>
-      <c r="AI30" s="183"/>
+      <c r="B30" s="174"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="180"/>
+      <c r="K30" s="181"/>
+      <c r="L30" s="181"/>
+      <c r="M30" s="181"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="182"/>
+      <c r="Q30" s="183"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="184"/>
+      <c r="AC30" s="184"/>
+      <c r="AD30" s="184"/>
+      <c r="AE30" s="185"/>
+      <c r="AF30" s="180"/>
+      <c r="AG30" s="181"/>
+      <c r="AH30" s="181"/>
+      <c r="AI30" s="182"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="175"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="183"/>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="185"/>
-      <c r="S31" s="185"/>
-      <c r="T31" s="185"/>
-      <c r="U31" s="185"/>
-      <c r="V31" s="185"/>
-      <c r="W31" s="185"/>
-      <c r="X31" s="185"/>
-      <c r="Y31" s="185"/>
-      <c r="Z31" s="185"/>
-      <c r="AA31" s="185"/>
-      <c r="AB31" s="185"/>
-      <c r="AC31" s="185"/>
-      <c r="AD31" s="185"/>
-      <c r="AE31" s="186"/>
-      <c r="AF31" s="181"/>
-      <c r="AG31" s="182"/>
-      <c r="AH31" s="182"/>
-      <c r="AI31" s="183"/>
+      <c r="B31" s="174"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="180"/>
+      <c r="K31" s="181"/>
+      <c r="L31" s="181"/>
+      <c r="M31" s="181"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="182"/>
+      <c r="Q31" s="183"/>
+      <c r="R31" s="184"/>
+      <c r="S31" s="184"/>
+      <c r="T31" s="184"/>
+      <c r="U31" s="184"/>
+      <c r="V31" s="184"/>
+      <c r="W31" s="184"/>
+      <c r="X31" s="184"/>
+      <c r="Y31" s="184"/>
+      <c r="Z31" s="184"/>
+      <c r="AA31" s="184"/>
+      <c r="AB31" s="184"/>
+      <c r="AC31" s="184"/>
+      <c r="AD31" s="184"/>
+      <c r="AE31" s="185"/>
+      <c r="AF31" s="180"/>
+      <c r="AG31" s="181"/>
+      <c r="AH31" s="181"/>
+      <c r="AI31" s="182"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="175"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="187"/>
-      <c r="L32" s="182"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="182"/>
-      <c r="O32" s="182"/>
-      <c r="P32" s="183"/>
-      <c r="Q32" s="184"/>
-      <c r="R32" s="185"/>
-      <c r="S32" s="185"/>
-      <c r="T32" s="185"/>
-      <c r="U32" s="185"/>
-      <c r="V32" s="185"/>
-      <c r="W32" s="185"/>
-      <c r="X32" s="185"/>
-      <c r="Y32" s="185"/>
-      <c r="Z32" s="185"/>
-      <c r="AA32" s="185"/>
-      <c r="AB32" s="185"/>
-      <c r="AC32" s="185"/>
-      <c r="AD32" s="185"/>
-      <c r="AE32" s="186"/>
-      <c r="AF32" s="181"/>
-      <c r="AG32" s="182"/>
-      <c r="AH32" s="182"/>
-      <c r="AI32" s="183"/>
+      <c r="B32" s="174"/>
+      <c r="C32" s="175"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="180"/>
+      <c r="K32" s="186"/>
+      <c r="L32" s="181"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="181"/>
+      <c r="O32" s="181"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="183"/>
+      <c r="R32" s="184"/>
+      <c r="S32" s="184"/>
+      <c r="T32" s="184"/>
+      <c r="U32" s="184"/>
+      <c r="V32" s="184"/>
+      <c r="W32" s="184"/>
+      <c r="X32" s="184"/>
+      <c r="Y32" s="184"/>
+      <c r="Z32" s="184"/>
+      <c r="AA32" s="184"/>
+      <c r="AB32" s="184"/>
+      <c r="AC32" s="184"/>
+      <c r="AD32" s="184"/>
+      <c r="AE32" s="185"/>
+      <c r="AF32" s="180"/>
+      <c r="AG32" s="181"/>
+      <c r="AH32" s="181"/>
+      <c r="AI32" s="182"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="182"/>
-      <c r="M33" s="182"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="182"/>
-      <c r="P33" s="183"/>
-      <c r="Q33" s="184"/>
-      <c r="R33" s="185"/>
-      <c r="S33" s="185"/>
-      <c r="T33" s="185"/>
-      <c r="U33" s="185"/>
-      <c r="V33" s="185"/>
-      <c r="W33" s="185"/>
-      <c r="X33" s="185"/>
-      <c r="Y33" s="185"/>
-      <c r="Z33" s="185"/>
-      <c r="AA33" s="185"/>
-      <c r="AB33" s="185"/>
-      <c r="AC33" s="185"/>
-      <c r="AD33" s="185"/>
-      <c r="AE33" s="186"/>
-      <c r="AF33" s="181"/>
-      <c r="AG33" s="182"/>
-      <c r="AH33" s="182"/>
-      <c r="AI33" s="183"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="180"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="182"/>
+      <c r="Q33" s="183"/>
+      <c r="R33" s="184"/>
+      <c r="S33" s="184"/>
+      <c r="T33" s="184"/>
+      <c r="U33" s="184"/>
+      <c r="V33" s="184"/>
+      <c r="W33" s="184"/>
+      <c r="X33" s="184"/>
+      <c r="Y33" s="184"/>
+      <c r="Z33" s="184"/>
+      <c r="AA33" s="184"/>
+      <c r="AB33" s="184"/>
+      <c r="AC33" s="184"/>
+      <c r="AD33" s="184"/>
+      <c r="AE33" s="185"/>
+      <c r="AF33" s="180"/>
+      <c r="AG33" s="181"/>
+      <c r="AH33" s="181"/>
+      <c r="AI33" s="182"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
@@ -10837,7 +10829,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -10847,7 +10839,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -11983,26 +11975,26 @@
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="49"/>
-      <c r="D40" s="154" t="s">
+      <c r="D40" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="155" t="s">
+      <c r="E40" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="156" t="s">
+      <c r="F40" s="155" t="s">
         <v>93</v>
       </c>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="157"/>
-      <c r="K40" s="158"/>
-      <c r="L40" s="159"/>
-      <c r="M40" s="160"/>
-      <c r="N40" s="161"/>
-      <c r="O40" s="162"/>
-      <c r="P40" s="160"/>
-      <c r="Q40" s="161"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="157"/>
+      <c r="L40" s="158"/>
+      <c r="M40" s="159"/>
+      <c r="N40" s="160"/>
+      <c r="O40" s="161"/>
+      <c r="P40" s="159"/>
+      <c r="Q40" s="160"/>
     </row>
     <row r="41" spans="1:17" s="32" customFormat="1">
       <c r="A41" s="40" t="str" cm="1">
@@ -12019,22 +12011,22 @@
       </c>
       <c r="B41" s="77"/>
       <c r="C41" s="77"/>
-      <c r="D41" s="163"/>
-      <c r="E41" s="164"/>
-      <c r="F41" s="156" t="s">
+      <c r="D41" s="162"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="157"/>
-      <c r="K41" s="158"/>
-      <c r="L41" s="159"/>
-      <c r="M41" s="160"/>
-      <c r="N41" s="161"/>
-      <c r="O41" s="162"/>
-      <c r="P41" s="160"/>
-      <c r="Q41" s="161"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="156"/>
+      <c r="K41" s="157"/>
+      <c r="L41" s="158"/>
+      <c r="M41" s="159"/>
+      <c r="N41" s="160"/>
+      <c r="O41" s="161"/>
+      <c r="P41" s="159"/>
+      <c r="Q41" s="160"/>
     </row>
     <row r="42" spans="1:17" s="32" customFormat="1" ht="22.5">
       <c r="A42" s="40" t="str" cm="1">
@@ -12064,8 +12056,8 @@
       <c r="F42" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="G42" s="165" t="s">
-        <v>490</v>
+      <c r="G42" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H42" s="52"/>
       <c r="I42" s="52"/>
@@ -12098,8 +12090,8 @@
       <c r="F43" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="G43" s="165" t="s">
-        <v>490</v>
+      <c r="G43" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
@@ -12132,8 +12124,8 @@
       <c r="F44" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="165" t="s">
-        <v>490</v>
+      <c r="G44" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
@@ -12168,8 +12160,8 @@
       <c r="F45" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="G45" s="165" t="s">
-        <v>490</v>
+      <c r="G45" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H45" s="52"/>
       <c r="I45" s="52"/>
@@ -12202,8 +12194,8 @@
       <c r="F46" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="G46" s="165" t="s">
-        <v>490</v>
+      <c r="G46" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H46" s="52"/>
       <c r="I46" s="52"/>
@@ -12236,8 +12228,8 @@
       <c r="F47" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="165" t="s">
-        <v>490</v>
+      <c r="G47" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
@@ -12272,8 +12264,8 @@
       <c r="F48" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="165" t="s">
-        <v>490</v>
+      <c r="G48" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H48" s="52"/>
       <c r="I48" s="52"/>
@@ -12306,8 +12298,8 @@
       <c r="F49" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="165" t="s">
-        <v>490</v>
+      <c r="G49" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H49" s="52"/>
       <c r="I49" s="52"/>
@@ -12342,8 +12334,8 @@
       <c r="F50" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="G50" s="165" t="s">
-        <v>490</v>
+      <c r="G50" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H50" s="52"/>
       <c r="I50" s="52"/>
@@ -12376,8 +12368,8 @@
       <c r="F51" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="G51" s="165" t="s">
-        <v>490</v>
+      <c r="G51" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H51" s="52"/>
       <c r="I51" s="52"/>
@@ -12410,8 +12402,8 @@
       <c r="F52" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="G52" s="165" t="s">
-        <v>490</v>
+      <c r="G52" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
@@ -12444,8 +12436,8 @@
       <c r="F53" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="G53" s="165" t="s">
-        <v>490</v>
+      <c r="G53" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H53" s="52"/>
       <c r="I53" s="52"/>
@@ -12478,8 +12470,8 @@
       <c r="F54" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="G54" s="165" t="s">
-        <v>490</v>
+      <c r="G54" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H54" s="52"/>
       <c r="I54" s="52"/>
@@ -12512,8 +12504,8 @@
       <c r="F55" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="G55" s="165" t="s">
-        <v>490</v>
+      <c r="G55" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
@@ -12548,8 +12540,8 @@
       <c r="F56" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="G56" s="165" t="s">
-        <v>490</v>
+      <c r="G56" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
@@ -12584,8 +12576,8 @@
       <c r="F57" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="G57" s="165" t="s">
-        <v>490</v>
+      <c r="G57" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H57" s="52"/>
       <c r="I57" s="52"/>
@@ -12620,8 +12612,8 @@
       <c r="F58" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="G58" s="165" t="s">
-        <v>490</v>
+      <c r="G58" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H58" s="52"/>
       <c r="I58" s="52"/>
@@ -12658,8 +12650,8 @@
       <c r="F59" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="G59" s="165" t="s">
-        <v>490</v>
+      <c r="G59" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H59" s="52"/>
       <c r="I59" s="52"/>
@@ -12692,8 +12684,8 @@
       <c r="F60" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="G60" s="165" t="s">
-        <v>490</v>
+      <c r="G60" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H60" s="52"/>
       <c r="I60" s="52"/>
@@ -12726,8 +12718,8 @@
       <c r="F61" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="G61" s="165" t="s">
-        <v>490</v>
+      <c r="G61" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
@@ -12760,8 +12752,8 @@
       <c r="F62" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="G62" s="165" t="s">
-        <v>490</v>
+      <c r="G62" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
@@ -12794,8 +12786,8 @@
       <c r="F63" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="G63" s="165" t="s">
-        <v>490</v>
+      <c r="G63" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H63" s="52"/>
       <c r="I63" s="52"/>
@@ -12830,8 +12822,8 @@
       <c r="F64" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="G64" s="165" t="s">
-        <v>490</v>
+      <c r="G64" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H64" s="52"/>
       <c r="I64" s="52"/>
@@ -12864,8 +12856,8 @@
       <c r="F65" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="G65" s="165" t="s">
-        <v>490</v>
+      <c r="G65" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
@@ -12898,8 +12890,8 @@
       <c r="F66" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="G66" s="165" t="s">
-        <v>490</v>
+      <c r="G66" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H66" s="52"/>
       <c r="I66" s="52"/>
@@ -12932,8 +12924,8 @@
       <c r="F67" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="G67" s="165" t="s">
-        <v>490</v>
+      <c r="G67" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H67" s="52"/>
       <c r="I67" s="52"/>
@@ -12966,8 +12958,8 @@
       <c r="F68" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="G68" s="165" t="s">
-        <v>490</v>
+      <c r="G68" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H68" s="52"/>
       <c r="I68" s="52"/>
@@ -13000,8 +12992,8 @@
       <c r="F69" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="G69" s="165" t="s">
-        <v>490</v>
+      <c r="G69" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H69" s="52"/>
       <c r="I69" s="52"/>
@@ -13034,8 +13026,8 @@
       <c r="F70" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="G70" s="165" t="s">
-        <v>490</v>
+      <c r="G70" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H70" s="52"/>
       <c r="I70" s="52"/>
@@ -13068,8 +13060,8 @@
       <c r="F71" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="G71" s="165" t="s">
-        <v>490</v>
+      <c r="G71" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H71" s="52"/>
       <c r="I71" s="52"/>
@@ -13104,8 +13096,8 @@
       <c r="F72" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="G72" s="165" t="s">
-        <v>490</v>
+      <c r="G72" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H72" s="52"/>
       <c r="I72" s="52"/>
@@ -13140,8 +13132,8 @@
       <c r="F73" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="G73" s="165" t="s">
-        <v>490</v>
+      <c r="G73" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H73" s="52"/>
       <c r="I73" s="52"/>
@@ -13174,8 +13166,8 @@
       <c r="F74" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="G74" s="165" t="s">
-        <v>490</v>
+      <c r="G74" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H74" s="52"/>
       <c r="I74" s="52"/>
@@ -13208,8 +13200,8 @@
       <c r="F75" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="G75" s="165" t="s">
-        <v>490</v>
+      <c r="G75" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H75" s="52"/>
       <c r="I75" s="52"/>
@@ -13242,8 +13234,8 @@
       <c r="F76" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="G76" s="165" t="s">
-        <v>490</v>
+      <c r="G76" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H76" s="52"/>
       <c r="I76" s="52"/>
@@ -13276,8 +13268,8 @@
       <c r="F77" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="G77" s="165" t="s">
-        <v>490</v>
+      <c r="G77" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
@@ -13316,8 +13308,8 @@
       <c r="F78" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="G78" s="165" t="s">
-        <v>490</v>
+      <c r="G78" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
@@ -13350,8 +13342,8 @@
       <c r="F79" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="G79" s="165" t="s">
-        <v>490</v>
+      <c r="G79" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H79" s="52"/>
       <c r="I79" s="52"/>
@@ -13386,8 +13378,8 @@
       <c r="F80" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="G80" s="165" t="s">
-        <v>490</v>
+      <c r="G80" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H80" s="52"/>
       <c r="I80" s="52"/>
@@ -13422,8 +13414,8 @@
       <c r="F81" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="G81" s="165" t="s">
-        <v>490</v>
+      <c r="G81" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H81" s="52"/>
       <c r="I81" s="52"/>
@@ -13456,8 +13448,8 @@
       <c r="F82" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="G82" s="165" t="s">
-        <v>490</v>
+      <c r="G82" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H82" s="52"/>
       <c r="I82" s="52"/>
@@ -13492,8 +13484,8 @@
       <c r="F83" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="G83" s="165" t="s">
-        <v>490</v>
+      <c r="G83" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H83" s="52"/>
       <c r="I83" s="52"/>
@@ -13528,8 +13520,8 @@
       <c r="F84" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="G84" s="165" t="s">
-        <v>490</v>
+      <c r="G84" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H84" s="52"/>
       <c r="I84" s="52"/>
@@ -13568,8 +13560,8 @@
       <c r="F85" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="G85" s="165" t="s">
-        <v>490</v>
+      <c r="G85" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H85" s="52"/>
       <c r="I85" s="52"/>
@@ -13604,8 +13596,8 @@
       <c r="F86" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="G86" s="165" t="s">
-        <v>490</v>
+      <c r="G86" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H86" s="52"/>
       <c r="I86" s="52"/>
@@ -13640,8 +13632,8 @@
       <c r="F87" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="G87" s="165" t="s">
-        <v>490</v>
+      <c r="G87" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H87" s="52"/>
       <c r="I87" s="52"/>
@@ -13680,8 +13672,8 @@
       <c r="F88" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="G88" s="165" t="s">
-        <v>490</v>
+      <c r="G88" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H88" s="52"/>
       <c r="I88" s="52"/>
@@ -13714,8 +13706,8 @@
       <c r="F89" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="G89" s="165" t="s">
-        <v>490</v>
+      <c r="G89" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H89" s="52"/>
       <c r="I89" s="52"/>
@@ -13750,8 +13742,8 @@
       <c r="F90" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="G90" s="165" t="s">
-        <v>490</v>
+      <c r="G90" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H90" s="52"/>
       <c r="I90" s="52"/>
@@ -13786,8 +13778,8 @@
       <c r="F91" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="G91" s="165" t="s">
-        <v>490</v>
+      <c r="G91" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H91" s="52"/>
       <c r="I91" s="52"/>
@@ -13820,8 +13812,8 @@
       <c r="F92" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="G92" s="165" t="s">
-        <v>490</v>
+      <c r="G92" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H92" s="52"/>
       <c r="I92" s="52"/>
@@ -13856,8 +13848,8 @@
       <c r="F93" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="G93" s="165" t="s">
-        <v>490</v>
+      <c r="G93" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H93" s="52"/>
       <c r="I93" s="52"/>
@@ -13896,8 +13888,8 @@
       <c r="F94" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="G94" s="165" t="s">
-        <v>490</v>
+      <c r="G94" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H94" s="52"/>
       <c r="I94" s="52"/>
@@ -13930,8 +13922,8 @@
       <c r="F95" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="G95" s="165" t="s">
-        <v>490</v>
+      <c r="G95" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H95" s="52"/>
       <c r="I95" s="52"/>
@@ -13964,8 +13956,8 @@
       <c r="F96" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="G96" s="165" t="s">
-        <v>490</v>
+      <c r="G96" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H96" s="52"/>
       <c r="I96" s="52"/>
@@ -13998,8 +13990,8 @@
       <c r="F97" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="G97" s="165" t="s">
-        <v>490</v>
+      <c r="G97" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H97" s="52"/>
       <c r="I97" s="52"/>
@@ -14032,8 +14024,8 @@
       <c r="F98" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="G98" s="165" t="s">
-        <v>490</v>
+      <c r="G98" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H98" s="52"/>
       <c r="I98" s="52"/>
@@ -14068,8 +14060,8 @@
       <c r="F99" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="G99" s="165" t="s">
-        <v>490</v>
+      <c r="G99" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H99" s="52"/>
       <c r="I99" s="52"/>
@@ -14102,8 +14094,8 @@
       <c r="F100" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="G100" s="165" t="s">
-        <v>490</v>
+      <c r="G100" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H100" s="52"/>
       <c r="I100" s="52"/>
@@ -14136,8 +14128,8 @@
       <c r="F101" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="G101" s="165" t="s">
-        <v>490</v>
+      <c r="G101" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H101" s="52"/>
       <c r="I101" s="52"/>
@@ -14170,8 +14162,8 @@
       <c r="F102" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="G102" s="165" t="s">
-        <v>490</v>
+      <c r="G102" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H102" s="52"/>
       <c r="I102" s="52"/>
@@ -14204,8 +14196,8 @@
       <c r="F103" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="G103" s="165" t="s">
-        <v>490</v>
+      <c r="G103" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H103" s="52"/>
       <c r="I103" s="52"/>
@@ -14240,8 +14232,8 @@
       <c r="F104" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="G104" s="165" t="s">
-        <v>490</v>
+      <c r="G104" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H104" s="52"/>
       <c r="I104" s="52"/>
@@ -14282,8 +14274,8 @@
       <c r="F105" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="G105" s="165" t="s">
-        <v>490</v>
+      <c r="G105" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H105" s="52"/>
       <c r="I105" s="52"/>
@@ -14322,8 +14314,8 @@
       <c r="F106" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="G106" s="165" t="s">
-        <v>490</v>
+      <c r="G106" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H106" s="52"/>
       <c r="I106" s="52"/>
@@ -14356,8 +14348,8 @@
       <c r="F107" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="G107" s="165" t="s">
-        <v>490</v>
+      <c r="G107" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H107" s="52"/>
       <c r="I107" s="52"/>
@@ -14396,8 +14388,8 @@
       <c r="F108" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="G108" s="165" t="s">
-        <v>490</v>
+      <c r="G108" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H108" s="52"/>
       <c r="I108" s="52"/>
@@ -14436,8 +14428,8 @@
       <c r="F109" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="G109" s="165" t="s">
-        <v>490</v>
+      <c r="G109" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H109" s="52"/>
       <c r="I109" s="52"/>
@@ -14470,8 +14462,8 @@
       <c r="F110" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="G110" s="165" t="s">
-        <v>490</v>
+      <c r="G110" s="164" t="s">
+        <v>489</v>
       </c>
       <c r="H110" s="52"/>
       <c r="I110" s="52"/>
@@ -14513,7 +14505,7 @@
         <v>197</v>
       </c>
       <c r="G111" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H111" s="51"/>
       <c r="I111" s="51"/>
@@ -14539,7 +14531,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="233" t="s">
+      <c r="B112" s="232" t="s">
         <v>198</v>
       </c>
       <c r="C112" s="56"/>
@@ -14549,7 +14541,7 @@
         <v>199</v>
       </c>
       <c r="G112" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H112" s="51"/>
       <c r="I112" s="51"/>
@@ -14575,7 +14567,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="233"/>
+      <c r="B113" s="232"/>
       <c r="C113" s="56"/>
       <c r="D113" s="43"/>
       <c r="E113" s="95"/>
@@ -14583,7 +14575,7 @@
         <v>200</v>
       </c>
       <c r="G113" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H113" s="51"/>
       <c r="I113" s="51"/>
@@ -14617,7 +14609,7 @@
         <v>201</v>
       </c>
       <c r="G114" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H114" s="51"/>
       <c r="I114" s="51"/>
@@ -14653,7 +14645,7 @@
         <v>202</v>
       </c>
       <c r="G115" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H115" s="51"/>
       <c r="I115" s="51"/>
@@ -14687,7 +14679,7 @@
         <v>203</v>
       </c>
       <c r="G116" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H116" s="51"/>
       <c r="I116" s="51"/>
@@ -14721,7 +14713,7 @@
         <v>204</v>
       </c>
       <c r="G117" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H117" s="51"/>
       <c r="I117" s="51"/>
@@ -14755,7 +14747,7 @@
         <v>205</v>
       </c>
       <c r="G118" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H118" s="51"/>
       <c r="I118" s="51"/>
@@ -14789,7 +14781,7 @@
         <v>206</v>
       </c>
       <c r="G119" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H119" s="51"/>
       <c r="I119" s="51"/>
@@ -14825,7 +14817,7 @@
         <v>209</v>
       </c>
       <c r="G120" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H120" s="51"/>
       <c r="I120" s="51"/>
@@ -14859,7 +14851,7 @@
         <v>210</v>
       </c>
       <c r="G121" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H121" s="51"/>
       <c r="I121" s="51"/>
@@ -14893,7 +14885,7 @@
         <v>211</v>
       </c>
       <c r="G122" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H122" s="51"/>
       <c r="I122" s="51"/>
@@ -14927,7 +14919,7 @@
         <v>212</v>
       </c>
       <c r="G123" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H123" s="51"/>
       <c r="I123" s="51"/>
@@ -14961,7 +14953,7 @@
         <v>213</v>
       </c>
       <c r="G124" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H124" s="51"/>
       <c r="I124" s="51"/>
@@ -14997,7 +14989,7 @@
         <v>215</v>
       </c>
       <c r="G125" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H125" s="51"/>
       <c r="I125" s="51"/>
@@ -15035,7 +15027,7 @@
         <v>216</v>
       </c>
       <c r="G126" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H126" s="51"/>
       <c r="I126" s="51"/>
@@ -15075,7 +15067,7 @@
         <v>219</v>
       </c>
       <c r="G127" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H127" s="51"/>
       <c r="I127" s="51"/>
@@ -15111,7 +15103,7 @@
         <v>221</v>
       </c>
       <c r="G128" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H128" s="51"/>
       <c r="I128" s="51"/>
@@ -15145,7 +15137,7 @@
         <v>222</v>
       </c>
       <c r="G129" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H129" s="51"/>
       <c r="I129" s="51"/>
@@ -15179,7 +15171,7 @@
         <v>223</v>
       </c>
       <c r="G130" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H130" s="51"/>
       <c r="I130" s="51"/>
@@ -15221,7 +15213,7 @@
         <v>225</v>
       </c>
       <c r="G131" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H131" s="51"/>
       <c r="I131" s="51"/>
@@ -15247,7 +15239,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="233" t="s">
+      <c r="B132" s="232" t="s">
         <v>226</v>
       </c>
       <c r="C132" s="56"/>
@@ -15257,7 +15249,7 @@
         <v>227</v>
       </c>
       <c r="G132" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H132" s="51"/>
       <c r="I132" s="51"/>
@@ -15283,7 +15275,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="233"/>
+      <c r="B133" s="232"/>
       <c r="C133" s="56"/>
       <c r="D133" s="43"/>
       <c r="E133" s="43"/>
@@ -15291,7 +15283,7 @@
         <v>228</v>
       </c>
       <c r="G133" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H133" s="51"/>
       <c r="I133" s="51"/>
@@ -15325,7 +15317,7 @@
         <v>229</v>
       </c>
       <c r="G134" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H134" s="51"/>
       <c r="I134" s="51"/>
@@ -15361,7 +15353,7 @@
         <v>231</v>
       </c>
       <c r="G135" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H135" s="51"/>
       <c r="I135" s="51"/>
@@ -15395,7 +15387,7 @@
         <v>232</v>
       </c>
       <c r="G136" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H136" s="51"/>
       <c r="I136" s="51"/>
@@ -15433,7 +15425,7 @@
         <v>233</v>
       </c>
       <c r="G137" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H137" s="51"/>
       <c r="I137" s="51"/>
@@ -15473,7 +15465,7 @@
         <v>236</v>
       </c>
       <c r="G138" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H138" s="51"/>
       <c r="I138" s="51"/>
@@ -15509,7 +15501,7 @@
         <v>238</v>
       </c>
       <c r="G139" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H139" s="51"/>
       <c r="I139" s="51"/>
@@ -15545,7 +15537,7 @@
         <v>240</v>
       </c>
       <c r="G140" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H140" s="51"/>
       <c r="I140" s="51"/>
@@ -15581,7 +15573,7 @@
         <v>241</v>
       </c>
       <c r="G141" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H141" s="51"/>
       <c r="I141" s="51"/>
@@ -15617,7 +15609,7 @@
         <v>244</v>
       </c>
       <c r="G142" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H142" s="51"/>
       <c r="I142" s="51"/>
@@ -15653,7 +15645,7 @@
         <v>246</v>
       </c>
       <c r="G143" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H143" s="51"/>
       <c r="I143" s="51"/>
@@ -15687,7 +15679,7 @@
         <v>248</v>
       </c>
       <c r="G144" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H144" s="51"/>
       <c r="I144" s="51"/>
@@ -15721,7 +15713,7 @@
         <v>249</v>
       </c>
       <c r="G145" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H145" s="51"/>
       <c r="I145" s="51"/>
@@ -15755,7 +15747,7 @@
         <v>250</v>
       </c>
       <c r="G146" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H146" s="51"/>
       <c r="I146" s="51"/>
@@ -15789,7 +15781,7 @@
         <v>251</v>
       </c>
       <c r="G147" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H147" s="51"/>
       <c r="I147" s="51"/>
@@ -15823,7 +15815,7 @@
         <v>252</v>
       </c>
       <c r="G148" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H148" s="51"/>
       <c r="I148" s="51"/>
@@ -15861,7 +15853,7 @@
         <v>254</v>
       </c>
       <c r="G149" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H149" s="51"/>
       <c r="I149" s="51"/>
@@ -15895,7 +15887,7 @@
         <v>255</v>
       </c>
       <c r="G150" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H150" s="51"/>
       <c r="I150" s="51"/>
@@ -15931,7 +15923,7 @@
         <v>256</v>
       </c>
       <c r="G151" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H151" s="51"/>
       <c r="I151" s="51"/>
@@ -15965,7 +15957,7 @@
         <v>257</v>
       </c>
       <c r="G152" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H152" s="51"/>
       <c r="I152" s="51"/>
@@ -15999,7 +15991,7 @@
         <v>258</v>
       </c>
       <c r="G153" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H153" s="51"/>
       <c r="I153" s="51"/>
@@ -16033,7 +16025,7 @@
         <v>259</v>
       </c>
       <c r="G154" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H154" s="51"/>
       <c r="I154" s="51"/>
@@ -16067,7 +16059,7 @@
         <v>260</v>
       </c>
       <c r="G155" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H155" s="51"/>
       <c r="I155" s="51"/>
@@ -16101,7 +16093,7 @@
         <v>261</v>
       </c>
       <c r="G156" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H156" s="51"/>
       <c r="I156" s="51"/>
@@ -16135,7 +16127,7 @@
         <v>262</v>
       </c>
       <c r="G157" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H157" s="51"/>
       <c r="I157" s="51"/>
@@ -16169,7 +16161,7 @@
         <v>263</v>
       </c>
       <c r="G158" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H158" s="51"/>
       <c r="I158" s="51"/>
@@ -16203,7 +16195,7 @@
         <v>264</v>
       </c>
       <c r="G159" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H159" s="51"/>
       <c r="I159" s="51"/>
@@ -16237,7 +16229,7 @@
         <v>265</v>
       </c>
       <c r="G160" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H160" s="51"/>
       <c r="I160" s="51"/>
@@ -16271,7 +16263,7 @@
         <v>266</v>
       </c>
       <c r="G161" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H161" s="51"/>
       <c r="I161" s="51"/>
@@ -16307,7 +16299,7 @@
         <v>267</v>
       </c>
       <c r="G162" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H162" s="51"/>
       <c r="I162" s="51"/>
@@ -16341,7 +16333,7 @@
         <v>268</v>
       </c>
       <c r="G163" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H163" s="51"/>
       <c r="I163" s="51"/>
@@ -16375,7 +16367,7 @@
         <v>269</v>
       </c>
       <c r="G164" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H164" s="51"/>
       <c r="I164" s="51"/>
@@ -16409,7 +16401,7 @@
         <v>270</v>
       </c>
       <c r="G165" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H165" s="51"/>
       <c r="I165" s="51"/>
@@ -16443,7 +16435,7 @@
         <v>271</v>
       </c>
       <c r="G166" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H166" s="51"/>
       <c r="I166" s="51"/>
@@ -16477,7 +16469,7 @@
         <v>272</v>
       </c>
       <c r="G167" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H167" s="51"/>
       <c r="I167" s="51"/>
@@ -16511,7 +16503,7 @@
         <v>273</v>
       </c>
       <c r="G168" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H168" s="51"/>
       <c r="I168" s="51"/>
@@ -16547,7 +16539,7 @@
         <v>274</v>
       </c>
       <c r="G169" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H169" s="51"/>
       <c r="I169" s="51"/>
@@ -16581,7 +16573,7 @@
         <v>275</v>
       </c>
       <c r="G170" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H170" s="51"/>
       <c r="I170" s="51"/>
@@ -16615,7 +16607,7 @@
         <v>276</v>
       </c>
       <c r="G171" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H171" s="51"/>
       <c r="I171" s="51"/>
@@ -16649,7 +16641,7 @@
         <v>277</v>
       </c>
       <c r="G172" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H172" s="51"/>
       <c r="I172" s="51"/>
@@ -16683,7 +16675,7 @@
         <v>278</v>
       </c>
       <c r="G173" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H173" s="51"/>
       <c r="I173" s="51"/>
@@ -16717,7 +16709,7 @@
         <v>279</v>
       </c>
       <c r="G174" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H174" s="51"/>
       <c r="I174" s="51"/>
@@ -16751,7 +16743,7 @@
         <v>280</v>
       </c>
       <c r="G175" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H175" s="51"/>
       <c r="I175" s="51"/>
@@ -16785,7 +16777,7 @@
         <v>281</v>
       </c>
       <c r="G176" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H176" s="51"/>
       <c r="I176" s="51"/>
@@ -16819,7 +16811,7 @@
         <v>282</v>
       </c>
       <c r="G177" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H177" s="51"/>
       <c r="I177" s="51"/>
@@ -16855,7 +16847,7 @@
         <v>283</v>
       </c>
       <c r="G178" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H178" s="51"/>
       <c r="I178" s="51"/>
@@ -16891,7 +16883,7 @@
         <v>285</v>
       </c>
       <c r="G179" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H179" s="51"/>
       <c r="I179" s="51"/>
@@ -18687,7 +18679,7 @@
         <v>352</v>
       </c>
       <c r="G230" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H230" s="52"/>
       <c r="I230" s="52"/>
@@ -18723,7 +18715,7 @@
         <v>353</v>
       </c>
       <c r="G231" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H231" s="52"/>
       <c r="I231" s="52"/>
@@ -18757,7 +18749,7 @@
         <v>354</v>
       </c>
       <c r="G232" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H232" s="52"/>
       <c r="I232" s="52"/>
@@ -18791,7 +18783,7 @@
         <v>355</v>
       </c>
       <c r="G233" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H233" s="52"/>
       <c r="I233" s="52"/>
@@ -18825,7 +18817,7 @@
         <v>356</v>
       </c>
       <c r="G234" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H234" s="52"/>
       <c r="I234" s="52"/>
@@ -18859,7 +18851,7 @@
         <v>357</v>
       </c>
       <c r="G235" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H235" s="52"/>
       <c r="I235" s="52"/>
@@ -18895,7 +18887,7 @@
         <v>358</v>
       </c>
       <c r="G236" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H236" s="52"/>
       <c r="I236" s="52"/>
@@ -18929,7 +18921,7 @@
         <v>359</v>
       </c>
       <c r="G237" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H237" s="52"/>
       <c r="I237" s="52"/>
@@ -18963,7 +18955,7 @@
         <v>360</v>
       </c>
       <c r="G238" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H238" s="52"/>
       <c r="I238" s="52"/>
@@ -18997,7 +18989,7 @@
         <v>361</v>
       </c>
       <c r="G239" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H239" s="52"/>
       <c r="I239" s="52"/>
@@ -19031,7 +19023,7 @@
         <v>362</v>
       </c>
       <c r="G240" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H240" s="52"/>
       <c r="I240" s="52"/>
@@ -19067,7 +19059,7 @@
         <v>363</v>
       </c>
       <c r="G241" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H241" s="52"/>
       <c r="I241" s="52"/>
@@ -19107,7 +19099,7 @@
         <v>364</v>
       </c>
       <c r="G242" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H242" s="52"/>
       <c r="I242" s="52"/>
@@ -19149,7 +19141,7 @@
         <v>367</v>
       </c>
       <c r="G243" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H243" s="52"/>
       <c r="I243" s="52"/>
@@ -19183,7 +19175,7 @@
         <v>368</v>
       </c>
       <c r="G244" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H244" s="52"/>
       <c r="I244" s="52"/>
@@ -19221,7 +19213,7 @@
         <v>369</v>
       </c>
       <c r="G245" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H245" s="52"/>
       <c r="I245" s="52"/>
@@ -19255,7 +19247,7 @@
         <v>370</v>
       </c>
       <c r="G246" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H246" s="52"/>
       <c r="I246" s="52"/>
@@ -19295,7 +19287,7 @@
         <v>372</v>
       </c>
       <c r="G247" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H247" s="52"/>
       <c r="I247" s="52"/>
@@ -19331,7 +19323,7 @@
         <v>373</v>
       </c>
       <c r="G248" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H248" s="52"/>
       <c r="I248" s="52"/>
@@ -19367,7 +19359,7 @@
         <v>374</v>
       </c>
       <c r="G249" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H249" s="52"/>
       <c r="I249" s="52"/>
@@ -19403,7 +19395,7 @@
         <v>375</v>
       </c>
       <c r="G250" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H250" s="52"/>
       <c r="I250" s="52"/>
@@ -19441,7 +19433,7 @@
         <v>376</v>
       </c>
       <c r="G251" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H251" s="52"/>
       <c r="I251" s="52"/>
@@ -19475,7 +19467,7 @@
         <v>377</v>
       </c>
       <c r="G252" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H252" s="52"/>
       <c r="I252" s="52"/>
@@ -19511,7 +19503,7 @@
         <v>378</v>
       </c>
       <c r="G253" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H253" s="52"/>
       <c r="I253" s="52"/>
@@ -19545,7 +19537,7 @@
         <v>379</v>
       </c>
       <c r="G254" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H254" s="52"/>
       <c r="I254" s="52"/>
@@ -19579,7 +19571,7 @@
         <v>380</v>
       </c>
       <c r="G255" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H255" s="52"/>
       <c r="I255" s="52"/>
@@ -19613,7 +19605,7 @@
         <v>381</v>
       </c>
       <c r="G256" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H256" s="52"/>
       <c r="I256" s="52"/>
@@ -19647,7 +19639,7 @@
         <v>382</v>
       </c>
       <c r="G257" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H257" s="52"/>
       <c r="I257" s="52"/>
@@ -19681,7 +19673,7 @@
         <v>383</v>
       </c>
       <c r="G258" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H258" s="52"/>
       <c r="I258" s="52"/>
@@ -19715,7 +19707,7 @@
         <v>384</v>
       </c>
       <c r="G259" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H259" s="52"/>
       <c r="I259" s="52"/>
@@ -19749,7 +19741,7 @@
         <v>385</v>
       </c>
       <c r="G260" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H260" s="52"/>
       <c r="I260" s="52"/>
@@ -19783,7 +19775,7 @@
         <v>386</v>
       </c>
       <c r="G261" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H261" s="52"/>
       <c r="I261" s="52"/>
@@ -19817,7 +19809,7 @@
         <v>387</v>
       </c>
       <c r="G262" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H262" s="52"/>
       <c r="I262" s="52"/>
@@ -19851,7 +19843,7 @@
         <v>388</v>
       </c>
       <c r="G263" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H263" s="52"/>
       <c r="I263" s="52"/>
@@ -19887,7 +19879,7 @@
         <v>389</v>
       </c>
       <c r="G264" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H264" s="52"/>
       <c r="I264" s="52"/>
@@ -19921,7 +19913,7 @@
         <v>390</v>
       </c>
       <c r="G265" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H265" s="52"/>
       <c r="I265" s="52"/>
@@ -19955,7 +19947,7 @@
         <v>391</v>
       </c>
       <c r="G266" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H266" s="52"/>
       <c r="I266" s="52"/>
@@ -19989,7 +19981,7 @@
         <v>392</v>
       </c>
       <c r="G267" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H267" s="52"/>
       <c r="I267" s="52"/>
@@ -20023,7 +20015,7 @@
         <v>393</v>
       </c>
       <c r="G268" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H268" s="52"/>
       <c r="I268" s="52"/>
@@ -20057,7 +20049,7 @@
         <v>394</v>
       </c>
       <c r="G269" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H269" s="52"/>
       <c r="I269" s="52"/>
@@ -20093,7 +20085,7 @@
         <v>395</v>
       </c>
       <c r="G270" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H270" s="52"/>
       <c r="I270" s="52"/>
@@ -20127,7 +20119,7 @@
         <v>396</v>
       </c>
       <c r="G271" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H271" s="52"/>
       <c r="I271" s="52"/>
@@ -20161,7 +20153,7 @@
         <v>397</v>
       </c>
       <c r="G272" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H272" s="52"/>
       <c r="I272" s="52"/>
@@ -20195,7 +20187,7 @@
         <v>398</v>
       </c>
       <c r="G273" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H273" s="52"/>
       <c r="I273" s="52"/>
@@ -20229,7 +20221,7 @@
         <v>399</v>
       </c>
       <c r="G274" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H274" s="52"/>
       <c r="I274" s="52"/>
@@ -20263,7 +20255,7 @@
         <v>400</v>
       </c>
       <c r="G275" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H275" s="52"/>
       <c r="I275" s="52"/>
@@ -20297,7 +20289,7 @@
         <v>401</v>
       </c>
       <c r="G276" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H276" s="52"/>
       <c r="I276" s="52"/>
@@ -20331,7 +20323,7 @@
         <v>402</v>
       </c>
       <c r="G277" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H277" s="52"/>
       <c r="I277" s="52"/>
@@ -20367,7 +20359,7 @@
         <v>403</v>
       </c>
       <c r="G278" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H278" s="52"/>
       <c r="I278" s="52"/>
@@ -20999,7 +20991,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -21009,7 +21001,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -21040,9 +21032,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="12" thickBot="1">
-      <c r="A8" s="30" t="s">
-        <v>424</v>
-      </c>
+      <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="31"/>
@@ -21097,10 +21087,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="M10" s="37" t="s">
         <v>425</v>
-      </c>
-      <c r="M10" s="37" t="s">
-        <v>426</v>
       </c>
       <c r="N10" s="38" t="s">
         <v>2</v>
@@ -21131,8 +21121,8 @@
 )</f>
         <v>1-1-1</v>
       </c>
-      <c r="B11" s="172" t="s">
-        <v>427</v>
+      <c r="B11" s="171" t="s">
+        <v>426</v>
       </c>
       <c r="C11" s="108" t="s">
         <v>43</v>
@@ -21147,7 +21137,7 @@
         <v>46</v>
       </c>
       <c r="G11" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H11" s="76"/>
       <c r="I11" s="76"/>
@@ -21174,7 +21164,7 @@
 )</f>
         <v>2-1-1</v>
       </c>
-      <c r="B12" s="168"/>
+      <c r="B12" s="167"/>
       <c r="C12" s="113"/>
       <c r="D12" s="114"/>
       <c r="E12" s="114" t="s">
@@ -21184,7 +21174,7 @@
         <v>49</v>
       </c>
       <c r="G12" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H12" s="76"/>
       <c r="I12" s="76"/>
@@ -21211,7 +21201,7 @@
 )</f>
         <v>3-1-1</v>
       </c>
-      <c r="B13" s="168"/>
+      <c r="B13" s="167"/>
       <c r="C13" s="113"/>
       <c r="D13" s="109" t="s">
         <v>50</v>
@@ -21223,7 +21213,7 @@
         <v>52</v>
       </c>
       <c r="G13" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H13" s="76"/>
       <c r="I13" s="76"/>
@@ -21250,7 +21240,7 @@
 )</f>
         <v>3-2-1</v>
       </c>
-      <c r="B14" s="168"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="113"/>
       <c r="D14" s="109"/>
       <c r="E14" s="115"/>
@@ -21258,7 +21248,7 @@
         <v>53</v>
       </c>
       <c r="G14" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H14" s="76"/>
       <c r="I14" s="76"/>
@@ -21285,7 +21275,7 @@
 )</f>
         <v>3-3-1</v>
       </c>
-      <c r="B15" s="168"/>
+      <c r="B15" s="167"/>
       <c r="C15" s="113"/>
       <c r="D15" s="109"/>
       <c r="E15" s="115"/>
@@ -21293,7 +21283,7 @@
         <v>54</v>
       </c>
       <c r="G15" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H15" s="76"/>
       <c r="I15" s="76"/>
@@ -21320,7 +21310,7 @@
 )</f>
         <v>3-4-1</v>
       </c>
-      <c r="B16" s="168"/>
+      <c r="B16" s="167"/>
       <c r="C16" s="113"/>
       <c r="D16" s="109"/>
       <c r="E16" s="115"/>
@@ -21328,7 +21318,7 @@
         <v>55</v>
       </c>
       <c r="G16" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H16" s="76"/>
       <c r="I16" s="76"/>
@@ -21355,7 +21345,7 @@
 )</f>
         <v>3-5-1</v>
       </c>
-      <c r="B17" s="168"/>
+      <c r="B17" s="167"/>
       <c r="C17" s="113"/>
       <c r="D17" s="116"/>
       <c r="E17" s="114"/>
@@ -21363,7 +21353,7 @@
         <v>56</v>
       </c>
       <c r="G17" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H17" s="76"/>
       <c r="I17" s="76"/>
@@ -21390,7 +21380,7 @@
 )</f>
         <v>4-1-1</v>
       </c>
-      <c r="B18" s="168"/>
+      <c r="B18" s="167"/>
       <c r="C18" s="113"/>
       <c r="D18" s="115" t="s">
         <v>57</v>
@@ -21402,7 +21392,7 @@
         <v>59</v>
       </c>
       <c r="G18" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H18" s="76"/>
       <c r="I18" s="76"/>
@@ -21429,7 +21419,7 @@
 )</f>
         <v>4-2-1</v>
       </c>
-      <c r="B19" s="168"/>
+      <c r="B19" s="167"/>
       <c r="C19" s="113"/>
       <c r="D19" s="115"/>
       <c r="E19" s="115"/>
@@ -21437,7 +21427,7 @@
         <v>60</v>
       </c>
       <c r="G19" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H19" s="76"/>
       <c r="I19" s="76"/>
@@ -21464,7 +21454,7 @@
 )</f>
         <v>4-3-1</v>
       </c>
-      <c r="B20" s="168"/>
+      <c r="B20" s="167"/>
       <c r="C20" s="113"/>
       <c r="D20" s="115"/>
       <c r="E20" s="114"/>
@@ -21472,7 +21462,7 @@
         <v>61</v>
       </c>
       <c r="G20" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H20" s="76"/>
       <c r="I20" s="76"/>
@@ -21499,7 +21489,7 @@
 )</f>
         <v>5-1-1</v>
       </c>
-      <c r="B21" s="168"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="113"/>
       <c r="D21" s="115"/>
       <c r="E21" s="115" t="s">
@@ -21509,7 +21499,7 @@
         <v>63</v>
       </c>
       <c r="G21" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H21" s="76"/>
       <c r="I21" s="76"/>
@@ -21536,7 +21526,7 @@
 )</f>
         <v>5-2-1</v>
       </c>
-      <c r="B22" s="168"/>
+      <c r="B22" s="167"/>
       <c r="C22" s="113"/>
       <c r="D22" s="115"/>
       <c r="E22" s="115"/>
@@ -21544,7 +21534,7 @@
         <v>64</v>
       </c>
       <c r="G22" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H22" s="76"/>
       <c r="I22" s="76"/>
@@ -21571,15 +21561,15 @@
 )</f>
         <v>5-3-1</v>
       </c>
-      <c r="B23" s="168"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="113"/>
       <c r="D23" s="115"/>
       <c r="E23" s="115"/>
       <c r="F23" s="110" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G23" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H23" s="76"/>
       <c r="I23" s="76"/>
@@ -21606,15 +21596,15 @@
 )</f>
         <v>5-4-1</v>
       </c>
-      <c r="B24" s="168"/>
+      <c r="B24" s="167"/>
       <c r="C24" s="113"/>
       <c r="D24" s="116"/>
       <c r="E24" s="114"/>
       <c r="F24" s="110" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G24" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H24" s="76"/>
       <c r="I24" s="76"/>
@@ -21641,7 +21631,7 @@
 )</f>
         <v>6-1-1</v>
       </c>
-      <c r="B25" s="168"/>
+      <c r="B25" s="167"/>
       <c r="C25" s="113"/>
       <c r="D25" s="115" t="s">
         <v>67</v>
@@ -21653,7 +21643,7 @@
         <v>68</v>
       </c>
       <c r="G25" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H25" s="76"/>
       <c r="I25" s="76"/>
@@ -21680,7 +21670,7 @@
 )</f>
         <v>6-2-1</v>
       </c>
-      <c r="B26" s="168"/>
+      <c r="B26" s="167"/>
       <c r="C26" s="113"/>
       <c r="D26" s="116"/>
       <c r="E26" s="114"/>
@@ -21688,7 +21678,7 @@
         <v>69</v>
       </c>
       <c r="G26" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H26" s="76"/>
       <c r="I26" s="76"/>
@@ -21715,7 +21705,7 @@
 )</f>
         <v>7-1-1</v>
       </c>
-      <c r="B27" s="168"/>
+      <c r="B27" s="167"/>
       <c r="C27" s="113"/>
       <c r="D27" s="115" t="s">
         <v>70</v>
@@ -21727,7 +21717,7 @@
         <v>72</v>
       </c>
       <c r="G27" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H27" s="76"/>
       <c r="I27" s="76"/>
@@ -21754,7 +21744,7 @@
 )</f>
         <v>7-2-1</v>
       </c>
-      <c r="B28" s="168"/>
+      <c r="B28" s="167"/>
       <c r="C28" s="113"/>
       <c r="D28" s="115"/>
       <c r="E28" s="114"/>
@@ -21762,7 +21752,7 @@
         <v>73</v>
       </c>
       <c r="G28" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H28" s="76"/>
       <c r="I28" s="76"/>
@@ -21789,7 +21779,7 @@
 )</f>
         <v>8-1-1</v>
       </c>
-      <c r="B29" s="168"/>
+      <c r="B29" s="167"/>
       <c r="C29" s="113"/>
       <c r="D29" s="109"/>
       <c r="E29" s="115" t="s">
@@ -21799,7 +21789,7 @@
         <v>75</v>
       </c>
       <c r="G29" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H29" s="76"/>
       <c r="I29" s="76"/>
@@ -21826,7 +21816,7 @@
 )</f>
         <v>8-2-1</v>
       </c>
-      <c r="B30" s="168"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="113"/>
       <c r="D30" s="115"/>
       <c r="E30" s="115"/>
@@ -21834,7 +21824,7 @@
         <v>76</v>
       </c>
       <c r="G30" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H30" s="76"/>
       <c r="I30" s="76"/>
@@ -21861,7 +21851,7 @@
 )</f>
         <v>8-3-1</v>
       </c>
-      <c r="B31" s="168"/>
+      <c r="B31" s="167"/>
       <c r="C31" s="113"/>
       <c r="D31" s="115"/>
       <c r="E31" s="115"/>
@@ -21869,7 +21859,7 @@
         <v>77</v>
       </c>
       <c r="G31" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H31" s="76"/>
       <c r="I31" s="76"/>
@@ -21896,7 +21886,7 @@
 )</f>
         <v>8-4-1</v>
       </c>
-      <c r="B32" s="168"/>
+      <c r="B32" s="167"/>
       <c r="C32" s="113"/>
       <c r="D32" s="115"/>
       <c r="E32" s="114"/>
@@ -21904,7 +21894,7 @@
         <v>78</v>
       </c>
       <c r="G32" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H32" s="76"/>
       <c r="I32" s="76"/>
@@ -21931,17 +21921,17 @@
 )</f>
         <v>9-1-1</v>
       </c>
-      <c r="B33" s="168"/>
+      <c r="B33" s="167"/>
       <c r="C33" s="113"/>
       <c r="D33" s="115"/>
       <c r="E33" s="115" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F33" s="110" t="s">
         <v>80</v>
       </c>
       <c r="G33" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H33" s="76"/>
       <c r="I33" s="76"/>
@@ -21968,7 +21958,7 @@
 )</f>
         <v>9-2-1</v>
       </c>
-      <c r="B34" s="168"/>
+      <c r="B34" s="167"/>
       <c r="C34" s="113"/>
       <c r="D34" s="115"/>
       <c r="E34" s="114"/>
@@ -21976,7 +21966,7 @@
         <v>81</v>
       </c>
       <c r="G34" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H34" s="76"/>
       <c r="I34" s="76"/>
@@ -22003,17 +21993,17 @@
 )</f>
         <v>10-1-1</v>
       </c>
-      <c r="B35" s="168"/>
+      <c r="B35" s="167"/>
       <c r="C35" s="109"/>
       <c r="D35" s="115"/>
       <c r="E35" s="109" t="s">
         <v>82</v>
       </c>
       <c r="F35" s="110" t="s">
+        <v>431</v>
+      </c>
+      <c r="G35" s="75" t="s">
         <v>432</v>
-      </c>
-      <c r="G35" s="75" t="s">
-        <v>433</v>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
@@ -22040,21 +22030,21 @@
 )</f>
         <v>11-1-1</v>
       </c>
-      <c r="B36" s="168"/>
+      <c r="B36" s="167"/>
       <c r="C36" s="142" t="s">
         <v>85</v>
       </c>
       <c r="D36" s="142" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E36" s="108" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F36" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="166" t="s">
-        <v>494</v>
+      <c r="G36" s="165" t="s">
+        <v>493</v>
       </c>
       <c r="H36" s="76"/>
       <c r="I36" s="76"/>
@@ -22081,15 +22071,15 @@
 )</f>
         <v>11-2-1</v>
       </c>
-      <c r="B37" s="168"/>
+      <c r="B37" s="167"/>
       <c r="C37" s="109"/>
       <c r="D37" s="115"/>
       <c r="E37" s="109"/>
       <c r="F37" s="110" t="s">
-        <v>435</v>
-      </c>
-      <c r="G37" s="166" t="s">
-        <v>494</v>
+        <v>434</v>
+      </c>
+      <c r="G37" s="165" t="s">
+        <v>493</v>
       </c>
       <c r="H37" s="76"/>
       <c r="I37" s="76"/>
@@ -22116,15 +22106,15 @@
 )</f>
         <v>11-3-1</v>
       </c>
-      <c r="B38" s="168"/>
+      <c r="B38" s="167"/>
       <c r="C38" s="109"/>
       <c r="D38" s="115"/>
       <c r="E38" s="109"/>
       <c r="F38" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="G38" s="166" t="s">
-        <v>494</v>
+      <c r="G38" s="165" t="s">
+        <v>493</v>
       </c>
       <c r="H38" s="76"/>
       <c r="I38" s="76"/>
@@ -22151,15 +22141,15 @@
 )</f>
         <v>11-4-1</v>
       </c>
-      <c r="B39" s="168"/>
+      <c r="B39" s="167"/>
       <c r="C39" s="109"/>
       <c r="D39" s="116"/>
       <c r="E39" s="114"/>
       <c r="F39" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="166" t="s">
-        <v>494</v>
+      <c r="G39" s="165" t="s">
+        <v>493</v>
       </c>
       <c r="H39" s="76"/>
       <c r="I39" s="76"/>
@@ -22186,7 +22176,7 @@
 )</f>
         <v>12-1-1</v>
       </c>
-      <c r="B40" s="168"/>
+      <c r="B40" s="167"/>
       <c r="C40" s="109"/>
       <c r="D40" s="115" t="s">
         <v>92</v>
@@ -22195,10 +22185,10 @@
         <v>51</v>
       </c>
       <c r="F40" s="110" t="s">
-        <v>436</v>
-      </c>
-      <c r="G40" s="166" t="s">
-        <v>494</v>
+        <v>435</v>
+      </c>
+      <c r="G40" s="165" t="s">
+        <v>493</v>
       </c>
       <c r="H40" s="76"/>
       <c r="I40" s="76"/>
@@ -22225,15 +22215,15 @@
 )</f>
         <v>12-2-1</v>
       </c>
-      <c r="B41" s="168"/>
+      <c r="B41" s="167"/>
       <c r="C41" s="109"/>
       <c r="D41" s="115"/>
       <c r="E41" s="109"/>
       <c r="F41" s="110" t="s">
-        <v>437</v>
-      </c>
-      <c r="G41" s="166" t="s">
-        <v>494</v>
+        <v>436</v>
+      </c>
+      <c r="G41" s="165" t="s">
+        <v>493</v>
       </c>
       <c r="H41" s="76"/>
       <c r="I41" s="76"/>
@@ -22260,31 +22250,31 @@
 )</f>
         <v>13-1-1</v>
       </c>
-      <c r="B42" s="168"/>
-      <c r="C42" s="172" t="s">
+      <c r="B42" s="167"/>
+      <c r="C42" s="171" t="s">
+        <v>494</v>
+      </c>
+      <c r="D42" s="171" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="171" t="s">
         <v>495</v>
       </c>
-      <c r="D42" s="172" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="172" t="s">
-        <v>496</v>
-      </c>
-      <c r="F42" s="169" t="s">
-        <v>498</v>
-      </c>
-      <c r="G42" s="170"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="159"/>
-      <c r="K42" s="159"/>
-      <c r="L42" s="161"/>
-      <c r="M42" s="161"/>
-      <c r="N42" s="161"/>
-      <c r="O42" s="161"/>
-      <c r="P42" s="161"/>
-      <c r="Q42" s="171"/>
-      <c r="R42" s="159"/>
+      <c r="F42" s="168" t="s">
+        <v>497</v>
+      </c>
+      <c r="G42" s="169"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="158"/>
+      <c r="K42" s="158"/>
+      <c r="L42" s="160"/>
+      <c r="M42" s="160"/>
+      <c r="N42" s="160"/>
+      <c r="O42" s="160"/>
+      <c r="P42" s="160"/>
+      <c r="Q42" s="170"/>
+      <c r="R42" s="158"/>
     </row>
     <row r="43" spans="1:18" ht="22.5">
       <c r="A43" s="40" t="str" cm="1">
@@ -22299,25 +22289,25 @@
 )</f>
         <v>13-2-1</v>
       </c>
-      <c r="B43" s="168"/>
-      <c r="C43" s="168"/>
-      <c r="D43" s="173"/>
-      <c r="E43" s="173"/>
-      <c r="F43" s="169" t="s">
-        <v>499</v>
-      </c>
-      <c r="G43" s="170"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="159"/>
-      <c r="K43" s="159"/>
-      <c r="L43" s="161"/>
-      <c r="M43" s="161"/>
-      <c r="N43" s="161"/>
-      <c r="O43" s="161"/>
-      <c r="P43" s="161"/>
-      <c r="Q43" s="171"/>
-      <c r="R43" s="159"/>
+      <c r="B43" s="167"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="172"/>
+      <c r="E43" s="172"/>
+      <c r="F43" s="168" t="s">
+        <v>498</v>
+      </c>
+      <c r="G43" s="169"/>
+      <c r="H43" s="160"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="158"/>
+      <c r="K43" s="158"/>
+      <c r="L43" s="160"/>
+      <c r="M43" s="160"/>
+      <c r="N43" s="160"/>
+      <c r="O43" s="160"/>
+      <c r="P43" s="160"/>
+      <c r="Q43" s="170"/>
+      <c r="R43" s="158"/>
     </row>
     <row r="44" spans="1:18" ht="33.75">
       <c r="A44" s="40" t="str" cm="1">
@@ -22332,29 +22322,29 @@
 )</f>
         <v>14-1-1</v>
       </c>
-      <c r="B44" s="168"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="172" t="s">
+      <c r="B44" s="167"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="171" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="172" t="s">
-        <v>497</v>
-      </c>
-      <c r="F44" s="169" t="s">
-        <v>500</v>
-      </c>
-      <c r="G44" s="170"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="161"/>
-      <c r="J44" s="159"/>
-      <c r="K44" s="159"/>
-      <c r="L44" s="161"/>
-      <c r="M44" s="161"/>
-      <c r="N44" s="161"/>
-      <c r="O44" s="161"/>
-      <c r="P44" s="161"/>
-      <c r="Q44" s="171"/>
-      <c r="R44" s="159"/>
+      <c r="E44" s="171" t="s">
+        <v>496</v>
+      </c>
+      <c r="F44" s="168" t="s">
+        <v>499</v>
+      </c>
+      <c r="G44" s="169"/>
+      <c r="H44" s="160"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="158"/>
+      <c r="K44" s="158"/>
+      <c r="L44" s="160"/>
+      <c r="M44" s="160"/>
+      <c r="N44" s="160"/>
+      <c r="O44" s="160"/>
+      <c r="P44" s="160"/>
+      <c r="Q44" s="170"/>
+      <c r="R44" s="158"/>
     </row>
     <row r="45" spans="1:18" ht="22.5">
       <c r="A45" s="40" t="str" cm="1">
@@ -22369,25 +22359,25 @@
 )</f>
         <v>14-2-1</v>
       </c>
-      <c r="B45" s="173"/>
-      <c r="C45" s="173"/>
-      <c r="D45" s="173"/>
-      <c r="E45" s="173"/>
-      <c r="F45" s="169" t="s">
-        <v>501</v>
-      </c>
-      <c r="G45" s="170"/>
-      <c r="H45" s="161"/>
-      <c r="I45" s="161"/>
-      <c r="J45" s="159"/>
-      <c r="K45" s="159"/>
-      <c r="L45" s="161"/>
-      <c r="M45" s="161"/>
-      <c r="N45" s="161"/>
-      <c r="O45" s="161"/>
-      <c r="P45" s="161"/>
-      <c r="Q45" s="171"/>
-      <c r="R45" s="159"/>
+      <c r="B45" s="172"/>
+      <c r="C45" s="172"/>
+      <c r="D45" s="172"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="168" t="s">
+        <v>500</v>
+      </c>
+      <c r="G45" s="169"/>
+      <c r="H45" s="160"/>
+      <c r="I45" s="160"/>
+      <c r="J45" s="158"/>
+      <c r="K45" s="158"/>
+      <c r="L45" s="160"/>
+      <c r="M45" s="160"/>
+      <c r="N45" s="160"/>
+      <c r="O45" s="160"/>
+      <c r="P45" s="160"/>
+      <c r="Q45" s="170"/>
+      <c r="R45" s="158"/>
     </row>
     <row r="46" spans="1:18" ht="22.5">
       <c r="A46" s="40" t="str" cm="1">
@@ -22917,7 +22907,7 @@
       <c r="C61" s="112"/>
       <c r="D61" s="112"/>
       <c r="E61" s="121" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F61" s="121" t="s">
         <v>118</v>
@@ -22989,10 +22979,10 @@
         <v>121</v>
       </c>
       <c r="E63" s="120" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F63" s="121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G63" s="64"/>
       <c r="H63" s="65"/>
@@ -23025,7 +23015,7 @@
       <c r="D64" s="112"/>
       <c r="E64" s="120"/>
       <c r="F64" s="107" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G64" s="64"/>
       <c r="H64" s="61"/>
@@ -23058,7 +23048,7 @@
       <c r="D65" s="112"/>
       <c r="E65" s="120"/>
       <c r="F65" s="121" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G65" s="64"/>
       <c r="H65" s="65"/>
@@ -23091,7 +23081,7 @@
       <c r="D66" s="112"/>
       <c r="E66" s="120"/>
       <c r="F66" s="121" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G66" s="64"/>
       <c r="H66" s="65"/>
@@ -23874,7 +23864,7 @@
         <v>146</v>
       </c>
       <c r="E89" s="121" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F89" s="121" t="s">
         <v>159</v>
@@ -23944,7 +23934,7 @@
       <c r="C91" s="118"/>
       <c r="D91" s="118"/>
       <c r="E91" s="118" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F91" s="121" t="s">
         <v>162</v>
@@ -23983,7 +23973,7 @@
         <v>146</v>
       </c>
       <c r="E92" s="120" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F92" s="107" t="s">
         <v>164</v>
@@ -24154,7 +24144,7 @@
       <c r="C97" s="118"/>
       <c r="D97" s="118"/>
       <c r="E97" s="118" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F97" s="121" t="s">
         <v>169</v>
@@ -24527,7 +24517,7 @@
       <c r="C108" s="118"/>
       <c r="D108" s="112"/>
       <c r="E108" s="122" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F108" s="121" t="s">
         <v>183</v>
@@ -24673,7 +24663,7 @@
       </c>
       <c r="B112" s="112"/>
       <c r="C112" s="121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D112" s="121" t="s">
         <v>51</v>
@@ -24712,7 +24702,7 @@
       </c>
       <c r="B113" s="112"/>
       <c r="C113" s="112" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D113" s="112" t="s">
         <v>51</v>
@@ -24789,16 +24779,16 @@
         <v>196</v>
       </c>
       <c r="D115" s="108" t="s">
-        <v>434</v>
-      </c>
-      <c r="E115" s="167" t="s">
-        <v>434</v>
+        <v>433</v>
+      </c>
+      <c r="E115" s="166" t="s">
+        <v>433</v>
       </c>
       <c r="F115" s="110" t="s">
         <v>197</v>
       </c>
       <c r="G115" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H115" s="76"/>
       <c r="I115" s="76"/>
@@ -24825,8 +24815,8 @@
 )</f>
         <v>45-2-1</v>
       </c>
-      <c r="B116" s="234" t="s">
-        <v>446</v>
+      <c r="B116" s="233" t="s">
+        <v>445</v>
       </c>
       <c r="C116" s="115"/>
       <c r="D116" s="109"/>
@@ -24835,7 +24825,7 @@
         <v>199</v>
       </c>
       <c r="G116" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H116" s="76"/>
       <c r="I116" s="76"/>
@@ -24862,7 +24852,7 @@
 )</f>
         <v>45-3-1</v>
       </c>
-      <c r="B117" s="234"/>
+      <c r="B117" s="233"/>
       <c r="C117" s="115"/>
       <c r="D117" s="109"/>
       <c r="E117" s="129"/>
@@ -24870,7 +24860,7 @@
         <v>200</v>
       </c>
       <c r="G117" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H117" s="76"/>
       <c r="I117" s="76"/>
@@ -24905,7 +24895,7 @@
         <v>201</v>
       </c>
       <c r="G118" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H118" s="76"/>
       <c r="I118" s="76"/>
@@ -24942,7 +24932,7 @@
         <v>202</v>
       </c>
       <c r="G119" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H119" s="76"/>
       <c r="I119" s="76"/>
@@ -24977,7 +24967,7 @@
         <v>203</v>
       </c>
       <c r="G120" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H120" s="76"/>
       <c r="I120" s="76"/>
@@ -25012,7 +25002,7 @@
         <v>204</v>
       </c>
       <c r="G121" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H121" s="76"/>
       <c r="I121" s="76"/>
@@ -25047,7 +25037,7 @@
         <v>205</v>
       </c>
       <c r="G122" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H122" s="76"/>
       <c r="I122" s="76"/>
@@ -25082,7 +25072,7 @@
         <v>206</v>
       </c>
       <c r="G123" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H123" s="76"/>
       <c r="I123" s="76"/>
@@ -25119,7 +25109,7 @@
         <v>209</v>
       </c>
       <c r="G124" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H124" s="76"/>
       <c r="I124" s="76"/>
@@ -25154,7 +25144,7 @@
         <v>210</v>
       </c>
       <c r="G125" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H125" s="76"/>
       <c r="I125" s="76"/>
@@ -25189,7 +25179,7 @@
         <v>211</v>
       </c>
       <c r="G126" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H126" s="76"/>
       <c r="I126" s="76"/>
@@ -25224,7 +25214,7 @@
         <v>212</v>
       </c>
       <c r="G127" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H127" s="76"/>
       <c r="I127" s="76"/>
@@ -25259,7 +25249,7 @@
         <v>213</v>
       </c>
       <c r="G128" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H128" s="76"/>
       <c r="I128" s="76"/>
@@ -25290,13 +25280,13 @@
       <c r="C129" s="115"/>
       <c r="D129" s="114"/>
       <c r="E129" s="114" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F129" s="110" t="s">
         <v>215</v>
       </c>
       <c r="G129" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H129" s="76"/>
       <c r="I129" s="76"/>
@@ -25326,16 +25316,16 @@
       <c r="B130" s="109"/>
       <c r="C130" s="116"/>
       <c r="D130" s="114" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E130" s="114" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F130" s="110" t="s">
         <v>216</v>
       </c>
       <c r="G130" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H130" s="76"/>
       <c r="I130" s="76"/>
@@ -25364,7 +25354,7 @@
       </c>
       <c r="B131" s="109"/>
       <c r="C131" s="109" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D131" s="109" t="s">
         <v>217</v>
@@ -25376,7 +25366,7 @@
         <v>219</v>
       </c>
       <c r="G131" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H131" s="76"/>
       <c r="I131" s="76"/>
@@ -25407,13 +25397,13 @@
       <c r="C132" s="109"/>
       <c r="D132" s="109"/>
       <c r="E132" s="115" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F132" s="110" t="s">
         <v>221</v>
       </c>
       <c r="G132" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H132" s="76"/>
       <c r="I132" s="76"/>
@@ -25448,7 +25438,7 @@
         <v>222</v>
       </c>
       <c r="G133" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H133" s="76"/>
       <c r="I133" s="76"/>
@@ -25483,7 +25473,7 @@
         <v>223</v>
       </c>
       <c r="G134" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H134" s="76"/>
       <c r="I134" s="76"/>
@@ -25517,16 +25507,16 @@
         <v>196</v>
       </c>
       <c r="D135" s="108" t="s">
-        <v>434</v>
-      </c>
-      <c r="E135" s="167" t="s">
-        <v>434</v>
+        <v>433</v>
+      </c>
+      <c r="E135" s="166" t="s">
+        <v>433</v>
       </c>
       <c r="F135" s="110" t="s">
         <v>225</v>
       </c>
       <c r="G135" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H135" s="76"/>
       <c r="I135" s="76"/>
@@ -25553,7 +25543,7 @@
 )</f>
         <v>52-2-1</v>
       </c>
-      <c r="B136" s="234" t="s">
+      <c r="B136" s="233" t="s">
         <v>226</v>
       </c>
       <c r="C136" s="115"/>
@@ -25563,7 +25553,7 @@
         <v>227</v>
       </c>
       <c r="G136" s="51" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H136" s="76"/>
       <c r="I136" s="76"/>
@@ -25590,7 +25580,7 @@
 )</f>
         <v>52-3-1</v>
       </c>
-      <c r="B137" s="234"/>
+      <c r="B137" s="233"/>
       <c r="C137" s="115"/>
       <c r="D137" s="109"/>
       <c r="E137" s="115"/>
@@ -25598,7 +25588,7 @@
         <v>228</v>
       </c>
       <c r="G137" s="51" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H137" s="76"/>
       <c r="I137" s="76"/>
@@ -25633,7 +25623,7 @@
         <v>229</v>
       </c>
       <c r="G138" s="51" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H138" s="76"/>
       <c r="I138" s="76"/>
@@ -25670,7 +25660,7 @@
         <v>231</v>
       </c>
       <c r="G139" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H139" s="76"/>
       <c r="I139" s="76"/>
@@ -25705,7 +25695,7 @@
         <v>232</v>
       </c>
       <c r="G140" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H140" s="76"/>
       <c r="I140" s="76"/>
@@ -25735,16 +25725,16 @@
       <c r="B141" s="109"/>
       <c r="C141" s="116"/>
       <c r="D141" s="114" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E141" s="114" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F141" s="110" t="s">
         <v>233</v>
       </c>
       <c r="G141" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H141" s="76"/>
       <c r="I141" s="76"/>
@@ -25785,7 +25775,7 @@
         <v>236</v>
       </c>
       <c r="G142" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H142" s="76"/>
       <c r="I142" s="76"/>
@@ -25822,7 +25812,7 @@
         <v>238</v>
       </c>
       <c r="G143" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H143" s="76"/>
       <c r="I143" s="76"/>
@@ -25859,7 +25849,7 @@
         <v>240</v>
       </c>
       <c r="G144" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H144" s="76"/>
       <c r="I144" s="76"/>
@@ -25927,13 +25917,13 @@
       <c r="C146" s="115"/>
       <c r="D146" s="109"/>
       <c r="E146" s="110" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F146" s="110" t="s">
         <v>244</v>
       </c>
       <c r="G146" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H146" s="76"/>
       <c r="I146" s="76"/>
@@ -25964,7 +25954,7 @@
       <c r="C147" s="115"/>
       <c r="D147" s="109"/>
       <c r="E147" s="129" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F147" s="110" t="s">
         <v>246</v>
@@ -26178,13 +26168,13 @@
         <v>253</v>
       </c>
       <c r="E153" s="108" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F153" s="110" t="s">
         <v>254</v>
       </c>
       <c r="G153" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H153" s="76"/>
       <c r="I153" s="76"/>
@@ -26219,7 +26209,7 @@
         <v>255</v>
       </c>
       <c r="G154" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H154" s="76"/>
       <c r="I154" s="76"/>
@@ -26256,7 +26246,7 @@
         <v>256</v>
       </c>
       <c r="G155" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H155" s="76"/>
       <c r="I155" s="76"/>
@@ -26291,7 +26281,7 @@
         <v>257</v>
       </c>
       <c r="G156" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H156" s="76"/>
       <c r="I156" s="76"/>
@@ -26323,10 +26313,10 @@
       <c r="D157" s="109"/>
       <c r="E157" s="129"/>
       <c r="F157" s="110" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G157" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H157" s="76"/>
       <c r="I157" s="76"/>
@@ -26358,10 +26348,10 @@
       <c r="D158" s="109"/>
       <c r="E158" s="129"/>
       <c r="F158" s="110" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G158" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H158" s="76"/>
       <c r="I158" s="76"/>
@@ -26396,7 +26386,7 @@
         <v>260</v>
       </c>
       <c r="G159" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H159" s="76"/>
       <c r="I159" s="76"/>
@@ -26431,7 +26421,7 @@
         <v>261</v>
       </c>
       <c r="G160" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H160" s="76"/>
       <c r="I160" s="76"/>
@@ -26466,7 +26456,7 @@
         <v>262</v>
       </c>
       <c r="G161" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H161" s="76"/>
       <c r="I161" s="76"/>
@@ -26501,7 +26491,7 @@
         <v>263</v>
       </c>
       <c r="G162" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H162" s="76"/>
       <c r="I162" s="76"/>
@@ -26536,7 +26526,7 @@
         <v>264</v>
       </c>
       <c r="G163" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H163" s="76"/>
       <c r="I163" s="76"/>
@@ -26571,7 +26561,7 @@
         <v>265</v>
       </c>
       <c r="G164" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H164" s="76"/>
       <c r="I164" s="76"/>
@@ -26606,7 +26596,7 @@
         <v>266</v>
       </c>
       <c r="G165" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H165" s="76"/>
       <c r="I165" s="76"/>
@@ -26643,7 +26633,7 @@
         <v>267</v>
       </c>
       <c r="G166" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H166" s="76"/>
       <c r="I166" s="76"/>
@@ -26678,7 +26668,7 @@
         <v>268</v>
       </c>
       <c r="G167" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H167" s="76"/>
       <c r="I167" s="76"/>
@@ -26713,7 +26703,7 @@
         <v>269</v>
       </c>
       <c r="G168" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H168" s="76"/>
       <c r="I168" s="76"/>
@@ -26748,7 +26738,7 @@
         <v>270</v>
       </c>
       <c r="G169" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H169" s="76"/>
       <c r="I169" s="76"/>
@@ -26783,7 +26773,7 @@
         <v>271</v>
       </c>
       <c r="G170" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H170" s="76"/>
       <c r="I170" s="76"/>
@@ -26818,7 +26808,7 @@
         <v>272</v>
       </c>
       <c r="G171" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H171" s="76"/>
       <c r="I171" s="76"/>
@@ -26890,7 +26880,7 @@
         <v>274</v>
       </c>
       <c r="G173" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H173" s="76"/>
       <c r="I173" s="76"/>
@@ -26925,7 +26915,7 @@
         <v>275</v>
       </c>
       <c r="G174" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H174" s="76"/>
       <c r="I174" s="76"/>
@@ -26960,7 +26950,7 @@
         <v>276</v>
       </c>
       <c r="G175" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H175" s="76"/>
       <c r="I175" s="76"/>
@@ -26995,7 +26985,7 @@
         <v>277</v>
       </c>
       <c r="G176" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H176" s="76"/>
       <c r="I176" s="76"/>
@@ -27030,7 +27020,7 @@
         <v>278</v>
       </c>
       <c r="G177" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H177" s="76"/>
       <c r="I177" s="76"/>
@@ -27065,7 +27055,7 @@
         <v>279</v>
       </c>
       <c r="G178" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H178" s="76"/>
       <c r="I178" s="76"/>
@@ -27207,7 +27197,7 @@
         <v>283</v>
       </c>
       <c r="G182" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H182" s="76"/>
       <c r="I182" s="76"/>
@@ -27356,7 +27346,7 @@
       <c r="B186" s="114"/>
       <c r="C186" s="116"/>
       <c r="D186" s="116" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E186" s="116" t="s">
         <v>51</v>
@@ -27399,7 +27389,7 @@
         <v>196</v>
       </c>
       <c r="D187" s="130" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E187" s="131" t="s">
         <v>296</v>
@@ -27408,7 +27398,7 @@
         <v>297</v>
       </c>
       <c r="G187" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H187" s="48"/>
       <c r="I187" s="48"/>
@@ -27445,7 +27435,7 @@
         <v>299</v>
       </c>
       <c r="G188" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H188" s="48"/>
       <c r="I188" s="48"/>
@@ -27480,7 +27470,7 @@
         <v>300</v>
       </c>
       <c r="G189" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H189" s="48"/>
       <c r="I189" s="48"/>
@@ -27517,7 +27507,7 @@
         <v>302</v>
       </c>
       <c r="G190" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H190" s="48"/>
       <c r="I190" s="48"/>
@@ -27552,7 +27542,7 @@
         <v>303</v>
       </c>
       <c r="G191" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H191" s="48"/>
       <c r="I191" s="48"/>
@@ -27582,16 +27572,16 @@
       <c r="B192" s="133"/>
       <c r="C192" s="137"/>
       <c r="D192" s="137" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E192" s="137" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F192" s="131" t="s">
         <v>304</v>
       </c>
       <c r="G192" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H192" s="48"/>
       <c r="I192" s="48"/>
@@ -27623,7 +27613,7 @@
         <v>305</v>
       </c>
       <c r="D193" s="133" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E193" s="135" t="s">
         <v>307</v>
@@ -27632,7 +27622,7 @@
         <v>308</v>
       </c>
       <c r="G193" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H193" s="48"/>
       <c r="I193" s="48"/>
@@ -27667,7 +27657,7 @@
         <v>309</v>
       </c>
       <c r="G194" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H194" s="48"/>
       <c r="I194" s="48"/>
@@ -27702,7 +27692,7 @@
         <v>310</v>
       </c>
       <c r="G195" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H195" s="48"/>
       <c r="I195" s="48"/>
@@ -27737,7 +27727,7 @@
         <v>311</v>
       </c>
       <c r="G196" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H196" s="48"/>
       <c r="I196" s="48"/>
@@ -27772,7 +27762,7 @@
         <v>312</v>
       </c>
       <c r="G197" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H197" s="48"/>
       <c r="I197" s="48"/>
@@ -27807,7 +27797,7 @@
         <v>313</v>
       </c>
       <c r="G198" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H198" s="48"/>
       <c r="I198" s="48"/>
@@ -27842,7 +27832,7 @@
         <v>314</v>
       </c>
       <c r="G199" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H199" s="48"/>
       <c r="I199" s="48"/>
@@ -27876,10 +27866,10 @@
         <v>315</v>
       </c>
       <c r="F200" s="131" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G200" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H200" s="48"/>
       <c r="I200" s="48"/>
@@ -27918,7 +27908,7 @@
         <v>318</v>
       </c>
       <c r="G201" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H201" s="48"/>
       <c r="I201" s="48"/>
@@ -27953,7 +27943,7 @@
         <v>319</v>
       </c>
       <c r="G202" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H202" s="48"/>
       <c r="I202" s="48"/>
@@ -27988,7 +27978,7 @@
         <v>320</v>
       </c>
       <c r="G203" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H203" s="48"/>
       <c r="I203" s="48"/>
@@ -28023,7 +28013,7 @@
         <v>321</v>
       </c>
       <c r="G204" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H204" s="48"/>
       <c r="I204" s="48"/>
@@ -28058,7 +28048,7 @@
         <v>322</v>
       </c>
       <c r="G205" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H205" s="48"/>
       <c r="I205" s="48"/>
@@ -28093,7 +28083,7 @@
         <v>323</v>
       </c>
       <c r="G206" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H206" s="48"/>
       <c r="I206" s="48"/>
@@ -28125,10 +28115,10 @@
       <c r="D207" s="133"/>
       <c r="E207" s="135"/>
       <c r="F207" s="131" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G207" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H207" s="48"/>
       <c r="I207" s="48"/>
@@ -28163,7 +28153,7 @@
         <v>325</v>
       </c>
       <c r="G208" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H208" s="48"/>
       <c r="I208" s="48"/>
@@ -28198,7 +28188,7 @@
         <v>326</v>
       </c>
       <c r="G209" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H209" s="48"/>
       <c r="I209" s="48"/>
@@ -28233,7 +28223,7 @@
         <v>327</v>
       </c>
       <c r="G210" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H210" s="48"/>
       <c r="I210" s="48"/>
@@ -28268,7 +28258,7 @@
         <v>328</v>
       </c>
       <c r="G211" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H211" s="48"/>
       <c r="I211" s="48"/>
@@ -28303,7 +28293,7 @@
         <v>329</v>
       </c>
       <c r="G212" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H212" s="48"/>
       <c r="I212" s="48"/>
@@ -28338,7 +28328,7 @@
         <v>330</v>
       </c>
       <c r="G213" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H213" s="48"/>
       <c r="I213" s="48"/>
@@ -28368,7 +28358,7 @@
       <c r="B214" s="133"/>
       <c r="C214" s="134"/>
       <c r="D214" s="130" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E214" s="140" t="s">
         <v>127</v>
@@ -28377,7 +28367,7 @@
         <v>332</v>
       </c>
       <c r="G214" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H214" s="48"/>
       <c r="I214" s="48"/>
@@ -28412,7 +28402,7 @@
         <v>333</v>
       </c>
       <c r="G215" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H215" s="48"/>
       <c r="I215" s="48"/>
@@ -28447,7 +28437,7 @@
         <v>334</v>
       </c>
       <c r="G216" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H216" s="48"/>
       <c r="I216" s="48"/>
@@ -28482,7 +28472,7 @@
         <v>320</v>
       </c>
       <c r="G217" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H217" s="48"/>
       <c r="I217" s="48"/>
@@ -28517,7 +28507,7 @@
         <v>321</v>
       </c>
       <c r="G218" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H218" s="48"/>
       <c r="I218" s="48"/>
@@ -28552,7 +28542,7 @@
         <v>335</v>
       </c>
       <c r="G219" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H219" s="48"/>
       <c r="I219" s="48"/>
@@ -28587,7 +28577,7 @@
         <v>336</v>
       </c>
       <c r="G220" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H220" s="48"/>
       <c r="I220" s="48"/>
@@ -28619,10 +28609,10 @@
       <c r="D221" s="133"/>
       <c r="E221" s="135"/>
       <c r="F221" s="131" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G221" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H221" s="48"/>
       <c r="I221" s="48"/>
@@ -28654,10 +28644,10 @@
       <c r="D222" s="133"/>
       <c r="E222" s="135"/>
       <c r="F222" s="131" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G222" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H222" s="48"/>
       <c r="I222" s="48"/>
@@ -28692,7 +28682,7 @@
         <v>339</v>
       </c>
       <c r="G223" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H223" s="48"/>
       <c r="I223" s="48"/>
@@ -28727,7 +28717,7 @@
         <v>340</v>
       </c>
       <c r="G224" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H224" s="48"/>
       <c r="I224" s="48"/>
@@ -28762,7 +28752,7 @@
         <v>341</v>
       </c>
       <c r="G225" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H225" s="48"/>
       <c r="I225" s="48"/>
@@ -28797,7 +28787,7 @@
         <v>342</v>
       </c>
       <c r="G226" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H226" s="48"/>
       <c r="I226" s="48"/>
@@ -28832,7 +28822,7 @@
         <v>343</v>
       </c>
       <c r="G227" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H227" s="48"/>
       <c r="I227" s="48"/>
@@ -28867,7 +28857,7 @@
         <v>330</v>
       </c>
       <c r="G228" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H228" s="48"/>
       <c r="I228" s="48"/>
@@ -28904,7 +28894,7 @@
         <v>345</v>
       </c>
       <c r="G229" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H229" s="48"/>
       <c r="I229" s="48"/>
@@ -28939,7 +28929,7 @@
         <v>346</v>
       </c>
       <c r="G230" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H230" s="48"/>
       <c r="I230" s="48"/>
@@ -28974,7 +28964,7 @@
         <v>347</v>
       </c>
       <c r="G231" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H231" s="48"/>
       <c r="I231" s="48"/>
@@ -29008,10 +28998,10 @@
         <v>154</v>
       </c>
       <c r="F232" s="131" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G232" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H232" s="48"/>
       <c r="I232" s="48"/>
@@ -29048,7 +29038,7 @@
         <v>350</v>
       </c>
       <c r="G233" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H233" s="48"/>
       <c r="I233" s="48"/>
@@ -29082,16 +29072,16 @@
         <v>196</v>
       </c>
       <c r="D234" s="108" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E234" s="110" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F234" s="110" t="s">
         <v>352</v>
       </c>
       <c r="G234" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H234" s="76"/>
       <c r="I234" s="76"/>
@@ -29128,7 +29118,7 @@
         <v>353</v>
       </c>
       <c r="G235" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H235" s="76"/>
       <c r="I235" s="76"/>
@@ -29163,7 +29153,7 @@
         <v>354</v>
       </c>
       <c r="G236" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H236" s="76"/>
       <c r="I236" s="76"/>
@@ -29198,7 +29188,7 @@
         <v>355</v>
       </c>
       <c r="G237" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H237" s="76"/>
       <c r="I237" s="76"/>
@@ -29233,7 +29223,7 @@
         <v>356</v>
       </c>
       <c r="G238" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H238" s="76"/>
       <c r="I238" s="76"/>
@@ -29268,7 +29258,7 @@
         <v>357</v>
       </c>
       <c r="G239" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H239" s="76"/>
       <c r="I239" s="76"/>
@@ -29305,7 +29295,7 @@
         <v>358</v>
       </c>
       <c r="G240" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H240" s="76"/>
       <c r="I240" s="76"/>
@@ -29340,7 +29330,7 @@
         <v>359</v>
       </c>
       <c r="G241" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H241" s="76"/>
       <c r="I241" s="76"/>
@@ -29375,7 +29365,7 @@
         <v>360</v>
       </c>
       <c r="G242" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H242" s="76"/>
       <c r="I242" s="76"/>
@@ -29410,7 +29400,7 @@
         <v>361</v>
       </c>
       <c r="G243" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H243" s="76"/>
       <c r="I243" s="76"/>
@@ -29445,7 +29435,7 @@
         <v>362</v>
       </c>
       <c r="G244" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H244" s="76"/>
       <c r="I244" s="76"/>
@@ -29476,13 +29466,13 @@
       <c r="C245" s="114"/>
       <c r="D245" s="114"/>
       <c r="E245" s="114" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F245" s="110" t="s">
         <v>363</v>
       </c>
       <c r="G245" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H245" s="76"/>
       <c r="I245" s="76"/>
@@ -29511,7 +29501,7 @@
       </c>
       <c r="B246" s="114"/>
       <c r="C246" s="114" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D246" s="114" t="s">
         <v>217</v>
@@ -29523,7 +29513,7 @@
         <v>364</v>
       </c>
       <c r="G246" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H246" s="76"/>
       <c r="I246" s="76"/>
@@ -29557,16 +29547,16 @@
         <v>366</v>
       </c>
       <c r="D247" s="108" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E247" s="142" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F247" s="110" t="s">
         <v>367</v>
       </c>
       <c r="G247" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H247" s="76"/>
       <c r="I247" s="76"/>
@@ -29601,7 +29591,7 @@
         <v>368</v>
       </c>
       <c r="G248" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H248" s="76"/>
       <c r="I248" s="76"/>
@@ -29631,16 +29621,16 @@
       <c r="B249" s="109"/>
       <c r="C249" s="109"/>
       <c r="D249" s="109" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E249" s="115" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F249" s="110" t="s">
         <v>369</v>
       </c>
       <c r="G249" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H249" s="76"/>
       <c r="I249" s="76"/>
@@ -29675,7 +29665,7 @@
         <v>370</v>
       </c>
       <c r="G250" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H250" s="76"/>
       <c r="I250" s="76"/>
@@ -29716,7 +29706,7 @@
         <v>372</v>
       </c>
       <c r="G251" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H251" s="76"/>
       <c r="I251" s="76"/>
@@ -29753,7 +29743,7 @@
         <v>373</v>
       </c>
       <c r="G252" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H252" s="76"/>
       <c r="I252" s="76"/>
@@ -29790,7 +29780,7 @@
         <v>374</v>
       </c>
       <c r="G253" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H253" s="76"/>
       <c r="I253" s="76"/>
@@ -29827,7 +29817,7 @@
         <v>375</v>
       </c>
       <c r="G254" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H254" s="76"/>
       <c r="I254" s="76"/>
@@ -29860,13 +29850,13 @@
         <v>253</v>
       </c>
       <c r="E255" s="129" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F255" s="110" t="s">
         <v>376</v>
       </c>
       <c r="G255" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H255" s="76"/>
       <c r="I255" s="76"/>
@@ -29901,7 +29891,7 @@
         <v>377</v>
       </c>
       <c r="G256" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H256" s="76"/>
       <c r="I256" s="76"/>
@@ -29938,7 +29928,7 @@
         <v>378</v>
       </c>
       <c r="G257" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H257" s="76"/>
       <c r="I257" s="76"/>
@@ -29973,7 +29963,7 @@
         <v>379</v>
       </c>
       <c r="G258" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H258" s="76"/>
       <c r="I258" s="76"/>
@@ -30005,10 +29995,10 @@
       <c r="D259" s="115"/>
       <c r="E259" s="115"/>
       <c r="F259" s="110" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G259" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H259" s="76"/>
       <c r="I259" s="76"/>
@@ -30043,7 +30033,7 @@
         <v>381</v>
       </c>
       <c r="G260" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H260" s="76"/>
       <c r="I260" s="76"/>
@@ -30078,7 +30068,7 @@
         <v>382</v>
       </c>
       <c r="G261" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H261" s="76"/>
       <c r="I261" s="76"/>
@@ -30113,7 +30103,7 @@
         <v>383</v>
       </c>
       <c r="G262" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H262" s="76"/>
       <c r="I262" s="76"/>
@@ -30148,7 +30138,7 @@
         <v>384</v>
       </c>
       <c r="G263" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H263" s="76"/>
       <c r="I263" s="76"/>
@@ -30183,7 +30173,7 @@
         <v>385</v>
       </c>
       <c r="G264" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H264" s="76"/>
       <c r="I264" s="76"/>
@@ -30218,7 +30208,7 @@
         <v>386</v>
       </c>
       <c r="G265" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H265" s="76"/>
       <c r="I265" s="76"/>
@@ -30253,7 +30243,7 @@
         <v>387</v>
       </c>
       <c r="G266" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H266" s="76"/>
       <c r="I266" s="76"/>
@@ -30288,7 +30278,7 @@
         <v>388</v>
       </c>
       <c r="G267" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H267" s="76"/>
       <c r="I267" s="76"/>
@@ -30325,7 +30315,7 @@
         <v>389</v>
       </c>
       <c r="G268" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H268" s="76"/>
       <c r="I268" s="76"/>
@@ -30360,7 +30350,7 @@
         <v>390</v>
       </c>
       <c r="G269" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H269" s="76"/>
       <c r="I269" s="76"/>
@@ -30395,7 +30385,7 @@
         <v>391</v>
       </c>
       <c r="G270" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H270" s="76"/>
       <c r="I270" s="76"/>
@@ -30430,7 +30420,7 @@
         <v>392</v>
       </c>
       <c r="G271" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H271" s="76"/>
       <c r="I271" s="76"/>
@@ -30465,7 +30455,7 @@
         <v>393</v>
       </c>
       <c r="G272" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H272" s="76"/>
       <c r="I272" s="76"/>
@@ -30500,7 +30490,7 @@
         <v>394</v>
       </c>
       <c r="G273" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H273" s="76"/>
       <c r="I273" s="76"/>
@@ -30537,7 +30527,7 @@
         <v>395</v>
       </c>
       <c r="G274" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H274" s="76"/>
       <c r="I274" s="76"/>
@@ -30572,7 +30562,7 @@
         <v>396</v>
       </c>
       <c r="G275" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H275" s="76"/>
       <c r="I275" s="76"/>
@@ -30607,7 +30597,7 @@
         <v>397</v>
       </c>
       <c r="G276" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H276" s="76"/>
       <c r="I276" s="76"/>
@@ -30642,7 +30632,7 @@
         <v>398</v>
       </c>
       <c r="G277" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H277" s="76"/>
       <c r="I277" s="76"/>
@@ -30677,7 +30667,7 @@
         <v>399</v>
       </c>
       <c r="G278" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H278" s="76"/>
       <c r="I278" s="76"/>
@@ -30712,7 +30702,7 @@
         <v>400</v>
       </c>
       <c r="G279" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H279" s="76"/>
       <c r="I279" s="76"/>
@@ -30747,7 +30737,7 @@
         <v>401</v>
       </c>
       <c r="G280" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H280" s="76"/>
       <c r="I280" s="76"/>
@@ -30782,7 +30772,7 @@
         <v>402</v>
       </c>
       <c r="G281" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H281" s="76"/>
       <c r="I281" s="76"/>
@@ -30819,7 +30809,7 @@
         <v>403</v>
       </c>
       <c r="G282" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H282" s="76"/>
       <c r="I282" s="76"/>
@@ -30853,10 +30843,10 @@
         <v>405</v>
       </c>
       <c r="D283" s="107" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E283" s="117" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F283" s="121" t="s">
         <v>406</v>
@@ -31238,7 +31228,7 @@
       <c r="D294" s="120"/>
       <c r="E294" s="120"/>
       <c r="F294" s="121" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G294" s="64"/>
       <c r="H294" s="65"/>
@@ -31271,7 +31261,7 @@
       <c r="D295" s="120"/>
       <c r="E295" s="120"/>
       <c r="F295" s="121" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G295" s="64"/>
       <c r="H295" s="65"/>
@@ -31304,7 +31294,7 @@
       <c r="D296" s="120"/>
       <c r="E296" s="120"/>
       <c r="F296" s="121" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G296" s="64"/>
       <c r="H296" s="65"/>
@@ -31337,7 +31327,7 @@
       <c r="D297" s="120"/>
       <c r="E297" s="120"/>
       <c r="F297" s="121" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G297" s="64"/>
       <c r="H297" s="65"/>
@@ -31386,7 +31376,7 @@
       <c r="R298" s="64"/>
     </row>
     <row r="299" spans="1:18" ht="22.5">
-      <c r="A299" s="151" t="str" cm="1">
+      <c r="A299" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A299" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E299),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E299)&gt;0)*ROW($E$11:E299),0)),
@@ -31408,18 +31398,18 @@
       <c r="G299" s="145"/>
       <c r="H299" s="144"/>
       <c r="I299" s="144"/>
-      <c r="J299" s="152"/>
+      <c r="J299" s="151"/>
       <c r="K299" s="145"/>
       <c r="L299" s="144"/>
       <c r="M299" s="144"/>
       <c r="N299" s="144"/>
       <c r="O299" s="144"/>
       <c r="P299" s="144"/>
-      <c r="Q299" s="153"/>
+      <c r="Q299" s="152"/>
       <c r="R299" s="145"/>
     </row>
     <row r="300" spans="1:18" ht="33.75">
-      <c r="A300" s="151" t="str" cm="1">
+      <c r="A300" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A300" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E300),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E300)&gt;0)*ROW($E$11:E300),0)),
@@ -31432,7 +31422,7 @@
         <v>103-1-1</v>
       </c>
       <c r="B300" s="144" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C300" s="144" t="s">
         <v>145</v>
@@ -31444,23 +31434,23 @@
         <v>51</v>
       </c>
       <c r="F300" s="64" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G300" s="64"/>
-      <c r="H300" s="146"/>
-      <c r="I300" s="146"/>
-      <c r="J300" s="146"/>
-      <c r="K300" s="146"/>
-      <c r="L300" s="146"/>
-      <c r="M300" s="146"/>
-      <c r="N300" s="146"/>
-      <c r="O300" s="146"/>
-      <c r="P300" s="146"/>
-      <c r="Q300" s="146"/>
-      <c r="R300" s="146"/>
+      <c r="H300" s="65"/>
+      <c r="I300" s="65"/>
+      <c r="J300" s="65"/>
+      <c r="K300" s="65"/>
+      <c r="L300" s="65"/>
+      <c r="M300" s="65"/>
+      <c r="N300" s="65"/>
+      <c r="O300" s="65"/>
+      <c r="P300" s="65"/>
+      <c r="Q300" s="65"/>
+      <c r="R300" s="65"/>
     </row>
     <row r="301" spans="1:18" ht="22.5">
-      <c r="A301" s="151" t="str" cm="1">
+      <c r="A301" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A301" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E301),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E301)&gt;0)*ROW($E$11:E301),0)),
@@ -31472,32 +31462,32 @@
 )</f>
         <v>104-1-1</v>
       </c>
-      <c r="B301" s="147"/>
-      <c r="C301" s="147"/>
+      <c r="B301" s="146"/>
+      <c r="C301" s="146"/>
       <c r="D301" s="64" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E301" s="64" t="s">
         <v>51</v>
       </c>
       <c r="F301" s="64" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G301" s="64"/>
-      <c r="H301" s="146"/>
-      <c r="I301" s="146"/>
-      <c r="J301" s="146"/>
-      <c r="K301" s="146"/>
-      <c r="L301" s="146"/>
-      <c r="M301" s="146"/>
-      <c r="N301" s="146"/>
-      <c r="O301" s="146"/>
-      <c r="P301" s="146"/>
-      <c r="Q301" s="146"/>
-      <c r="R301" s="146"/>
+      <c r="H301" s="65"/>
+      <c r="I301" s="65"/>
+      <c r="J301" s="65"/>
+      <c r="K301" s="65"/>
+      <c r="L301" s="65"/>
+      <c r="M301" s="65"/>
+      <c r="N301" s="65"/>
+      <c r="O301" s="65"/>
+      <c r="P301" s="65"/>
+      <c r="Q301" s="65"/>
+      <c r="R301" s="65"/>
     </row>
     <row r="302" spans="1:18" ht="33.75">
-      <c r="A302" s="151" t="str" cm="1">
+      <c r="A302" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A302" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E302),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E302)&gt;0)*ROW($E$11:E302),0)),
@@ -31509,32 +31499,32 @@
 )</f>
         <v>105-1-1</v>
       </c>
-      <c r="B302" s="147"/>
-      <c r="C302" s="147"/>
+      <c r="B302" s="146"/>
+      <c r="C302" s="146"/>
       <c r="D302" s="145" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E302" s="145" t="s">
         <v>51</v>
       </c>
       <c r="F302" s="64" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G302" s="64"/>
-      <c r="H302" s="146"/>
-      <c r="I302" s="146"/>
-      <c r="J302" s="146"/>
-      <c r="K302" s="146"/>
-      <c r="L302" s="146"/>
-      <c r="M302" s="146"/>
-      <c r="N302" s="146"/>
-      <c r="O302" s="146"/>
-      <c r="P302" s="146"/>
-      <c r="Q302" s="146"/>
-      <c r="R302" s="146"/>
+      <c r="H302" s="65"/>
+      <c r="I302" s="65"/>
+      <c r="J302" s="65"/>
+      <c r="K302" s="65"/>
+      <c r="L302" s="65"/>
+      <c r="M302" s="65"/>
+      <c r="N302" s="65"/>
+      <c r="O302" s="65"/>
+      <c r="P302" s="65"/>
+      <c r="Q302" s="65"/>
+      <c r="R302" s="65"/>
     </row>
     <row r="303" spans="1:18" ht="33.75">
-      <c r="A303" s="151" t="str" cm="1">
+      <c r="A303" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A303" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E303),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E303)&gt;0)*ROW($E$11:E303),0)),
@@ -31546,28 +31536,28 @@
 )</f>
         <v>105-2-1</v>
       </c>
-      <c r="B303" s="147"/>
-      <c r="C303" s="147"/>
-      <c r="D303" s="148"/>
-      <c r="E303" s="148"/>
+      <c r="B303" s="146"/>
+      <c r="C303" s="146"/>
+      <c r="D303" s="147"/>
+      <c r="E303" s="147"/>
       <c r="F303" s="64" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G303" s="64"/>
-      <c r="H303" s="146"/>
-      <c r="I303" s="146"/>
-      <c r="J303" s="146"/>
-      <c r="K303" s="146"/>
-      <c r="L303" s="146"/>
-      <c r="M303" s="146"/>
-      <c r="N303" s="146"/>
-      <c r="O303" s="146"/>
-      <c r="P303" s="146"/>
-      <c r="Q303" s="146"/>
-      <c r="R303" s="146"/>
+      <c r="H303" s="65"/>
+      <c r="I303" s="65"/>
+      <c r="J303" s="65"/>
+      <c r="K303" s="65"/>
+      <c r="L303" s="65"/>
+      <c r="M303" s="65"/>
+      <c r="N303" s="65"/>
+      <c r="O303" s="65"/>
+      <c r="P303" s="65"/>
+      <c r="Q303" s="65"/>
+      <c r="R303" s="65"/>
     </row>
     <row r="304" spans="1:18" ht="45">
-      <c r="A304" s="151" t="str" cm="1">
+      <c r="A304" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A304" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E304),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E304)&gt;0)*ROW($E$11:E304),0)),
@@ -31579,28 +31569,28 @@
 )</f>
         <v>105-3-1</v>
       </c>
-      <c r="B304" s="147"/>
-      <c r="C304" s="147"/>
-      <c r="D304" s="149"/>
-      <c r="E304" s="149"/>
+      <c r="B304" s="146"/>
+      <c r="C304" s="146"/>
+      <c r="D304" s="148"/>
+      <c r="E304" s="148"/>
       <c r="F304" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G304" s="64"/>
-      <c r="H304" s="146"/>
-      <c r="I304" s="146"/>
-      <c r="J304" s="146"/>
-      <c r="K304" s="146"/>
-      <c r="L304" s="146"/>
-      <c r="M304" s="146"/>
-      <c r="N304" s="146"/>
-      <c r="O304" s="146"/>
-      <c r="P304" s="146"/>
-      <c r="Q304" s="146"/>
-      <c r="R304" s="146"/>
+      <c r="H304" s="65"/>
+      <c r="I304" s="65"/>
+      <c r="J304" s="65"/>
+      <c r="K304" s="65"/>
+      <c r="L304" s="65"/>
+      <c r="M304" s="65"/>
+      <c r="N304" s="65"/>
+      <c r="O304" s="65"/>
+      <c r="P304" s="65"/>
+      <c r="Q304" s="65"/>
+      <c r="R304" s="65"/>
     </row>
     <row r="305" spans="1:18" ht="33.75">
-      <c r="A305" s="151" t="str" cm="1">
+      <c r="A305" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A305" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E305),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E305)&gt;0)*ROW($E$11:E305),0)),
@@ -31612,32 +31602,32 @@
 )</f>
         <v>106-1-1</v>
       </c>
-      <c r="B305" s="147"/>
-      <c r="C305" s="147"/>
+      <c r="B305" s="146"/>
+      <c r="C305" s="146"/>
       <c r="D305" s="145" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E305" s="64" t="s">
         <v>51</v>
       </c>
       <c r="F305" s="64" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G305" s="64"/>
-      <c r="H305" s="146"/>
-      <c r="I305" s="146"/>
-      <c r="J305" s="146"/>
-      <c r="K305" s="146"/>
-      <c r="L305" s="146"/>
-      <c r="M305" s="146"/>
-      <c r="N305" s="146"/>
-      <c r="O305" s="146"/>
-      <c r="P305" s="146"/>
-      <c r="Q305" s="146"/>
-      <c r="R305" s="146"/>
+      <c r="H305" s="65"/>
+      <c r="I305" s="65"/>
+      <c r="J305" s="65"/>
+      <c r="K305" s="65"/>
+      <c r="L305" s="65"/>
+      <c r="M305" s="65"/>
+      <c r="N305" s="65"/>
+      <c r="O305" s="65"/>
+      <c r="P305" s="65"/>
+      <c r="Q305" s="65"/>
+      <c r="R305" s="65"/>
     </row>
     <row r="306" spans="1:18" ht="45">
-      <c r="A306" s="151" t="str" cm="1">
+      <c r="A306" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A306" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E306),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E306)&gt;0)*ROW($E$11:E306),0)),
@@ -31649,30 +31639,30 @@
 )</f>
         <v>107-1-1</v>
       </c>
-      <c r="B306" s="147"/>
-      <c r="C306" s="147"/>
-      <c r="D306" s="149"/>
+      <c r="B306" s="146"/>
+      <c r="C306" s="146"/>
+      <c r="D306" s="148"/>
       <c r="E306" s="64" t="s">
+        <v>481</v>
+      </c>
+      <c r="F306" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="F306" s="64" t="s">
-        <v>483</v>
-      </c>
       <c r="G306" s="64"/>
-      <c r="H306" s="146"/>
-      <c r="I306" s="146"/>
-      <c r="J306" s="146"/>
-      <c r="K306" s="146"/>
-      <c r="L306" s="146"/>
-      <c r="M306" s="146"/>
-      <c r="N306" s="146"/>
-      <c r="O306" s="146"/>
-      <c r="P306" s="146"/>
-      <c r="Q306" s="146"/>
-      <c r="R306" s="146"/>
+      <c r="H306" s="65"/>
+      <c r="I306" s="65"/>
+      <c r="J306" s="65"/>
+      <c r="K306" s="65"/>
+      <c r="L306" s="65"/>
+      <c r="M306" s="65"/>
+      <c r="N306" s="65"/>
+      <c r="O306" s="65"/>
+      <c r="P306" s="65"/>
+      <c r="Q306" s="65"/>
+      <c r="R306" s="65"/>
     </row>
     <row r="307" spans="1:18" ht="33.75">
-      <c r="A307" s="151" t="str" cm="1">
+      <c r="A307" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A307" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E307),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E307)&gt;0)*ROW($E$11:E307),0)),
@@ -31684,8 +31674,8 @@
 )</f>
         <v>108-1-1</v>
       </c>
-      <c r="B307" s="147"/>
-      <c r="C307" s="147"/>
+      <c r="B307" s="146"/>
+      <c r="C307" s="146"/>
       <c r="D307" s="145" t="s">
         <v>161</v>
       </c>
@@ -31693,23 +31683,23 @@
         <v>51</v>
       </c>
       <c r="F307" s="64" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G307" s="64"/>
-      <c r="H307" s="146"/>
-      <c r="I307" s="146"/>
-      <c r="J307" s="146"/>
-      <c r="K307" s="146"/>
-      <c r="L307" s="146"/>
-      <c r="M307" s="146"/>
-      <c r="N307" s="146"/>
-      <c r="O307" s="146"/>
-      <c r="P307" s="146"/>
-      <c r="Q307" s="146"/>
-      <c r="R307" s="146"/>
+      <c r="H307" s="65"/>
+      <c r="I307" s="65"/>
+      <c r="J307" s="65"/>
+      <c r="K307" s="65"/>
+      <c r="L307" s="65"/>
+      <c r="M307" s="65"/>
+      <c r="N307" s="65"/>
+      <c r="O307" s="65"/>
+      <c r="P307" s="65"/>
+      <c r="Q307" s="65"/>
+      <c r="R307" s="65"/>
     </row>
     <row r="308" spans="1:18" ht="45">
-      <c r="A308" s="151" t="str" cm="1">
+      <c r="A308" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A308" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E308),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E308)&gt;0)*ROW($E$11:E308),0)),
@@ -31721,28 +31711,28 @@
 )</f>
         <v>108-2-1</v>
       </c>
-      <c r="B308" s="147"/>
-      <c r="C308" s="147"/>
-      <c r="D308" s="148"/>
-      <c r="E308" s="148"/>
+      <c r="B308" s="146"/>
+      <c r="C308" s="146"/>
+      <c r="D308" s="147"/>
+      <c r="E308" s="147"/>
       <c r="F308" s="64" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G308" s="64"/>
-      <c r="H308" s="146"/>
-      <c r="I308" s="146"/>
-      <c r="J308" s="146"/>
-      <c r="K308" s="146"/>
-      <c r="L308" s="146"/>
-      <c r="M308" s="146"/>
-      <c r="N308" s="146"/>
-      <c r="O308" s="146"/>
-      <c r="P308" s="146"/>
-      <c r="Q308" s="146"/>
-      <c r="R308" s="146"/>
+      <c r="H308" s="65"/>
+      <c r="I308" s="65"/>
+      <c r="J308" s="65"/>
+      <c r="K308" s="65"/>
+      <c r="L308" s="65"/>
+      <c r="M308" s="65"/>
+      <c r="N308" s="65"/>
+      <c r="O308" s="65"/>
+      <c r="P308" s="65"/>
+      <c r="Q308" s="65"/>
+      <c r="R308" s="65"/>
     </row>
     <row r="309" spans="1:18" ht="45">
-      <c r="A309" s="151" t="str" cm="1">
+      <c r="A309" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A309" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E309),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E309)&gt;0)*ROW($E$11:E309),0)),
@@ -31754,28 +31744,28 @@
 )</f>
         <v>108-3-1</v>
       </c>
-      <c r="B309" s="147"/>
-      <c r="C309" s="147"/>
-      <c r="D309" s="148"/>
-      <c r="E309" s="148"/>
+      <c r="B309" s="146"/>
+      <c r="C309" s="146"/>
+      <c r="D309" s="147"/>
+      <c r="E309" s="147"/>
       <c r="F309" s="64" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G309" s="64"/>
-      <c r="H309" s="146"/>
-      <c r="I309" s="146"/>
-      <c r="J309" s="146"/>
-      <c r="K309" s="146"/>
-      <c r="L309" s="146"/>
-      <c r="M309" s="146"/>
-      <c r="N309" s="146"/>
-      <c r="O309" s="146"/>
-      <c r="P309" s="146"/>
-      <c r="Q309" s="146"/>
-      <c r="R309" s="146"/>
+      <c r="H309" s="65"/>
+      <c r="I309" s="65"/>
+      <c r="J309" s="65"/>
+      <c r="K309" s="65"/>
+      <c r="L309" s="65"/>
+      <c r="M309" s="65"/>
+      <c r="N309" s="65"/>
+      <c r="O309" s="65"/>
+      <c r="P309" s="65"/>
+      <c r="Q309" s="65"/>
+      <c r="R309" s="65"/>
     </row>
     <row r="310" spans="1:18" ht="45">
-      <c r="A310" s="151" t="str" cm="1">
+      <c r="A310" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A310" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E310),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E310)&gt;0)*ROW($E$11:E310),0)),
@@ -31787,28 +31777,28 @@
 )</f>
         <v>108-4-1</v>
       </c>
-      <c r="B310" s="147"/>
-      <c r="C310" s="147"/>
-      <c r="D310" s="148"/>
-      <c r="E310" s="148"/>
+      <c r="B310" s="146"/>
+      <c r="C310" s="146"/>
+      <c r="D310" s="147"/>
+      <c r="E310" s="147"/>
       <c r="F310" s="64" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G310" s="64"/>
-      <c r="H310" s="146"/>
-      <c r="I310" s="146"/>
-      <c r="J310" s="146"/>
-      <c r="K310" s="146"/>
-      <c r="L310" s="146"/>
-      <c r="M310" s="146"/>
-      <c r="N310" s="146"/>
-      <c r="O310" s="146"/>
-      <c r="P310" s="146"/>
-      <c r="Q310" s="146"/>
-      <c r="R310" s="146"/>
+      <c r="H310" s="65"/>
+      <c r="I310" s="65"/>
+      <c r="J310" s="65"/>
+      <c r="K310" s="65"/>
+      <c r="L310" s="65"/>
+      <c r="M310" s="65"/>
+      <c r="N310" s="65"/>
+      <c r="O310" s="65"/>
+      <c r="P310" s="65"/>
+      <c r="Q310" s="65"/>
+      <c r="R310" s="65"/>
     </row>
     <row r="311" spans="1:18" ht="45">
-      <c r="A311" s="151" t="str" cm="1">
+      <c r="A311" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A311" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E311),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E311)&gt;0)*ROW($E$11:E311),0)),
@@ -31820,28 +31810,28 @@
 )</f>
         <v>108-5-1</v>
       </c>
-      <c r="B311" s="147"/>
-      <c r="C311" s="147"/>
-      <c r="D311" s="148"/>
-      <c r="E311" s="148"/>
+      <c r="B311" s="146"/>
+      <c r="C311" s="146"/>
+      <c r="D311" s="147"/>
+      <c r="E311" s="147"/>
       <c r="F311" s="64" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G311" s="64"/>
-      <c r="H311" s="146"/>
-      <c r="I311" s="146"/>
-      <c r="J311" s="146"/>
-      <c r="K311" s="146"/>
-      <c r="L311" s="146"/>
-      <c r="M311" s="146"/>
-      <c r="N311" s="146"/>
-      <c r="O311" s="146"/>
-      <c r="P311" s="146"/>
-      <c r="Q311" s="146"/>
-      <c r="R311" s="146"/>
+      <c r="H311" s="65"/>
+      <c r="I311" s="65"/>
+      <c r="J311" s="65"/>
+      <c r="K311" s="65"/>
+      <c r="L311" s="65"/>
+      <c r="M311" s="65"/>
+      <c r="N311" s="65"/>
+      <c r="O311" s="65"/>
+      <c r="P311" s="65"/>
+      <c r="Q311" s="65"/>
+      <c r="R311" s="65"/>
     </row>
     <row r="312" spans="1:18" ht="45">
-      <c r="A312" s="151" t="str" cm="1">
+      <c r="A312" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A312" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E312),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E312)&gt;0)*ROW($E$11:E312),0)),
@@ -31853,28 +31843,28 @@
 )</f>
         <v>108-6-1</v>
       </c>
-      <c r="B312" s="147"/>
-      <c r="C312" s="147"/>
-      <c r="D312" s="148"/>
-      <c r="E312" s="148"/>
+      <c r="B312" s="146"/>
+      <c r="C312" s="146"/>
+      <c r="D312" s="147"/>
+      <c r="E312" s="147"/>
       <c r="F312" s="64" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G312" s="64"/>
-      <c r="H312" s="146"/>
-      <c r="I312" s="146"/>
-      <c r="J312" s="146"/>
-      <c r="K312" s="146"/>
-      <c r="L312" s="146"/>
-      <c r="M312" s="146"/>
-      <c r="N312" s="146"/>
-      <c r="O312" s="146"/>
-      <c r="P312" s="146"/>
-      <c r="Q312" s="146"/>
-      <c r="R312" s="146"/>
+      <c r="H312" s="65"/>
+      <c r="I312" s="65"/>
+      <c r="J312" s="65"/>
+      <c r="K312" s="65"/>
+      <c r="L312" s="65"/>
+      <c r="M312" s="65"/>
+      <c r="N312" s="65"/>
+      <c r="O312" s="65"/>
+      <c r="P312" s="65"/>
+      <c r="Q312" s="65"/>
+      <c r="R312" s="65"/>
     </row>
     <row r="313" spans="1:18" ht="45">
-      <c r="A313" s="151" t="str" cm="1">
+      <c r="A313" s="150" t="str" cm="1">
         <f t="array" aca="1" ref="A313" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E313),
 _xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E313)&gt;0)*ROW($E$11:E313),0)),
@@ -31886,25 +31876,25 @@
 )</f>
         <v>108-7-1</v>
       </c>
-      <c r="B313" s="147"/>
-      <c r="C313" s="147"/>
-      <c r="D313" s="148"/>
-      <c r="E313" s="148"/>
+      <c r="B313" s="146"/>
+      <c r="C313" s="146"/>
+      <c r="D313" s="147"/>
+      <c r="E313" s="147"/>
       <c r="F313" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G313" s="64"/>
-      <c r="H313" s="146"/>
-      <c r="I313" s="146"/>
-      <c r="J313" s="146"/>
-      <c r="K313" s="146"/>
-      <c r="L313" s="146"/>
-      <c r="M313" s="146"/>
-      <c r="N313" s="146"/>
-      <c r="O313" s="146"/>
-      <c r="P313" s="146"/>
-      <c r="Q313" s="146"/>
-      <c r="R313" s="146"/>
+      <c r="H313" s="65"/>
+      <c r="I313" s="65"/>
+      <c r="J313" s="65"/>
+      <c r="K313" s="65"/>
+      <c r="L313" s="65"/>
+      <c r="M313" s="65"/>
+      <c r="N313" s="65"/>
+      <c r="O313" s="65"/>
+      <c r="P313" s="65"/>
+      <c r="Q313" s="65"/>
+      <c r="R313" s="65"/>
     </row>
     <row r="314" spans="1:18" ht="22.5">
       <c r="A314" s="40" t="str" cm="1">
@@ -31919,25 +31909,25 @@
 )</f>
         <v>108-8-1</v>
       </c>
-      <c r="B314" s="150"/>
-      <c r="C314" s="150"/>
-      <c r="D314" s="149"/>
-      <c r="E314" s="149"/>
+      <c r="B314" s="149"/>
+      <c r="C314" s="149"/>
+      <c r="D314" s="148"/>
+      <c r="E314" s="148"/>
       <c r="F314" s="64" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G314" s="64"/>
-      <c r="H314" s="146"/>
-      <c r="I314" s="146"/>
-      <c r="J314" s="146"/>
-      <c r="K314" s="146"/>
-      <c r="L314" s="146"/>
-      <c r="M314" s="146"/>
-      <c r="N314" s="146"/>
-      <c r="O314" s="146"/>
-      <c r="P314" s="146"/>
-      <c r="Q314" s="146"/>
-      <c r="R314" s="146"/>
+      <c r="H314" s="65"/>
+      <c r="I314" s="65"/>
+      <c r="J314" s="65"/>
+      <c r="K314" s="65"/>
+      <c r="L314" s="65"/>
+      <c r="M314" s="65"/>
+      <c r="N314" s="65"/>
+      <c r="O314" s="65"/>
+      <c r="P314" s="65"/>
+      <c r="Q314" s="65"/>
+      <c r="R314" s="65"/>
     </row>
   </sheetData>
   <autoFilter ref="A10:R10" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
